--- a/data/CANONICAL Bouquet Recipe Master Sheet.xlsx
+++ b/data/CANONICAL Bouquet Recipe Master Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Documents/Sweet Piedmont/Offerings/Software and Code/bouquet-blueprint-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CA9CD1-61F7-7344-B05B-84FD8AE8B42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF66D1-B218-1F4B-BC8A-44F126336188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="760" windowWidth="29500" windowHeight="21580" firstSheet="1" activeTab="1" xr2:uid="{835A2F5B-2282-E345-9D43-16C3FBECA701}"/>
   </bookViews>
@@ -11492,20 +11492,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{63FB889B-362F-FA4D-9D4D-A49BD91E0CC2}" name="Table31615" displayName="Table31615" ref="A1:J246" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141" tableBorderDxfId="140" headerRowCellStyle="Currency" dataCellStyle="Currency">
-  <autoFilter ref="A1:J246" xr:uid="{63FB889B-362F-FA4D-9D4D-A49BD91E0CC2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Early Spring, Fall"/>
-        <filter val="Early Spring, Late Spring, Fall"/>
-        <filter val="Early Spring, Late Spring, Summer, Fall"/>
-        <filter val="Late Spring, Fall, Summer"/>
-        <filter val="Late Spring, Summer"/>
-        <filter val="Late Spring, Summer, Fall"/>
-        <filter val="Summer"/>
-        <filter val="Summer, Fall"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J246" xr:uid="{63FB889B-362F-FA4D-9D4D-A49BD91E0CC2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J246">
     <sortCondition ref="B1:B246"/>
   </sortState>
@@ -33243,8 +33230,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -33315,7 +33302,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -33341,7 +33328,7 @@
       <c r="I2" s="140"/>
       <c r="J2" s="140"/>
     </row>
-    <row r="3" spans="1:20" hidden="1">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -33367,7 +33354,7 @@
       <c r="I3" s="140"/>
       <c r="J3" s="140"/>
     </row>
-    <row r="4" spans="1:20" hidden="1">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -33393,7 +33380,7 @@
       <c r="I4" s="140"/>
       <c r="J4" s="140"/>
     </row>
-    <row r="5" spans="1:20" hidden="1">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -33419,7 +33406,7 @@
       <c r="I5" s="140"/>
       <c r="J5" s="140"/>
     </row>
-    <row r="6" spans="1:20" hidden="1">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -33445,7 +33432,7 @@
       <c r="I6" s="140"/>
       <c r="J6" s="140"/>
     </row>
-    <row r="7" spans="1:20" hidden="1">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -33473,7 +33460,7 @@
       <c r="I7" s="140"/>
       <c r="J7" s="140"/>
     </row>
-    <row r="8" spans="1:20" hidden="1">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -33500,7 +33487,7 @@
       <c r="I8" s="140"/>
       <c r="J8" s="140"/>
     </row>
-    <row r="9" spans="1:20" hidden="1">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -33526,7 +33513,7 @@
       <c r="I9" s="140"/>
       <c r="J9" s="140"/>
     </row>
-    <row r="10" spans="1:20" hidden="1">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -33552,7 +33539,7 @@
       <c r="I10" s="140"/>
       <c r="J10" s="140"/>
     </row>
-    <row r="11" spans="1:20" hidden="1">
+    <row r="11" spans="1:20">
       <c r="A11" s="156" t="s">
         <v>22</v>
       </c>
@@ -33578,7 +33565,7 @@
       <c r="I11" s="140"/>
       <c r="J11" s="140"/>
     </row>
-    <row r="12" spans="1:20" hidden="1">
+    <row r="12" spans="1:20">
       <c r="A12" s="156" t="s">
         <v>22</v>
       </c>
@@ -33631,7 +33618,7 @@
       <c r="J13" s="140"/>
       <c r="K13" s="84"/>
     </row>
-    <row r="14" spans="1:20" hidden="1">
+    <row r="14" spans="1:20">
       <c r="A14" s="156" t="s">
         <v>31</v>
       </c>
@@ -33657,7 +33644,7 @@
       <c r="I14" s="140"/>
       <c r="J14" s="140"/>
     </row>
-    <row r="15" spans="1:20" hidden="1">
+    <row r="15" spans="1:20">
       <c r="A15" s="156" t="s">
         <v>31</v>
       </c>
@@ -33683,7 +33670,7 @@
       <c r="I15" s="140"/>
       <c r="J15" s="140"/>
     </row>
-    <row r="16" spans="1:20" hidden="1">
+    <row r="16" spans="1:20">
       <c r="A16" s="156" t="s">
         <v>31</v>
       </c>
@@ -33713,7 +33700,7 @@
       <c r="I16" s="140"/>
       <c r="J16" s="140"/>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="156" t="s">
         <v>31</v>
       </c>
@@ -33739,7 +33726,7 @@
       <c r="I17" s="140"/>
       <c r="J17" s="140"/>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="156" t="s">
         <v>31</v>
       </c>
@@ -33767,7 +33754,7 @@
       <c r="I18" s="140"/>
       <c r="J18" s="140"/>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="156" t="s">
         <v>31</v>
       </c>
@@ -33793,7 +33780,7 @@
       <c r="I19" s="140"/>
       <c r="J19" s="140"/>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="156" t="s">
         <v>31</v>
       </c>
@@ -33819,7 +33806,7 @@
       <c r="I20" s="140"/>
       <c r="J20" s="140"/>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="156" t="s">
         <v>31</v>
       </c>
@@ -33897,7 +33884,7 @@
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="156" t="s">
         <v>22</v>
       </c>
@@ -33923,7 +33910,7 @@
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="156" t="s">
         <v>22</v>
       </c>
@@ -33949,7 +33936,7 @@
       <c r="I25" s="140"/>
       <c r="J25" s="140"/>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="156" t="s">
         <v>31</v>
       </c>
@@ -34001,7 +33988,7 @@
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="156" t="s">
         <v>58</v>
       </c>
@@ -34027,7 +34014,7 @@
       <c r="I28" s="140"/>
       <c r="J28" s="140"/>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="156" t="s">
         <v>58</v>
       </c>
@@ -34055,7 +34042,7 @@
       <c r="I29" s="140"/>
       <c r="J29" s="140"/>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="156" t="s">
         <v>58</v>
       </c>
@@ -34083,7 +34070,7 @@
       <c r="I30" s="140"/>
       <c r="J30" s="140"/>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="156" t="s">
         <v>58</v>
       </c>
@@ -34109,7 +34096,7 @@
       <c r="I31" s="140"/>
       <c r="J31" s="140"/>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="156" t="s">
         <v>58</v>
       </c>
@@ -34135,7 +34122,7 @@
       <c r="I32" s="140"/>
       <c r="J32" s="140"/>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="156" t="s">
         <v>58</v>
       </c>
@@ -34161,7 +34148,7 @@
       <c r="I33" s="140"/>
       <c r="J33" s="140"/>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="156" t="s">
         <v>58</v>
       </c>
@@ -34189,7 +34176,7 @@
       <c r="I34" s="140"/>
       <c r="J34" s="140"/>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="156" t="s">
         <v>58</v>
       </c>
@@ -34217,7 +34204,7 @@
       <c r="I35" s="140"/>
       <c r="J35" s="140"/>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="156" t="s">
         <v>58</v>
       </c>
@@ -34243,7 +34230,7 @@
       <c r="I36" s="140"/>
       <c r="J36" s="140"/>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="156" t="s">
         <v>58</v>
       </c>
@@ -34269,7 +34256,7 @@
       <c r="I37" s="140"/>
       <c r="J37" s="140"/>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="156" t="s">
         <v>58</v>
       </c>
@@ -34295,7 +34282,7 @@
       <c r="I38" s="140"/>
       <c r="J38" s="140"/>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="156" t="s">
         <v>58</v>
       </c>
@@ -34321,7 +34308,7 @@
       <c r="I39" s="140"/>
       <c r="J39" s="140"/>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="156" t="s">
         <v>58</v>
       </c>
@@ -34347,7 +34334,7 @@
       <c r="I40" s="140"/>
       <c r="J40" s="140"/>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="156" t="s">
         <v>58</v>
       </c>
@@ -34373,7 +34360,7 @@
       <c r="I41" s="140"/>
       <c r="J41" s="140"/>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="156" t="s">
         <v>58</v>
       </c>
@@ -34401,7 +34388,7 @@
       <c r="I42" s="140"/>
       <c r="J42" s="140"/>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="156" t="s">
         <v>58</v>
       </c>
@@ -34429,7 +34416,7 @@
       <c r="I43" s="140"/>
       <c r="J43" s="140"/>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="156" t="s">
         <v>58</v>
       </c>
@@ -34457,7 +34444,7 @@
       <c r="I44" s="140"/>
       <c r="J44" s="140"/>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="156" t="s">
         <v>58</v>
       </c>
@@ -34485,7 +34472,7 @@
       <c r="I45" s="140"/>
       <c r="J45" s="140"/>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="156" t="s">
         <v>58</v>
       </c>
@@ -34513,7 +34500,7 @@
       <c r="I46" s="140"/>
       <c r="J46" s="140"/>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="156" t="s">
         <v>58</v>
       </c>
@@ -34539,7 +34526,7 @@
       <c r="I47" s="140"/>
       <c r="J47" s="140"/>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="156" t="s">
         <v>58</v>
       </c>
@@ -36316,7 +36303,7 @@
       <c r="I113" s="140"/>
       <c r="J113" s="140"/>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10">
       <c r="D114" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36331,7 +36318,7 @@
       <c r="I114" s="140"/>
       <c r="J114" s="140"/>
     </row>
-    <row r="115" spans="1:10" hidden="1">
+    <row r="115" spans="1:10">
       <c r="D115" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36346,7 +36333,7 @@
       <c r="I115" s="140"/>
       <c r="J115" s="140"/>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10">
       <c r="D116" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36361,7 +36348,7 @@
       <c r="I116" s="140"/>
       <c r="J116" s="140"/>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10">
       <c r="D117" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36376,7 +36363,7 @@
       <c r="I117" s="140"/>
       <c r="J117" s="140"/>
     </row>
-    <row r="118" spans="1:10" hidden="1">
+    <row r="118" spans="1:10">
       <c r="D118" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36391,7 +36378,7 @@
       <c r="I118" s="140"/>
       <c r="J118" s="140"/>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10">
       <c r="D119" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36406,7 +36393,7 @@
       <c r="I119" s="140"/>
       <c r="J119" s="140"/>
     </row>
-    <row r="120" spans="1:10" hidden="1">
+    <row r="120" spans="1:10">
       <c r="D120" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36421,7 +36408,7 @@
       <c r="I120" s="140"/>
       <c r="J120" s="140"/>
     </row>
-    <row r="121" spans="1:10" hidden="1">
+    <row r="121" spans="1:10">
       <c r="D121" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36436,7 +36423,7 @@
       <c r="I121" s="140"/>
       <c r="J121" s="140"/>
     </row>
-    <row r="122" spans="1:10" hidden="1">
+    <row r="122" spans="1:10">
       <c r="D122" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36451,7 +36438,7 @@
       <c r="I122" s="140"/>
       <c r="J122" s="140"/>
     </row>
-    <row r="123" spans="1:10" hidden="1">
+    <row r="123" spans="1:10">
       <c r="D123" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36466,7 +36453,7 @@
       <c r="I123" s="140"/>
       <c r="J123" s="140"/>
     </row>
-    <row r="124" spans="1:10" hidden="1">
+    <row r="124" spans="1:10">
       <c r="D124" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36481,7 +36468,7 @@
       <c r="I124" s="140"/>
       <c r="J124" s="140"/>
     </row>
-    <row r="125" spans="1:10" hidden="1">
+    <row r="125" spans="1:10">
       <c r="D125" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36496,7 +36483,7 @@
       <c r="I125" s="140"/>
       <c r="J125" s="140"/>
     </row>
-    <row r="126" spans="1:10" hidden="1">
+    <row r="126" spans="1:10">
       <c r="D126" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36511,7 +36498,7 @@
       <c r="I126" s="140"/>
       <c r="J126" s="140"/>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10">
       <c r="D127" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36526,7 +36513,7 @@
       <c r="I127" s="140"/>
       <c r="J127" s="140"/>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10">
       <c r="D128" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36541,7 +36528,7 @@
       <c r="I128" s="140"/>
       <c r="J128" s="140"/>
     </row>
-    <row r="129" spans="4:10" hidden="1">
+    <row r="129" spans="4:10">
       <c r="D129" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36556,7 +36543,7 @@
       <c r="I129" s="140"/>
       <c r="J129" s="140"/>
     </row>
-    <row r="130" spans="4:10" hidden="1">
+    <row r="130" spans="4:10">
       <c r="D130" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36571,7 +36558,7 @@
       <c r="I130" s="140"/>
       <c r="J130" s="140"/>
     </row>
-    <row r="131" spans="4:10" hidden="1">
+    <row r="131" spans="4:10">
       <c r="D131" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36586,7 +36573,7 @@
       <c r="I131" s="140"/>
       <c r="J131" s="140"/>
     </row>
-    <row r="132" spans="4:10" hidden="1">
+    <row r="132" spans="4:10">
       <c r="D132" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36601,7 +36588,7 @@
       <c r="I132" s="140"/>
       <c r="J132" s="140"/>
     </row>
-    <row r="133" spans="4:10" hidden="1">
+    <row r="133" spans="4:10">
       <c r="D133" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36616,7 +36603,7 @@
       <c r="I133" s="140"/>
       <c r="J133" s="140"/>
     </row>
-    <row r="134" spans="4:10" hidden="1">
+    <row r="134" spans="4:10">
       <c r="D134" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36631,7 +36618,7 @@
       <c r="I134" s="140"/>
       <c r="J134" s="140"/>
     </row>
-    <row r="135" spans="4:10" hidden="1">
+    <row r="135" spans="4:10">
       <c r="D135" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36646,7 +36633,7 @@
       <c r="I135" s="140"/>
       <c r="J135" s="140"/>
     </row>
-    <row r="136" spans="4:10" hidden="1">
+    <row r="136" spans="4:10">
       <c r="D136" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36661,7 +36648,7 @@
       <c r="I136" s="140"/>
       <c r="J136" s="140"/>
     </row>
-    <row r="137" spans="4:10" hidden="1">
+    <row r="137" spans="4:10">
       <c r="D137" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36676,7 +36663,7 @@
       <c r="I137" s="140"/>
       <c r="J137" s="140"/>
     </row>
-    <row r="138" spans="4:10" hidden="1">
+    <row r="138" spans="4:10">
       <c r="D138" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36691,7 +36678,7 @@
       <c r="I138" s="140"/>
       <c r="J138" s="140"/>
     </row>
-    <row r="139" spans="4:10" hidden="1">
+    <row r="139" spans="4:10">
       <c r="D139" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36706,7 +36693,7 @@
       <c r="I139" s="140"/>
       <c r="J139" s="140"/>
     </row>
-    <row r="140" spans="4:10" hidden="1">
+    <row r="140" spans="4:10">
       <c r="D140" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36721,7 +36708,7 @@
       <c r="I140" s="140"/>
       <c r="J140" s="140"/>
     </row>
-    <row r="141" spans="4:10" hidden="1">
+    <row r="141" spans="4:10">
       <c r="D141" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36736,7 +36723,7 @@
       <c r="I141" s="140"/>
       <c r="J141" s="140"/>
     </row>
-    <row r="142" spans="4:10" hidden="1">
+    <row r="142" spans="4:10">
       <c r="D142" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -36751,7 +36738,7 @@
       <c r="I142" s="140"/>
       <c r="J142" s="140"/>
     </row>
-    <row r="143" spans="4:10" hidden="1">
+    <row r="143" spans="4:10">
       <c r="D143" s="79" t="e">
         <f t="shared" ref="D143:D174" si="10">E143*(1+$T$1)</f>
         <v>#DIV/0!</v>
@@ -36766,7 +36753,7 @@
       <c r="I143" s="140"/>
       <c r="J143" s="140"/>
     </row>
-    <row r="144" spans="4:10" hidden="1">
+    <row r="144" spans="4:10">
       <c r="D144" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36781,7 +36768,7 @@
       <c r="I144" s="140"/>
       <c r="J144" s="140"/>
     </row>
-    <row r="145" spans="4:10" hidden="1">
+    <row r="145" spans="4:10">
       <c r="D145" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36796,7 +36783,7 @@
       <c r="I145" s="140"/>
       <c r="J145" s="140"/>
     </row>
-    <row r="146" spans="4:10" hidden="1">
+    <row r="146" spans="4:10">
       <c r="D146" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36811,7 +36798,7 @@
       <c r="I146" s="140"/>
       <c r="J146" s="140"/>
     </row>
-    <row r="147" spans="4:10" hidden="1">
+    <row r="147" spans="4:10">
       <c r="D147" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36826,7 +36813,7 @@
       <c r="I147" s="140"/>
       <c r="J147" s="140"/>
     </row>
-    <row r="148" spans="4:10" hidden="1">
+    <row r="148" spans="4:10">
       <c r="D148" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36841,7 +36828,7 @@
       <c r="I148" s="140"/>
       <c r="J148" s="140"/>
     </row>
-    <row r="149" spans="4:10" hidden="1">
+    <row r="149" spans="4:10">
       <c r="D149" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36856,7 +36843,7 @@
       <c r="I149" s="140"/>
       <c r="J149" s="140"/>
     </row>
-    <row r="150" spans="4:10" hidden="1">
+    <row r="150" spans="4:10">
       <c r="D150" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36871,7 +36858,7 @@
       <c r="I150" s="140"/>
       <c r="J150" s="140"/>
     </row>
-    <row r="151" spans="4:10" hidden="1">
+    <row r="151" spans="4:10">
       <c r="D151" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36886,7 +36873,7 @@
       <c r="I151" s="140"/>
       <c r="J151" s="140"/>
     </row>
-    <row r="152" spans="4:10" hidden="1">
+    <row r="152" spans="4:10">
       <c r="D152" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36901,7 +36888,7 @@
       <c r="I152" s="140"/>
       <c r="J152" s="140"/>
     </row>
-    <row r="153" spans="4:10" hidden="1">
+    <row r="153" spans="4:10">
       <c r="D153" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36916,7 +36903,7 @@
       <c r="I153" s="140"/>
       <c r="J153" s="140"/>
     </row>
-    <row r="154" spans="4:10" hidden="1">
+    <row r="154" spans="4:10">
       <c r="D154" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36931,7 +36918,7 @@
       <c r="I154" s="140"/>
       <c r="J154" s="140"/>
     </row>
-    <row r="155" spans="4:10" hidden="1">
+    <row r="155" spans="4:10">
       <c r="D155" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36946,7 +36933,7 @@
       <c r="I155" s="140"/>
       <c r="J155" s="140"/>
     </row>
-    <row r="156" spans="4:10" hidden="1">
+    <row r="156" spans="4:10">
       <c r="D156" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36961,7 +36948,7 @@
       <c r="I156" s="140"/>
       <c r="J156" s="140"/>
     </row>
-    <row r="157" spans="4:10" hidden="1">
+    <row r="157" spans="4:10">
       <c r="D157" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36976,7 +36963,7 @@
       <c r="I157" s="140"/>
       <c r="J157" s="140"/>
     </row>
-    <row r="158" spans="4:10" hidden="1">
+    <row r="158" spans="4:10">
       <c r="D158" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -36991,7 +36978,7 @@
       <c r="I158" s="140"/>
       <c r="J158" s="140"/>
     </row>
-    <row r="159" spans="4:10" hidden="1">
+    <row r="159" spans="4:10">
       <c r="D159" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -37006,7 +36993,7 @@
       <c r="I159" s="140"/>
       <c r="J159" s="140"/>
     </row>
-    <row r="160" spans="4:10" hidden="1">
+    <row r="160" spans="4:10">
       <c r="D160" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -37021,7 +37008,7 @@
       <c r="I160" s="140"/>
       <c r="J160" s="140"/>
     </row>
-    <row r="161" spans="4:10" hidden="1">
+    <row r="161" spans="4:10">
       <c r="D161" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -37036,7 +37023,7 @@
       <c r="I161" s="140"/>
       <c r="J161" s="140"/>
     </row>
-    <row r="162" spans="4:10" hidden="1">
+    <row r="162" spans="4:10">
       <c r="D162" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -37051,7 +37038,7 @@
       <c r="I162" s="140"/>
       <c r="J162" s="140"/>
     </row>
-    <row r="163" spans="4:10" hidden="1">
+    <row r="163" spans="4:10">
       <c r="D163" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -37066,7 +37053,7 @@
       <c r="I163" s="140"/>
       <c r="J163" s="140"/>
     </row>
-    <row r="164" spans="4:10" hidden="1">
+    <row r="164" spans="4:10">
       <c r="D164" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -37081,7 +37068,7 @@
       <c r="I164" s="140"/>
       <c r="J164" s="140"/>
     </row>
-    <row r="165" spans="4:10" hidden="1">
+    <row r="165" spans="4:10">
       <c r="D165" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -37096,7 +37083,7 @@
       <c r="I165" s="140"/>
       <c r="J165" s="140"/>
     </row>
-    <row r="166" spans="4:10" hidden="1">
+    <row r="166" spans="4:10">
       <c r="D166" s="79" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -37111,7 +37098,7 @@
       <c r="I166" s="140"/>
       <c r="J166" s="140"/>
     </row>
-    <row r="167" spans="4:10" hidden="1">
+    <row r="167" spans="4:10">
       <c r="D167" s="79" t="e">
         <f t="shared" ref="D167:D198" si="12">E167*(1+$O$1)</f>
         <v>#DIV/0!</v>
@@ -37126,7 +37113,7 @@
       <c r="I167" s="140"/>
       <c r="J167" s="140"/>
     </row>
-    <row r="168" spans="4:10" hidden="1">
+    <row r="168" spans="4:10">
       <c r="D168" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37141,7 +37128,7 @@
       <c r="I168" s="140"/>
       <c r="J168" s="140"/>
     </row>
-    <row r="169" spans="4:10" hidden="1">
+    <row r="169" spans="4:10">
       <c r="D169" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37156,7 +37143,7 @@
       <c r="I169" s="140"/>
       <c r="J169" s="140"/>
     </row>
-    <row r="170" spans="4:10" hidden="1">
+    <row r="170" spans="4:10">
       <c r="D170" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37171,7 +37158,7 @@
       <c r="I170" s="140"/>
       <c r="J170" s="140"/>
     </row>
-    <row r="171" spans="4:10" hidden="1">
+    <row r="171" spans="4:10">
       <c r="D171" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37186,7 +37173,7 @@
       <c r="I171" s="140"/>
       <c r="J171" s="140"/>
     </row>
-    <row r="172" spans="4:10" hidden="1">
+    <row r="172" spans="4:10">
       <c r="D172" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37201,7 +37188,7 @@
       <c r="I172" s="140"/>
       <c r="J172" s="140"/>
     </row>
-    <row r="173" spans="4:10" hidden="1">
+    <row r="173" spans="4:10">
       <c r="D173" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37216,7 +37203,7 @@
       <c r="I173" s="140"/>
       <c r="J173" s="140"/>
     </row>
-    <row r="174" spans="4:10" hidden="1">
+    <row r="174" spans="4:10">
       <c r="D174" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37231,7 +37218,7 @@
       <c r="I174" s="140"/>
       <c r="J174" s="140"/>
     </row>
-    <row r="175" spans="4:10" hidden="1">
+    <row r="175" spans="4:10">
       <c r="D175" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37246,7 +37233,7 @@
       <c r="I175" s="140"/>
       <c r="J175" s="140"/>
     </row>
-    <row r="176" spans="4:10" hidden="1">
+    <row r="176" spans="4:10">
       <c r="D176" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37261,7 +37248,7 @@
       <c r="I176" s="140"/>
       <c r="J176" s="140"/>
     </row>
-    <row r="177" spans="4:10" hidden="1">
+    <row r="177" spans="4:10">
       <c r="D177" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37276,7 +37263,7 @@
       <c r="I177" s="140"/>
       <c r="J177" s="140"/>
     </row>
-    <row r="178" spans="4:10" hidden="1">
+    <row r="178" spans="4:10">
       <c r="D178" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37291,7 +37278,7 @@
       <c r="I178" s="140"/>
       <c r="J178" s="140"/>
     </row>
-    <row r="179" spans="4:10" hidden="1">
+    <row r="179" spans="4:10">
       <c r="D179" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37306,7 +37293,7 @@
       <c r="I179" s="140"/>
       <c r="J179" s="140"/>
     </row>
-    <row r="180" spans="4:10" hidden="1">
+    <row r="180" spans="4:10">
       <c r="D180" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37321,7 +37308,7 @@
       <c r="I180" s="140"/>
       <c r="J180" s="140"/>
     </row>
-    <row r="181" spans="4:10" hidden="1">
+    <row r="181" spans="4:10">
       <c r="D181" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37336,7 +37323,7 @@
       <c r="I181" s="140"/>
       <c r="J181" s="140"/>
     </row>
-    <row r="182" spans="4:10" hidden="1">
+    <row r="182" spans="4:10">
       <c r="D182" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37351,7 +37338,7 @@
       <c r="I182" s="140"/>
       <c r="J182" s="140"/>
     </row>
-    <row r="183" spans="4:10" hidden="1">
+    <row r="183" spans="4:10">
       <c r="D183" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37366,7 +37353,7 @@
       <c r="I183" s="140"/>
       <c r="J183" s="140"/>
     </row>
-    <row r="184" spans="4:10" hidden="1">
+    <row r="184" spans="4:10">
       <c r="D184" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37381,7 +37368,7 @@
       <c r="I184" s="140"/>
       <c r="J184" s="140"/>
     </row>
-    <row r="185" spans="4:10" hidden="1">
+    <row r="185" spans="4:10">
       <c r="D185" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37396,7 +37383,7 @@
       <c r="I185" s="140"/>
       <c r="J185" s="140"/>
     </row>
-    <row r="186" spans="4:10" hidden="1">
+    <row r="186" spans="4:10">
       <c r="D186" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37411,7 +37398,7 @@
       <c r="I186" s="140"/>
       <c r="J186" s="140"/>
     </row>
-    <row r="187" spans="4:10" hidden="1">
+    <row r="187" spans="4:10">
       <c r="D187" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37426,7 +37413,7 @@
       <c r="I187" s="140"/>
       <c r="J187" s="140"/>
     </row>
-    <row r="188" spans="4:10" hidden="1">
+    <row r="188" spans="4:10">
       <c r="D188" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37441,7 +37428,7 @@
       <c r="I188" s="140"/>
       <c r="J188" s="140"/>
     </row>
-    <row r="189" spans="4:10" hidden="1">
+    <row r="189" spans="4:10">
       <c r="D189" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37456,7 +37443,7 @@
       <c r="I189" s="140"/>
       <c r="J189" s="140"/>
     </row>
-    <row r="190" spans="4:10" hidden="1">
+    <row r="190" spans="4:10">
       <c r="D190" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37471,7 +37458,7 @@
       <c r="I190" s="140"/>
       <c r="J190" s="140"/>
     </row>
-    <row r="191" spans="4:10" hidden="1">
+    <row r="191" spans="4:10">
       <c r="D191" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37486,7 +37473,7 @@
       <c r="I191" s="140"/>
       <c r="J191" s="140"/>
     </row>
-    <row r="192" spans="4:10" hidden="1">
+    <row r="192" spans="4:10">
       <c r="D192" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37501,7 +37488,7 @@
       <c r="I192" s="140"/>
       <c r="J192" s="140"/>
     </row>
-    <row r="193" spans="4:10" hidden="1">
+    <row r="193" spans="4:10">
       <c r="D193" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37516,7 +37503,7 @@
       <c r="I193" s="140"/>
       <c r="J193" s="140"/>
     </row>
-    <row r="194" spans="4:10" hidden="1">
+    <row r="194" spans="4:10">
       <c r="D194" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37531,7 +37518,7 @@
       <c r="I194" s="140"/>
       <c r="J194" s="140"/>
     </row>
-    <row r="195" spans="4:10" hidden="1">
+    <row r="195" spans="4:10">
       <c r="D195" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37546,7 +37533,7 @@
       <c r="I195" s="140"/>
       <c r="J195" s="140"/>
     </row>
-    <row r="196" spans="4:10" hidden="1">
+    <row r="196" spans="4:10">
       <c r="D196" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37561,7 +37548,7 @@
       <c r="I196" s="140"/>
       <c r="J196" s="140"/>
     </row>
-    <row r="197" spans="4:10" hidden="1">
+    <row r="197" spans="4:10">
       <c r="D197" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37576,7 +37563,7 @@
       <c r="I197" s="140"/>
       <c r="J197" s="140"/>
     </row>
-    <row r="198" spans="4:10" hidden="1">
+    <row r="198" spans="4:10">
       <c r="D198" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -37591,7 +37578,7 @@
       <c r="I198" s="140"/>
       <c r="J198" s="140"/>
     </row>
-    <row r="199" spans="4:10" hidden="1">
+    <row r="199" spans="4:10">
       <c r="D199" s="79" t="e">
         <f t="shared" ref="D199:D230" si="14">E199*(1+$O$1)</f>
         <v>#DIV/0!</v>
@@ -37606,7 +37593,7 @@
       <c r="I199" s="140"/>
       <c r="J199" s="140"/>
     </row>
-    <row r="200" spans="4:10" hidden="1">
+    <row r="200" spans="4:10">
       <c r="D200" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37621,7 +37608,7 @@
       <c r="I200" s="140"/>
       <c r="J200" s="140"/>
     </row>
-    <row r="201" spans="4:10" hidden="1">
+    <row r="201" spans="4:10">
       <c r="D201" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37636,7 +37623,7 @@
       <c r="I201" s="140"/>
       <c r="J201" s="140"/>
     </row>
-    <row r="202" spans="4:10" hidden="1">
+    <row r="202" spans="4:10">
       <c r="D202" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37651,7 +37638,7 @@
       <c r="I202" s="140"/>
       <c r="J202" s="140"/>
     </row>
-    <row r="203" spans="4:10" hidden="1">
+    <row r="203" spans="4:10">
       <c r="D203" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37666,7 +37653,7 @@
       <c r="I203" s="140"/>
       <c r="J203" s="140"/>
     </row>
-    <row r="204" spans="4:10" hidden="1">
+    <row r="204" spans="4:10">
       <c r="D204" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37681,7 +37668,7 @@
       <c r="I204" s="140"/>
       <c r="J204" s="140"/>
     </row>
-    <row r="205" spans="4:10" hidden="1">
+    <row r="205" spans="4:10">
       <c r="D205" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37696,7 +37683,7 @@
       <c r="I205" s="140"/>
       <c r="J205" s="140"/>
     </row>
-    <row r="206" spans="4:10" hidden="1">
+    <row r="206" spans="4:10">
       <c r="D206" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37711,7 +37698,7 @@
       <c r="I206" s="140"/>
       <c r="J206" s="140"/>
     </row>
-    <row r="207" spans="4:10" hidden="1">
+    <row r="207" spans="4:10">
       <c r="D207" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37726,7 +37713,7 @@
       <c r="I207" s="140"/>
       <c r="J207" s="140"/>
     </row>
-    <row r="208" spans="4:10" hidden="1">
+    <row r="208" spans="4:10">
       <c r="D208" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37741,7 +37728,7 @@
       <c r="I208" s="140"/>
       <c r="J208" s="140"/>
     </row>
-    <row r="209" spans="4:10" hidden="1">
+    <row r="209" spans="4:10">
       <c r="D209" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37756,7 +37743,7 @@
       <c r="I209" s="140"/>
       <c r="J209" s="140"/>
     </row>
-    <row r="210" spans="4:10" hidden="1">
+    <row r="210" spans="4:10">
       <c r="D210" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37771,7 +37758,7 @@
       <c r="I210" s="140"/>
       <c r="J210" s="140"/>
     </row>
-    <row r="211" spans="4:10" hidden="1">
+    <row r="211" spans="4:10">
       <c r="D211" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37786,7 +37773,7 @@
       <c r="I211" s="140"/>
       <c r="J211" s="140"/>
     </row>
-    <row r="212" spans="4:10" hidden="1">
+    <row r="212" spans="4:10">
       <c r="D212" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37801,7 +37788,7 @@
       <c r="I212" s="140"/>
       <c r="J212" s="140"/>
     </row>
-    <row r="213" spans="4:10" hidden="1">
+    <row r="213" spans="4:10">
       <c r="D213" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37816,7 +37803,7 @@
       <c r="I213" s="140"/>
       <c r="J213" s="140"/>
     </row>
-    <row r="214" spans="4:10" hidden="1">
+    <row r="214" spans="4:10">
       <c r="D214" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37831,7 +37818,7 @@
       <c r="I214" s="140"/>
       <c r="J214" s="140"/>
     </row>
-    <row r="215" spans="4:10" hidden="1">
+    <row r="215" spans="4:10">
       <c r="D215" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37846,7 +37833,7 @@
       <c r="I215" s="140"/>
       <c r="J215" s="140"/>
     </row>
-    <row r="216" spans="4:10" hidden="1">
+    <row r="216" spans="4:10">
       <c r="D216" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37861,7 +37848,7 @@
       <c r="I216" s="140"/>
       <c r="J216" s="140"/>
     </row>
-    <row r="217" spans="4:10" hidden="1">
+    <row r="217" spans="4:10">
       <c r="D217" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37876,7 +37863,7 @@
       <c r="I217" s="140"/>
       <c r="J217" s="140"/>
     </row>
-    <row r="218" spans="4:10" hidden="1">
+    <row r="218" spans="4:10">
       <c r="D218" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37891,7 +37878,7 @@
       <c r="I218" s="140"/>
       <c r="J218" s="140"/>
     </row>
-    <row r="219" spans="4:10" hidden="1">
+    <row r="219" spans="4:10">
       <c r="D219" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37906,7 +37893,7 @@
       <c r="I219" s="140"/>
       <c r="J219" s="140"/>
     </row>
-    <row r="220" spans="4:10" hidden="1">
+    <row r="220" spans="4:10">
       <c r="D220" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37921,7 +37908,7 @@
       <c r="I220" s="140"/>
       <c r="J220" s="140"/>
     </row>
-    <row r="221" spans="4:10" hidden="1">
+    <row r="221" spans="4:10">
       <c r="D221" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37936,7 +37923,7 @@
       <c r="I221" s="140"/>
       <c r="J221" s="140"/>
     </row>
-    <row r="222" spans="4:10" hidden="1">
+    <row r="222" spans="4:10">
       <c r="D222" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37951,7 +37938,7 @@
       <c r="I222" s="140"/>
       <c r="J222" s="140"/>
     </row>
-    <row r="223" spans="4:10" hidden="1">
+    <row r="223" spans="4:10">
       <c r="D223" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37966,7 +37953,7 @@
       <c r="I223" s="140"/>
       <c r="J223" s="140"/>
     </row>
-    <row r="224" spans="4:10" hidden="1">
+    <row r="224" spans="4:10">
       <c r="D224" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37981,7 +37968,7 @@
       <c r="I224" s="140"/>
       <c r="J224" s="140"/>
     </row>
-    <row r="225" spans="4:10" hidden="1">
+    <row r="225" spans="4:10">
       <c r="D225" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -37996,7 +37983,7 @@
       <c r="I225" s="140"/>
       <c r="J225" s="140"/>
     </row>
-    <row r="226" spans="4:10" hidden="1">
+    <row r="226" spans="4:10">
       <c r="D226" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -38011,7 +37998,7 @@
       <c r="I226" s="140"/>
       <c r="J226" s="140"/>
     </row>
-    <row r="227" spans="4:10" hidden="1">
+    <row r="227" spans="4:10">
       <c r="D227" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -38026,7 +38013,7 @@
       <c r="I227" s="140"/>
       <c r="J227" s="140"/>
     </row>
-    <row r="228" spans="4:10" hidden="1">
+    <row r="228" spans="4:10">
       <c r="D228" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -38041,7 +38028,7 @@
       <c r="I228" s="140"/>
       <c r="J228" s="140"/>
     </row>
-    <row r="229" spans="4:10" hidden="1">
+    <row r="229" spans="4:10">
       <c r="D229" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -38056,7 +38043,7 @@
       <c r="I229" s="140"/>
       <c r="J229" s="140"/>
     </row>
-    <row r="230" spans="4:10" hidden="1">
+    <row r="230" spans="4:10">
       <c r="D230" s="79" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -38071,7 +38058,7 @@
       <c r="I230" s="140"/>
       <c r="J230" s="140"/>
     </row>
-    <row r="231" spans="4:10" hidden="1">
+    <row r="231" spans="4:10">
       <c r="D231" s="79" t="e">
         <f t="shared" ref="D231:D262" si="16">E231*(1+$O$1)</f>
         <v>#DIV/0!</v>
@@ -38086,7 +38073,7 @@
       <c r="I231" s="140"/>
       <c r="J231" s="140"/>
     </row>
-    <row r="232" spans="4:10" hidden="1">
+    <row r="232" spans="4:10">
       <c r="D232" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38101,7 +38088,7 @@
       <c r="I232" s="140"/>
       <c r="J232" s="140"/>
     </row>
-    <row r="233" spans="4:10" hidden="1">
+    <row r="233" spans="4:10">
       <c r="D233" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38116,7 +38103,7 @@
       <c r="I233" s="140"/>
       <c r="J233" s="140"/>
     </row>
-    <row r="234" spans="4:10" hidden="1">
+    <row r="234" spans="4:10">
       <c r="D234" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38131,7 +38118,7 @@
       <c r="I234" s="140"/>
       <c r="J234" s="140"/>
     </row>
-    <row r="235" spans="4:10" hidden="1">
+    <row r="235" spans="4:10">
       <c r="D235" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38146,7 +38133,7 @@
       <c r="I235" s="140"/>
       <c r="J235" s="140"/>
     </row>
-    <row r="236" spans="4:10" hidden="1">
+    <row r="236" spans="4:10">
       <c r="D236" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38161,7 +38148,7 @@
       <c r="I236" s="140"/>
       <c r="J236" s="140"/>
     </row>
-    <row r="237" spans="4:10" hidden="1">
+    <row r="237" spans="4:10">
       <c r="D237" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38176,7 +38163,7 @@
       <c r="I237" s="140"/>
       <c r="J237" s="140"/>
     </row>
-    <row r="238" spans="4:10" hidden="1">
+    <row r="238" spans="4:10">
       <c r="D238" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38191,7 +38178,7 @@
       <c r="I238" s="140"/>
       <c r="J238" s="140"/>
     </row>
-    <row r="239" spans="4:10" hidden="1">
+    <row r="239" spans="4:10">
       <c r="D239" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38206,7 +38193,7 @@
       <c r="I239" s="140"/>
       <c r="J239" s="140"/>
     </row>
-    <row r="240" spans="4:10" hidden="1">
+    <row r="240" spans="4:10">
       <c r="D240" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38221,7 +38208,7 @@
       <c r="I240" s="140"/>
       <c r="J240" s="140"/>
     </row>
-    <row r="241" spans="1:10" hidden="1">
+    <row r="241" spans="1:10">
       <c r="D241" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38236,7 +38223,7 @@
       <c r="I241" s="140"/>
       <c r="J241" s="140"/>
     </row>
-    <row r="242" spans="1:10" hidden="1">
+    <row r="242" spans="1:10">
       <c r="D242" s="79" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -38277,7 +38264,7 @@
       <c r="I243" s="140"/>
       <c r="J243" s="140"/>
     </row>
-    <row r="244" spans="1:10" hidden="1">
+    <row r="244" spans="1:10">
       <c r="A244" s="156" t="s">
         <v>58</v>
       </c>

--- a/data/CANONICAL Bouquet Recipe Master Sheet.xlsx
+++ b/data/CANONICAL Bouquet Recipe Master Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Documents/Sweet Piedmont/Offerings/Software and Code/bouquet-blueprint-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF66D1-B218-1F4B-BC8A-44F126336188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5182C39-71AB-1E42-B095-BB8790072E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="760" windowWidth="29500" windowHeight="21580" firstSheet="1" activeTab="1" xr2:uid="{835A2F5B-2282-E345-9D43-16C3FBECA701}"/>
   </bookViews>
@@ -3895,7 +3895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4616,6 +4616,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -11492,7 +11493,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{63FB889B-362F-FA4D-9D4D-A49BD91E0CC2}" name="Table31615" displayName="Table31615" ref="A1:J246" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141" tableBorderDxfId="140" headerRowCellStyle="Currency" dataCellStyle="Currency">
-  <autoFilter ref="A1:J246" xr:uid="{63FB889B-362F-FA4D-9D4D-A49BD91E0CC2}"/>
+  <autoFilter ref="A1:J246" xr:uid="{63FB889B-362F-FA4D-9D4D-A49BD91E0CC2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Early Spring"/>
+        <filter val="Early Spring, Fall"/>
+        <filter val="Early Spring, Late Spring"/>
+        <filter val="Early Spring, Late Spring, Summer, Fall"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J246">
     <sortCondition ref="B1:B246"/>
   </sortState>
@@ -33230,8 +33240,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -33313,11 +33323,11 @@
         <v>24</v>
       </c>
       <c r="D2" s="79">
-        <f t="shared" ref="D2:D33" si="0">E2*(1+$T$1)</f>
+        <f>E2*(1+$T$1)</f>
         <v>3.75</v>
       </c>
       <c r="E2" s="79">
-        <f t="shared" ref="E2:E49" si="1">AVERAGE(F2:Q2)</f>
+        <f>AVERAGE(F2:Q2)</f>
         <v>2.5</v>
       </c>
       <c r="F2" s="79"/>
@@ -33339,11 +33349,11 @@
         <v>25</v>
       </c>
       <c r="D3" s="79">
-        <f t="shared" si="0"/>
+        <f>E3*(1+$T$1)</f>
         <v>3.75</v>
       </c>
       <c r="E3" s="79">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F3:Q3)</f>
         <v>2.5</v>
       </c>
       <c r="F3" s="79"/>
@@ -33365,11 +33375,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="79">
-        <f t="shared" si="0"/>
+        <f>E4*(1+$T$1)</f>
         <v>3</v>
       </c>
       <c r="E4" s="79">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F4:Q4)</f>
         <v>2</v>
       </c>
       <c r="F4" s="79"/>
@@ -33380,238 +33390,245 @@
       <c r="I4" s="140"/>
       <c r="J4" s="140"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>22</v>
+    <row r="5" spans="1:20" hidden="1">
+      <c r="A5" s="322" t="s">
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D5" s="79">
-        <f t="shared" si="0"/>
-        <v>2.8499999999999996</v>
+        <f>E5*(1+$T$1)</f>
+        <v>2.6850000000000001</v>
       </c>
       <c r="E5" s="79">
-        <f t="shared" si="1"/>
-        <v>1.9</v>
+        <f>AVERAGE(F5:Q5)</f>
+        <v>1.79</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="79">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="H5" s="79"/>
       <c r="I5" s="140"/>
       <c r="J5" s="140"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
+    <row r="6" spans="1:20" hidden="1">
+      <c r="A6" s="322" t="s">
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D6" s="79">
-        <f t="shared" si="0"/>
-        <v>1.875</v>
+        <f>E6*(1+$T$1)</f>
+        <v>3.9000000000000004</v>
       </c>
       <c r="E6" s="79">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
+        <f>AVERAGE(F6:Q6)</f>
+        <v>2.6</v>
       </c>
       <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79">
-        <v>1.25</v>
-      </c>
+      <c r="G6" s="79">
+        <v>2.6</v>
+      </c>
+      <c r="H6" s="79"/>
       <c r="I6" s="140"/>
       <c r="J6" s="140"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
+    <row r="7" spans="1:20" hidden="1">
+      <c r="A7" s="322" t="s">
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D7" s="79">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>E7*(1+$T$1)</f>
+        <v>2.9849999999999999</v>
       </c>
       <c r="E7" s="79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="79">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>AVERAGE(F7:Q7)</f>
+        <v>1.99</v>
+      </c>
+      <c r="F7" s="79"/>
       <c r="G7" s="79">
-        <v>0.9</v>
+        <v>1.99</v>
       </c>
       <c r="H7" s="79"/>
       <c r="I7" s="140"/>
       <c r="J7" s="140"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>31</v>
+    <row r="8" spans="1:20" hidden="1">
+      <c r="A8" s="322" t="s">
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D8" s="79">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
+        <f>E8*(1+$T$1)</f>
+        <v>2.4749999999999996</v>
       </c>
       <c r="E8" s="79">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f>AVERAGE(F8:Q8)</f>
+        <v>1.65</v>
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
       <c r="H8" s="79">
-        <f>15/10</f>
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="I8" s="140"/>
       <c r="J8" s="140"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>31</v>
+    <row r="9" spans="1:20" hidden="1">
+      <c r="A9" s="322" t="s">
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D9" s="79">
-        <f t="shared" si="0"/>
-        <v>3.0749999999999997</v>
+        <f>E9*(1+$T$1)</f>
+        <v>5.9625000000000004</v>
       </c>
       <c r="E9" s="79">
-        <f t="shared" si="1"/>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F9" s="79"/>
+        <f>AVERAGE(F9:Q9)</f>
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="F9" s="79">
+        <v>4</v>
+      </c>
       <c r="G9" s="79">
-        <v>2.0499999999999998</v>
+        <v>3.95</v>
       </c>
       <c r="H9" s="79"/>
       <c r="I9" s="140"/>
       <c r="J9" s="140"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
+    <row r="10" spans="1:20" hidden="1">
+      <c r="A10" s="322" t="s">
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D10" s="79">
-        <f t="shared" si="0"/>
-        <v>1.875</v>
+        <f>E10*(1+$T$1)</f>
+        <v>6.7124999999999995</v>
       </c>
       <c r="E10" s="79">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79">
-        <v>1.25</v>
-      </c>
+        <f>AVERAGE(F10:Q10)</f>
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="F10" s="79">
+        <v>4</v>
+      </c>
+      <c r="G10" s="79">
+        <v>4.95</v>
+      </c>
+      <c r="H10" s="79"/>
       <c r="I10" s="140"/>
       <c r="J10" s="140"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" hidden="1">
       <c r="A11" s="156" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D11" s="79">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>E11*(1+$T$1)</f>
+        <v>5.9625000000000004</v>
       </c>
       <c r="E11" s="79">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="157">
-        <v>2</v>
-      </c>
+        <f>AVERAGE(F11:Q11)</f>
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="F11" s="79">
+        <v>4</v>
+      </c>
+      <c r="G11" s="79">
+        <v>3.95</v>
+      </c>
+      <c r="H11" s="157"/>
       <c r="I11" s="140"/>
       <c r="J11" s="140"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" hidden="1">
       <c r="A12" s="156" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D12" s="79">
-        <f t="shared" si="0"/>
-        <v>1.875</v>
+        <f>E12*(1+$T$1)</f>
+        <v>4.9499999999999993</v>
       </c>
       <c r="E12" s="79">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="157">
-        <v>1.25</v>
-      </c>
+        <f>AVERAGE(F12:Q12)</f>
+        <v>3.3</v>
+      </c>
+      <c r="F12" s="79">
+        <v>3</v>
+      </c>
+      <c r="G12" s="79">
+        <v>3.6</v>
+      </c>
+      <c r="H12" s="157"/>
       <c r="I12" s="140"/>
       <c r="J12" s="140"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" hidden="1">
       <c r="A13" s="156" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D13" s="79">
-        <f t="shared" si="0"/>
-        <v>2.6850000000000001</v>
+        <f>E13*(1+$T$1)</f>
+        <v>4.9875000000000007</v>
       </c>
       <c r="E13" s="79">
-        <f t="shared" si="1"/>
-        <v>1.79</v>
-      </c>
-      <c r="F13" s="79"/>
+        <f>AVERAGE(F13:Q13)</f>
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="F13" s="79">
+        <v>3</v>
+      </c>
       <c r="G13" s="79">
-        <v>1.79</v>
+        <v>3.65</v>
       </c>
       <c r="H13" s="157"/>
       <c r="I13" s="140"/>
@@ -33620,83 +33637,81 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="156" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D14" s="79">
-        <f t="shared" si="0"/>
-        <v>1.875</v>
+        <f>E14*(1+$T$1)</f>
+        <v>2.8499999999999996</v>
       </c>
       <c r="E14" s="79">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="157">
-        <v>1.25</v>
-      </c>
+        <f>AVERAGE(F14:Q14)</f>
+        <v>1.9</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79">
+        <v>1.9</v>
+      </c>
+      <c r="H14" s="157"/>
       <c r="I14" s="140"/>
       <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="156" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D15" s="79">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
+        <f>E15*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E15" s="79">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f>AVERAGE(F15:Q15)</f>
+        <v>1.25</v>
       </c>
       <c r="F15" s="79"/>
       <c r="G15" s="79"/>
       <c r="H15" s="157">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="I15" s="140"/>
       <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="156" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D16" s="79">
-        <f t="shared" si="0"/>
-        <v>2.3250000000000002</v>
+        <f>E16*(1+$T$1)</f>
+        <v>1.5</v>
       </c>
       <c r="E16" s="79">
-        <f t="shared" si="1"/>
-        <v>1.55</v>
+        <f>AVERAGE(F16:Q16)</f>
+        <v>1</v>
       </c>
       <c r="F16" s="79">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G16" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="H16" s="157">
-        <v>1.75</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="157"/>
       <c r="I16" s="140"/>
       <c r="J16" s="140"/>
     </row>
@@ -33705,23 +33720,24 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D17" s="79">
-        <f t="shared" si="0"/>
+        <f>E17*(1+$T$1)</f>
+        <v>2.25</v>
+      </c>
+      <c r="E17" s="79">
+        <f>AVERAGE(F17:Q17)</f>
         <v>1.5</v>
-      </c>
-      <c r="E17" s="79">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
       <c r="H17" s="157">
-        <v>1</v>
+        <f>15/10</f>
+        <v>1.5</v>
       </c>
       <c r="I17" s="140"/>
       <c r="J17" s="140"/>
@@ -33731,776 +33747,781 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D18" s="79">
-        <f t="shared" si="0"/>
-        <v>1.7249999999999999</v>
+        <f>E18*(1+$T$1)</f>
+        <v>3.0749999999999997</v>
       </c>
       <c r="E18" s="79">
-        <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F18" s="79">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>AVERAGE(F18:Q18)</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F18" s="79"/>
       <c r="G18" s="79">
-        <v>1.2</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H18" s="157"/>
       <c r="I18" s="140"/>
       <c r="J18" s="140"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="156" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D19" s="79">
-        <f t="shared" si="0"/>
+        <f>E19*(1+$T$1)</f>
         <v>1.875</v>
       </c>
       <c r="E19" s="79">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F19:Q19)</f>
         <v>1.25</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="157">
-        <v>1.25</v>
-      </c>
+      <c r="F19" s="79">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G19" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="H19" s="157"/>
       <c r="I19" s="140"/>
       <c r="J19" s="140"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="156" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D20" s="79">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
+        <f>E20*(1+$T$1)</f>
+        <v>1.6875</v>
       </c>
       <c r="E20" s="79">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="F20" s="79"/>
+        <f>AVERAGE(F20:Q20)</f>
+        <v>1.125</v>
+      </c>
+      <c r="F20" s="79">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="79">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H20" s="157"/>
       <c r="I20" s="140"/>
       <c r="J20" s="140"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="156" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D21" s="79">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E21" s="140">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="157">
-        <v>2</v>
-      </c>
+        <f>E21*(1+$T$1)</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="E21" s="79">
+        <f>AVERAGE(F21:Q21)</f>
+        <v>1.3</v>
+      </c>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="H21" s="157"/>
       <c r="I21" s="140"/>
       <c r="J21" s="140"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="156" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D22" s="79">
-        <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <f>E22*(1+$T$1)</f>
+        <v>2.6850000000000001</v>
       </c>
       <c r="E22" s="79">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
+        <f>AVERAGE(F22:Q22)</f>
+        <v>1.79</v>
       </c>
       <c r="F22" s="79"/>
       <c r="G22" s="79">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="H22" s="157"/>
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="156" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D23" s="79">
-        <f t="shared" si="0"/>
-        <v>2.9849999999999999</v>
+        <f>E23*(1+$T$1)</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E23" s="79">
-        <f t="shared" si="1"/>
-        <v>1.99</v>
-      </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79">
-        <v>1.99</v>
-      </c>
-      <c r="H23" s="157"/>
+        <f>AVERAGE(F23:Q23)</f>
+        <v>1.2</v>
+      </c>
+      <c r="F23" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="157">
+        <v>1</v>
+      </c>
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="156" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D24" s="79">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
+        <f>E24*(1+$T$1)</f>
+        <v>2.0999999999999996</v>
       </c>
       <c r="E24" s="79">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
+        <f>AVERAGE(F24:Q24)</f>
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="157">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="156" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D25" s="79">
-        <f t="shared" si="0"/>
-        <v>1.6500000000000001</v>
+        <f>E25*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E25" s="79">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="157">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>AVERAGE(F25:Q25)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F25" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="G25" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="H25" s="157"/>
       <c r="I25" s="140"/>
       <c r="J25" s="140"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="156" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D26" s="79">
-        <f t="shared" si="0"/>
-        <v>1.6500000000000001</v>
+        <f>E26*(1+$T$1)</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="E26" s="79">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F26" s="79">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G26" s="79"/>
+        <f>AVERAGE(F26:Q26)</f>
+        <v>1.6</v>
+      </c>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79">
+        <v>1.6</v>
+      </c>
       <c r="H26" s="157"/>
       <c r="I26" s="140"/>
       <c r="J26" s="140"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D27" s="79">
-        <f t="shared" si="0"/>
-        <v>2.4749999999999996</v>
+        <f>E27*(1+$T$1)</f>
+        <v>2.35</v>
       </c>
       <c r="E27" s="79">
-        <f t="shared" si="1"/>
-        <v>1.65</v>
-      </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
+        <f>AVERAGE(F27:Q27)</f>
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="F27" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="G27" s="79">
+        <v>1.8</v>
+      </c>
       <c r="H27" s="157">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D28" s="79">
-        <f t="shared" si="0"/>
-        <v>2.625</v>
+        <f>E28*(1+$T$1)</f>
+        <v>4.5</v>
       </c>
       <c r="E28" s="79">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="F28" s="79"/>
+        <f>AVERAGE(F28:Q28)</f>
+        <v>3</v>
+      </c>
+      <c r="F28" s="79">
+        <v>3</v>
+      </c>
       <c r="G28" s="79"/>
-      <c r="H28" s="157">
-        <v>1.75</v>
-      </c>
+      <c r="H28" s="157"/>
       <c r="I28" s="140"/>
       <c r="J28" s="140"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D29" s="79">
-        <f t="shared" si="0"/>
-        <v>1.875</v>
+        <f>E29*(1+$T$1)</f>
+        <v>3.1500000000000004</v>
       </c>
       <c r="E29" s="79">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="F29" s="79">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G29" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="H29" s="157"/>
+        <f>AVERAGE(F29:Q29)</f>
+        <v>2.1</v>
+      </c>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="157">
+        <v>2.1</v>
+      </c>
       <c r="I29" s="140"/>
       <c r="J29" s="140"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D30" s="79">
-        <f t="shared" si="0"/>
-        <v>1.6875</v>
+        <f>E30*(1+$T$1)</f>
+        <v>1.5</v>
       </c>
       <c r="E30" s="79">
-        <f t="shared" si="1"/>
-        <v>1.125</v>
-      </c>
-      <c r="F30" s="79">
-        <v>0.75</v>
-      </c>
-      <c r="G30" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="H30" s="157"/>
+        <f>AVERAGE(F30:Q30)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="157">
+        <v>1</v>
+      </c>
       <c r="I30" s="140"/>
       <c r="J30" s="140"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D31" s="79">
-        <f t="shared" si="0"/>
-        <v>1.6500000000000001</v>
+        <f>E31*(1+$T$1)</f>
+        <v>3.4874999999999998</v>
       </c>
       <c r="E31" s="79">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F31" s="79"/>
+        <f>AVERAGE(F31:Q31)</f>
+        <v>2.3249999999999997</v>
+      </c>
+      <c r="F31" s="79">
+        <f>17.25/10</f>
+        <v>1.7250000000000001</v>
+      </c>
       <c r="G31" s="79">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H31" s="157"/>
+        <v>2.75</v>
+      </c>
+      <c r="H31" s="157">
+        <v>2.5</v>
+      </c>
       <c r="I31" s="140"/>
       <c r="J31" s="140"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D32" s="79">
-        <f t="shared" si="0"/>
-        <v>1.125</v>
+        <f>E32*(1+$T$1)</f>
+        <v>2.25</v>
       </c>
       <c r="E32" s="79">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="F32" s="79">
-        <v>0.75</v>
-      </c>
+        <f>AVERAGE(F32:Q32)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="79"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="157"/>
+      <c r="H32" s="157">
+        <v>1.5</v>
+      </c>
       <c r="I32" s="140"/>
       <c r="J32" s="140"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D33" s="79">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>E33*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E33" s="79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79">
-        <v>1</v>
-      </c>
-      <c r="H33" s="157"/>
+        <f>AVERAGE(F33:Q33)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="157">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I33" s="140"/>
       <c r="J33" s="140"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D34" s="79">
-        <f t="shared" ref="D34:D66" si="2">E34*(1+$T$1)</f>
-        <v>2.2125000000000004</v>
+        <f>E34*(1+$T$1)</f>
+        <v>2.0999999999999996</v>
       </c>
       <c r="E34" s="79">
-        <f t="shared" si="1"/>
-        <v>1.4750000000000001</v>
+        <f>AVERAGE(F34:Q34)</f>
+        <v>1.4</v>
       </c>
       <c r="F34" s="79">
-        <v>1.25</v>
-      </c>
-      <c r="G34" s="79">
-        <v>1.7</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="G34" s="79"/>
       <c r="H34" s="157"/>
       <c r="I34" s="140"/>
       <c r="J34" s="140"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D35" s="79">
-        <f t="shared" si="2"/>
-        <v>1.8000000000000003</v>
+        <f>E35*(1+$T$1)</f>
+        <v>1.5</v>
       </c>
       <c r="E35" s="79">
-        <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F35" s="79">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>AVERAGE(F35:Q35)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="79"/>
       <c r="G35" s="79">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H35" s="157"/>
       <c r="I35" s="140"/>
       <c r="J35" s="140"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
+        <v>27</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>93</v>
       </c>
       <c r="D36" s="79">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
+        <f>E36*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E36" s="79">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="F36" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="157"/>
+        <f>AVERAGE(F36:Q36)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="157">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I36" s="140"/>
       <c r="J36" s="140"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="156" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D37" s="79">
-        <f t="shared" si="2"/>
-        <v>1.6949999999999998</v>
+        <f>E37*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E37" s="79">
-        <f t="shared" si="1"/>
-        <v>1.1299999999999999</v>
+        <f>AVERAGE(F37:Q37)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F37" s="79">
-        <v>1.1299999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G37" s="79"/>
-      <c r="H37" s="157"/>
+      <c r="H37" s="157">
+        <v>1</v>
+      </c>
       <c r="I37" s="140"/>
       <c r="J37" s="140"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="156" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D38" s="79">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
+        <f>E38*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E38" s="79">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="157">
-        <v>1.5</v>
-      </c>
+        <f>AVERAGE(F38:Q38)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F38" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="G38" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="H38" s="157"/>
       <c r="I38" s="140"/>
       <c r="J38" s="140"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="156" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D39" s="79">
-        <f t="shared" si="2"/>
-        <v>1.9500000000000002</v>
+        <f>E39*(1+$T$1)</f>
+        <v>2.25</v>
       </c>
       <c r="E39" s="79">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="H39" s="157"/>
+        <f>AVERAGE(F39:Q39)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="157">
+        <v>1.5</v>
+      </c>
       <c r="I39" s="140"/>
       <c r="J39" s="140"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="156" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D40" s="79">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>E40*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E40" s="79">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>AVERAGE(F40:Q40)</f>
+        <v>1.25</v>
       </c>
       <c r="F40" s="79"/>
       <c r="G40" s="79"/>
       <c r="H40" s="157">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="I40" s="140"/>
       <c r="J40" s="140"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="156" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D41" s="79">
-        <f t="shared" si="2"/>
-        <v>1.9500000000000002</v>
+        <f>E41*(1+$T$1)</f>
+        <v>3</v>
       </c>
       <c r="E41" s="79">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
-      <c r="F41" s="79">
-        <v>1.3</v>
-      </c>
+        <f>AVERAGE(F41:Q41)</f>
+        <v>2</v>
+      </c>
+      <c r="F41" s="79"/>
       <c r="G41" s="79"/>
-      <c r="H41" s="157"/>
+      <c r="H41" s="157">
+        <v>2</v>
+      </c>
       <c r="I41" s="140"/>
       <c r="J41" s="140"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="156" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D42" s="79">
-        <f t="shared" si="2"/>
-        <v>5.9625000000000004</v>
+        <f>E42*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E42" s="79">
-        <f t="shared" si="1"/>
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="F42" s="79">
-        <v>4</v>
-      </c>
-      <c r="G42" s="79">
-        <v>3.95</v>
-      </c>
-      <c r="H42" s="157"/>
+        <f>AVERAGE(F42:Q42)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="157">
+        <v>1.25</v>
+      </c>
       <c r="I42" s="140"/>
       <c r="J42" s="140"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="156" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D43" s="79">
-        <f t="shared" si="2"/>
-        <v>6.7124999999999995</v>
+        <f>E43*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E43" s="79">
-        <f t="shared" si="1"/>
-        <v>4.4749999999999996</v>
-      </c>
-      <c r="F43" s="79">
-        <v>4</v>
-      </c>
-      <c r="G43" s="79">
-        <v>4.95</v>
-      </c>
-      <c r="H43" s="157"/>
+        <f>AVERAGE(F43:Q43)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="157">
+        <v>1.25</v>
+      </c>
       <c r="I43" s="140"/>
       <c r="J43" s="140"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="156" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D44" s="79">
-        <f t="shared" si="2"/>
-        <v>5.9625000000000004</v>
+        <f>E44*(1+$T$1)</f>
+        <v>2.25</v>
       </c>
       <c r="E44" s="79">
-        <f t="shared" si="1"/>
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="F44" s="79">
-        <v>4</v>
-      </c>
-      <c r="G44" s="79">
-        <v>3.95</v>
-      </c>
-      <c r="H44" s="157"/>
+        <f>AVERAGE(F44:Q44)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="157">
+        <v>1.5</v>
+      </c>
       <c r="I44" s="140"/>
       <c r="J44" s="140"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="156" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D45" s="79">
-        <f t="shared" si="2"/>
-        <v>4.9499999999999993</v>
+        <f>E45*(1+$T$1)</f>
+        <v>2.3250000000000002</v>
       </c>
       <c r="E45" s="79">
-        <f t="shared" si="1"/>
-        <v>3.3</v>
+        <f>AVERAGE(F45:Q45)</f>
+        <v>1.55</v>
       </c>
       <c r="F45" s="79">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="G45" s="79">
-        <v>3.6</v>
-      </c>
-      <c r="H45" s="157"/>
+        <v>1.5</v>
+      </c>
+      <c r="H45" s="157">
+        <v>1.75</v>
+      </c>
       <c r="I45" s="140"/>
       <c r="J45" s="140"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="156" t="s">
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D46" s="79">
-        <f t="shared" si="2"/>
-        <v>4.9875000000000007</v>
+        <f>E46*(1+$T$1)</f>
+        <v>1.5</v>
       </c>
       <c r="E46" s="79">
-        <f t="shared" si="1"/>
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="F46" s="79">
-        <v>3</v>
-      </c>
+        <f>AVERAGE(F46:Q46)</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="79"/>
       <c r="G46" s="79">
-        <v>3.65</v>
+        <v>1</v>
       </c>
       <c r="H46" s="157"/>
       <c r="I46" s="140"/>
       <c r="J46" s="140"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="156" t="s">
         <v>58</v>
       </c>
@@ -34508,203 +34529,199 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D47" s="79">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>E47*(1+$T$1)</f>
+        <v>2.25</v>
       </c>
       <c r="E47" s="79">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F47" s="79">
-        <v>2</v>
-      </c>
-      <c r="G47" s="79"/>
-      <c r="H47" s="157"/>
+        <f>AVERAGE(F47:Q47)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="157">
+        <v>1.5</v>
+      </c>
       <c r="I47" s="140"/>
       <c r="J47" s="140"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="156" t="s">
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D48" s="79">
-        <f t="shared" si="2"/>
-        <v>1.5750000000000002</v>
+        <f>E48*(1+$T$1)</f>
+        <v>1.9500000000000002</v>
       </c>
       <c r="E48" s="79">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
+        <f>AVERAGE(F48:Q48)</f>
+        <v>1.3</v>
       </c>
       <c r="F48" s="79">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G48" s="79">
-        <v>1</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="G48" s="79"/>
       <c r="H48" s="157"/>
       <c r="I48" s="140"/>
       <c r="J48" s="140"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="156" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D49" s="79">
-        <f t="shared" si="2"/>
-        <v>2.6850000000000001</v>
+        <f>E49*(1+$T$1)</f>
+        <v>3</v>
       </c>
       <c r="E49" s="79">
-        <f t="shared" si="1"/>
-        <v>1.79</v>
-      </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79">
-        <v>1.79</v>
-      </c>
+        <f>AVERAGE(F49:Q49)</f>
+        <v>2</v>
+      </c>
+      <c r="F49" s="79">
+        <v>2</v>
+      </c>
+      <c r="G49" s="79"/>
       <c r="H49" s="157"/>
       <c r="I49" s="140"/>
       <c r="J49" s="140"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="156" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>98</v>
       </c>
       <c r="D50" s="79">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999998</v>
+        <f>E50*(1+$T$1)</f>
+        <v>2.25</v>
       </c>
       <c r="E50" s="79">
-        <f t="shared" ref="E50:E66" si="3">AVERAGE(F50:Q50)</f>
-        <v>1.2</v>
-      </c>
-      <c r="F50" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="G50" s="79"/>
+        <f>AVERAGE(F50:Q50)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
       <c r="H50" s="157">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I50" s="140"/>
       <c r="J50" s="140"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="156" t="s">
         <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D51" s="79">
-        <f t="shared" si="2"/>
-        <v>2.0999999999999996</v>
+        <f>E51*(1+$T$1)</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E51" s="79">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
+        <f>AVERAGE(F51:Q51)</f>
+        <v>1.2</v>
       </c>
       <c r="F51" s="79"/>
       <c r="G51" s="79"/>
       <c r="H51" s="157">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I51" s="140"/>
       <c r="J51" s="140"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="156" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D52" s="79">
-        <f t="shared" si="2"/>
-        <v>1.875</v>
+        <f>E52*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E52" s="79">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
-      </c>
-      <c r="F52" s="79">
-        <v>1.3</v>
-      </c>
+        <f>AVERAGE(F52:Q52)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F52" s="79"/>
       <c r="G52" s="79">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H52" s="157"/>
       <c r="I52" s="140"/>
       <c r="J52" s="140"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="156" t="s">
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D53" s="79">
-        <f t="shared" si="2"/>
-        <v>2.4000000000000004</v>
+        <f>E53*(1+$T$1)</f>
+        <v>1.7249999999999999</v>
       </c>
       <c r="E53" s="79">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="F53" s="79"/>
+        <f>AVERAGE(F53:Q53)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F53" s="79">
+        <v>1.3</v>
+      </c>
       <c r="G53" s="79">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H53" s="157"/>
       <c r="I53" s="140"/>
       <c r="J53" s="140"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D54" s="79">
-        <f t="shared" si="2"/>
-        <v>2.35</v>
+        <f>E54*(1+$T$1)</f>
+        <v>2.5</v>
       </c>
       <c r="E54" s="79">
-        <f t="shared" si="3"/>
-        <v>1.5666666666666667</v>
+        <f>AVERAGE(F54:Q54)</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F54" s="79">
         <v>1.4</v>
@@ -34713,685 +34730,678 @@
         <v>1.8</v>
       </c>
       <c r="H54" s="157">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="I54" s="140"/>
       <c r="J54" s="140"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D55" s="79">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
+        <f>E55*(1+$T$1)</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E55" s="79">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F55" s="79">
-        <v>3</v>
-      </c>
+        <f>AVERAGE(F55:Q55)</f>
+        <v>1.2</v>
+      </c>
+      <c r="F55" s="79"/>
       <c r="G55" s="79"/>
-      <c r="H55" s="157"/>
+      <c r="H55" s="157">
+        <v>1.2</v>
+      </c>
       <c r="I55" s="140"/>
       <c r="J55" s="140"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D56" s="79">
-        <f t="shared" si="2"/>
-        <v>3.1500000000000004</v>
+        <f>E56*(1+$T$1)</f>
+        <v>3.9950000000000001</v>
       </c>
       <c r="E56" s="79">
-        <f t="shared" si="3"/>
-        <v>2.1</v>
-      </c>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
+        <f>AVERAGE(F56:Q56)</f>
+        <v>2.6633333333333336</v>
+      </c>
+      <c r="F56" s="79">
+        <v>2.5</v>
+      </c>
+      <c r="G56" s="79">
+        <v>2.99</v>
+      </c>
       <c r="H56" s="157">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="I56" s="140"/>
       <c r="J56" s="140"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>105</v>
       </c>
       <c r="D57" s="79">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f>E57*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E57" s="79">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
+        <f>AVERAGE(F57:Q57)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
       <c r="H57" s="157">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I57" s="140"/>
       <c r="J57" s="140"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D58" s="79">
-        <f t="shared" si="2"/>
-        <v>3.4874999999999998</v>
+        <f>E58*(1+$T$1)</f>
+        <v>2.25</v>
       </c>
       <c r="E58" s="79">
-        <f t="shared" si="3"/>
-        <v>2.3249999999999997</v>
-      </c>
-      <c r="F58" s="79">
-        <f>17.25/10</f>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="G58" s="79">
-        <v>2.75</v>
-      </c>
+        <f>AVERAGE(F58:Q58)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
       <c r="H58" s="157">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I58" s="140"/>
       <c r="J58" s="140"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="156" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D59" s="79">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
+        <f>E59*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E59" s="79">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="157">
-        <v>1.5</v>
-      </c>
+        <f>AVERAGE(F59:Q59)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F59" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="G59" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="H59" s="157"/>
       <c r="I59" s="140"/>
       <c r="J59" s="140"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="156" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D60" s="79">
-        <f t="shared" si="2"/>
-        <v>1.6500000000000001</v>
+        <f>E60*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E60" s="79">
-        <f t="shared" si="3"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="157">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>AVERAGE(F60:Q60)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F60" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="G60" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="H60" s="157"/>
       <c r="I60" s="140"/>
       <c r="J60" s="140"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D61" s="79">
-        <f t="shared" si="2"/>
-        <v>2.0999999999999996</v>
+        <f>E61*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E61" s="79">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="F61" s="79">
-        <v>1.4</v>
-      </c>
+        <f>AVERAGE(F61:Q61)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F61" s="79"/>
       <c r="G61" s="79"/>
-      <c r="H61" s="157"/>
+      <c r="H61" s="157">
+        <v>1.25</v>
+      </c>
       <c r="I61" s="140"/>
       <c r="J61" s="140"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="156" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="79">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>71</v>
+      </c>
+      <c r="D62" s="79" t="e">
+        <f>E62*(1+$O$1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E62" s="79">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>AVERAGE(F62:Q62)</f>
+        <v>2</v>
       </c>
       <c r="F62" s="79"/>
-      <c r="G62" s="79">
-        <v>1</v>
-      </c>
-      <c r="H62" s="157"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="157">
+        <v>2</v>
+      </c>
       <c r="I62" s="140"/>
       <c r="J62" s="140"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="156" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="66" t="s">
-        <v>93</v>
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
       </c>
       <c r="D63" s="79">
-        <f t="shared" si="2"/>
-        <v>1.6500000000000001</v>
+        <f>E63*(1+$T$1)</f>
+        <v>1.5</v>
       </c>
       <c r="E63" s="79">
-        <f t="shared" si="3"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
+        <f>AVERAGE(F63:Q63)</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="157">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I63" s="140"/>
       <c r="J63" s="140"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="156" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D64" s="79">
-        <f t="shared" si="2"/>
-        <v>1.6500000000000001</v>
+        <f>E64*(1+$T$1)</f>
+        <v>1.7249999999999999</v>
       </c>
       <c r="E64" s="79">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(F64:Q64)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F64" s="79">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F64" s="79">
+      <c r="G64" s="79">
         <v>1.2</v>
       </c>
-      <c r="G64" s="79"/>
-      <c r="H64" s="157">
-        <v>1</v>
-      </c>
+      <c r="H64" s="157"/>
       <c r="I64" s="140"/>
       <c r="J64" s="140"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="156" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D65" s="79">
-        <f t="shared" si="2"/>
+        <f>E65*(1+$T$1)</f>
         <v>1.875</v>
       </c>
       <c r="E65" s="79">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(F65:Q65)</f>
         <v>1.25</v>
       </c>
-      <c r="F65" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="G65" s="79">
-        <v>1.2</v>
-      </c>
-      <c r="H65" s="157"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="157">
+        <v>1.25</v>
+      </c>
       <c r="I65" s="140"/>
       <c r="J65" s="140"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="156" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D66" s="79">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
+        <f>E66*(1+$T$1)</f>
+        <v>2.7</v>
       </c>
       <c r="E66" s="79">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="157">
-        <v>1.5</v>
-      </c>
+        <f>AVERAGE(F66:Q66)</f>
+        <v>1.8</v>
+      </c>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79">
+        <v>1.8</v>
+      </c>
+      <c r="H66" s="157"/>
       <c r="I66" s="140"/>
       <c r="J66" s="140"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="156" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="66" t="s">
-        <v>98</v>
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
       </c>
       <c r="D67" s="79">
-        <f t="shared" ref="D67:D78" si="4">E67*(1+$T$1)</f>
-        <v>2.25</v>
-      </c>
-      <c r="E67" s="79">
-        <f t="shared" ref="E67:E98" si="5">AVERAGE(F67:Q67)</f>
-        <v>1.5</v>
+        <f>E67*(1+$T$1)</f>
+        <v>3</v>
+      </c>
+      <c r="E67" s="140">
+        <f>AVERAGE(F67:Q67)</f>
+        <v>2</v>
       </c>
       <c r="F67" s="140"/>
       <c r="G67" s="140"/>
       <c r="H67" s="157">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I67" s="140"/>
       <c r="J67" s="140"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="156" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D68" s="79">
-        <f t="shared" si="4"/>
-        <v>1.7999999999999998</v>
+        <f>E68*(1+$T$1)</f>
+        <v>1.6949999999999998</v>
       </c>
       <c r="E68" s="79">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="F68" s="79"/>
+        <f>AVERAGE(F68:Q68)</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F68" s="79">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="G68" s="79"/>
-      <c r="H68" s="157">
-        <v>1.2</v>
-      </c>
+      <c r="H68" s="157"/>
       <c r="I68" s="140"/>
       <c r="J68" s="140"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="156" t="s">
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D69" s="79">
-        <f t="shared" si="4"/>
-        <v>1.6500000000000001</v>
+        <f>E69*(1+$T$1)</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E69" s="79">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>AVERAGE(F69:Q69)</f>
+        <v>1.2</v>
+      </c>
+      <c r="F69" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="G69" s="79"/>
       <c r="H69" s="157"/>
       <c r="I69" s="140"/>
       <c r="J69" s="140"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="156" t="s">
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D70" s="79">
-        <f t="shared" si="4"/>
-        <v>1.7249999999999999</v>
+        <f>E70*(1+$T$1)</f>
+        <v>2.1749999999999998</v>
       </c>
       <c r="E70" s="79">
-        <f t="shared" si="5"/>
-        <v>1.1499999999999999</v>
+        <f>AVERAGE(F70:Q70)</f>
+        <v>1.45</v>
       </c>
       <c r="F70" s="79">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G70" s="79">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H70" s="157"/>
       <c r="I70" s="140"/>
       <c r="J70" s="140"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D71" s="79">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <f>E71*(1+$T$1)</f>
+        <v>1.9500000000000002</v>
       </c>
       <c r="E71" s="79">
-        <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <f>AVERAGE(F71:Q71)</f>
+        <v>1.3</v>
       </c>
       <c r="F71" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="G71" s="79">
-        <v>1.8</v>
-      </c>
-      <c r="H71" s="157">
-        <v>1.8</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="G71" s="79"/>
+      <c r="H71" s="157"/>
       <c r="I71" s="140"/>
       <c r="J71" s="140"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D72" s="79">
-        <f t="shared" si="4"/>
-        <v>1.7999999999999998</v>
+        <f>E72*(1+$T$1)</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="E72" s="79">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="F72" s="79"/>
+        <f>AVERAGE(F72:Q72)</f>
+        <v>1.6</v>
+      </c>
+      <c r="F72" s="79">
+        <v>1.6</v>
+      </c>
       <c r="G72" s="79"/>
-      <c r="H72" s="157">
-        <v>1.2</v>
-      </c>
+      <c r="H72" s="157"/>
       <c r="I72" s="140"/>
       <c r="J72" s="140"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D73" s="79">
-        <f t="shared" si="4"/>
-        <v>3.9950000000000001</v>
+        <f>E73*(1+$T$1)</f>
+        <v>1.9500000000000002</v>
       </c>
       <c r="E73" s="79">
-        <f t="shared" si="5"/>
-        <v>2.6633333333333336</v>
+        <f>AVERAGE(F73:Q73)</f>
+        <v>1.3</v>
       </c>
       <c r="F73" s="79">
-        <v>2.5</v>
-      </c>
-      <c r="G73" s="79">
-        <v>2.99</v>
-      </c>
-      <c r="H73" s="157">
-        <v>2.5</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="G73" s="79"/>
+      <c r="H73" s="157"/>
       <c r="I73" s="140"/>
       <c r="J73" s="140"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="66" t="s">
-        <v>105</v>
+        <v>43</v>
+      </c>
+      <c r="C74" t="s">
+        <v>113</v>
       </c>
       <c r="D74" s="79">
-        <f t="shared" si="4"/>
-        <v>1.6500000000000001</v>
+        <f>E74*(1+$T$1)</f>
+        <v>1.5750000000000002</v>
       </c>
       <c r="E74" s="79">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="157">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>AVERAGE(F74:Q74)</f>
+        <v>1.05</v>
+      </c>
+      <c r="F74" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="G74" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="H74" s="157"/>
       <c r="I74" s="140"/>
       <c r="J74" s="140"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" t="s">
-        <v>106</v>
+        <v>43</v>
+      </c>
+      <c r="C75" s="66" t="s">
+        <v>105</v>
       </c>
       <c r="D75" s="79">
-        <f t="shared" si="4"/>
-        <v>2.25</v>
+        <f>E75*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E75" s="79">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
+        <f>AVERAGE(F75:Q75)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
       <c r="H75" s="157">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I75" s="140"/>
       <c r="J75" s="140"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="156" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" t="s">
-        <v>83</v>
+        <v>49</v>
+      </c>
+      <c r="B76" s="322" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="322" t="s">
+        <v>114</v>
       </c>
       <c r="D76" s="79">
-        <f t="shared" si="4"/>
-        <v>1.875</v>
+        <f>E76*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E76" s="79">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
+        <f>AVERAGE(F76:Q76)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F76" s="79">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G76" s="79">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H76" s="157"/>
       <c r="I76" s="140"/>
       <c r="J76" s="140"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="156" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" t="s">
-        <v>95</v>
+        <v>43</v>
+      </c>
+      <c r="C77" s="66" t="s">
+        <v>93</v>
       </c>
       <c r="D77" s="79">
-        <f t="shared" si="4"/>
-        <v>1.875</v>
+        <f>E77*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E77" s="79">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="F77" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="G77" s="79">
-        <v>1.2</v>
-      </c>
-      <c r="H77" s="157"/>
+        <f>AVERAGE(F77:Q77)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F77" s="140"/>
+      <c r="G77" s="140"/>
+      <c r="H77" s="157">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I77" s="140"/>
       <c r="J77" s="140"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="156" t="s">
         <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D78" s="79">
-        <f t="shared" si="4"/>
-        <v>1.875</v>
+        <f>E78*(1+$T$1)</f>
+        <v>1.125</v>
       </c>
       <c r="E78" s="79">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
+        <f>AVERAGE(F78:Q78)</f>
+        <v>0.75</v>
       </c>
       <c r="F78" s="79"/>
       <c r="G78" s="79"/>
       <c r="H78" s="157">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="I78" s="140"/>
       <c r="J78" s="140"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="156" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
         <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D79" s="79">
-        <f t="shared" ref="D79:D110" si="6">E79*(1+$T$1)</f>
-        <v>1.7999999999999998</v>
+        <f>E79*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E79" s="79">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="F79" s="79">
-        <v>1.2</v>
-      </c>
+        <f>AVERAGE(F79:Q79)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F79" s="79"/>
       <c r="G79" s="79"/>
-      <c r="H79" s="157"/>
+      <c r="H79" s="157">
+        <v>1.25</v>
+      </c>
       <c r="I79" s="140"/>
       <c r="J79" s="140"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="156" t="s">
         <v>82</v>
       </c>
@@ -35399,407 +35409,409 @@
         <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D80" s="79">
-        <f t="shared" si="6"/>
-        <v>2.1749999999999998</v>
+        <f>E80*(1+$T$1)</f>
+        <v>1.75</v>
       </c>
       <c r="E80" s="79">
-        <f t="shared" si="5"/>
-        <v>1.45</v>
+        <f>AVERAGE(F80:Q80)</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="F80" s="79">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G80" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="H80" s="157"/>
+        <v>1.2</v>
+      </c>
+      <c r="H80" s="157">
+        <v>1</v>
+      </c>
       <c r="I80" s="140"/>
       <c r="J80" s="140"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="156" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D81" s="79">
-        <f t="shared" si="6"/>
-        <v>1.9500000000000002</v>
+        <f>E81*(1+$T$1)</f>
+        <v>1.75</v>
       </c>
       <c r="E81" s="79">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
+        <f>AVERAGE(F81:Q81)</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="F81" s="79">
         <v>1.3</v>
       </c>
-      <c r="G81" s="79"/>
-      <c r="H81" s="157"/>
+      <c r="G81" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="H81" s="157">
+        <v>1</v>
+      </c>
       <c r="I81" s="140"/>
       <c r="J81" s="140"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="156" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="D82" s="79">
-        <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <f>E82*(1+$T$1)</f>
+        <v>3.75</v>
       </c>
       <c r="E82" s="79">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-      <c r="F82" s="79">
-        <v>1.6</v>
-      </c>
-      <c r="G82" s="79"/>
-      <c r="H82" s="157"/>
+        <f>AVERAGE(F82:Q82)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="157">
+        <v>2.5</v>
+      </c>
       <c r="I82" s="140"/>
       <c r="J82" s="140"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="156" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="D83" s="79">
-        <f t="shared" si="6"/>
-        <v>1.9500000000000002</v>
+        <f>E83*(1+$T$1)</f>
+        <v>2.625</v>
       </c>
       <c r="E83" s="79">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-      <c r="F83" s="79">
-        <v>1.3</v>
-      </c>
+        <f>AVERAGE(F83:Q83)</f>
+        <v>1.75</v>
+      </c>
+      <c r="F83" s="79"/>
       <c r="G83" s="79"/>
-      <c r="H83" s="157"/>
+      <c r="H83" s="157">
+        <v>1.75</v>
+      </c>
       <c r="I83" s="140"/>
       <c r="J83" s="140"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="156" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D84" s="79">
-        <f t="shared" si="6"/>
-        <v>1.5750000000000002</v>
+        <f>E84*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E84" s="79">
-        <f t="shared" si="5"/>
-        <v>1.05</v>
-      </c>
-      <c r="F84" s="79">
-        <v>1.3</v>
-      </c>
+        <f>AVERAGE(F84:Q84)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F84" s="79"/>
       <c r="G84" s="79">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H84" s="157"/>
       <c r="I84" s="140"/>
       <c r="J84" s="140"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="94" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" s="66" t="s">
-        <v>105</v>
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
       </c>
       <c r="D85" s="79">
-        <f t="shared" si="6"/>
-        <v>1.6500000000000001</v>
+        <f>E85*(1+$T$1)</f>
+        <v>1.125</v>
       </c>
       <c r="E85" s="79">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F85" s="140"/>
-      <c r="G85" s="140"/>
-      <c r="H85" s="105">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>AVERAGE(F85:Q85)</f>
+        <v>0.75</v>
+      </c>
+      <c r="F85" s="79">
+        <v>0.75</v>
+      </c>
+      <c r="G85" s="79"/>
+      <c r="H85" s="105"/>
       <c r="I85" s="140"/>
       <c r="J85" s="140"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="96" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C86" s="97" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D86" s="79">
-        <f t="shared" si="6"/>
-        <v>1.6500000000000001</v>
+        <f>E86*(1+$T$1)</f>
+        <v>2.2125000000000004</v>
       </c>
       <c r="E86" s="79">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <f>AVERAGE(F86:Q86)</f>
+        <v>1.4750000000000001</v>
       </c>
       <c r="F86" s="98">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="G86" s="98">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H86" s="201"/>
       <c r="I86" s="140"/>
       <c r="J86" s="140"/>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="s">
-        <v>49</v>
+    <row r="87" spans="1:10" hidden="1">
+      <c r="A87" s="322" t="s">
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="66" t="s">
-        <v>93</v>
+        <v>52</v>
+      </c>
+      <c r="C87" t="s">
+        <v>66</v>
       </c>
       <c r="D87" s="79">
-        <f t="shared" si="6"/>
-        <v>1.6500000000000001</v>
+        <f>E87*(1+$T$1)</f>
+        <v>1.8000000000000003</v>
       </c>
       <c r="E87" s="79">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(F87:Q87)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F87" s="79">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F87" s="140"/>
-      <c r="G87" s="140"/>
-      <c r="H87" s="201">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="G87" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="H87" s="201"/>
       <c r="I87" s="140"/>
       <c r="J87" s="140"/>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>49</v>
+    <row r="88" spans="1:10" hidden="1">
+      <c r="A88" s="322" t="s">
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D88" s="79">
-        <f t="shared" si="6"/>
-        <v>1.125</v>
+        <f>E88*(1+$T$1)</f>
+        <v>3</v>
       </c>
       <c r="E88" s="79">
-        <f t="shared" si="5"/>
-        <v>0.75</v>
+        <f>AVERAGE(F88:Q88)</f>
+        <v>2</v>
       </c>
       <c r="F88" s="79"/>
       <c r="G88" s="79"/>
       <c r="H88" s="201">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="I88" s="140"/>
       <c r="J88" s="140"/>
     </row>
-    <row r="89" spans="1:10">
-      <c r="A89" t="s">
-        <v>49</v>
+    <row r="89" spans="1:10" hidden="1">
+      <c r="A89" s="322" t="s">
+        <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D89" s="79">
-        <f t="shared" si="6"/>
-        <v>1.875</v>
+        <f>E89*(1+$T$1)</f>
+        <v>1.5750000000000002</v>
       </c>
       <c r="E89" s="79">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="79">
-        <v>1.25</v>
-      </c>
+        <f>AVERAGE(F89:Q89)</f>
+        <v>1.05</v>
+      </c>
+      <c r="F89" s="79">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G89" s="79">
+        <v>1</v>
+      </c>
+      <c r="H89" s="79"/>
       <c r="I89" s="140"/>
       <c r="J89" s="140"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D90" s="79">
-        <f t="shared" si="6"/>
-        <v>1.75</v>
+        <f>E90*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E90" s="79">
-        <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <f>AVERAGE(F90:Q90)</f>
+        <v>1.25</v>
       </c>
       <c r="F90" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="G90" s="79">
-        <v>1.2</v>
-      </c>
-      <c r="H90" s="79">
-        <v>1</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
       <c r="I90" s="140"/>
       <c r="J90" s="140"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="156" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D91" s="79">
-        <f t="shared" si="6"/>
-        <v>1.75</v>
+        <f>E91*(1+$T$1)</f>
+        <v>1.6124999999999998</v>
       </c>
       <c r="E91" s="79">
-        <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <f>AVERAGE(F91:Q91)</f>
+        <v>1.075</v>
       </c>
       <c r="F91" s="79">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="G91" s="79">
-        <v>1.2</v>
-      </c>
-      <c r="H91" s="157">
-        <v>1</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="H91" s="157"/>
       <c r="I91" s="140"/>
       <c r="J91" s="140"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
         <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D92" s="79">
-        <f t="shared" si="6"/>
-        <v>1.875</v>
+        <f>E92*(1+$T$1)</f>
+        <v>2.5875000000000004</v>
       </c>
       <c r="E92" s="79">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
+        <f>AVERAGE(F92:Q92)</f>
+        <v>1.7250000000000001</v>
       </c>
       <c r="F92" s="79">
-        <v>1.25</v>
-      </c>
-      <c r="G92" s="79"/>
+        <v>1.55</v>
+      </c>
+      <c r="G92" s="79">
+        <v>1.9</v>
+      </c>
       <c r="H92" s="79"/>
       <c r="I92" s="140"/>
       <c r="J92" s="140"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D93" s="79">
-        <f t="shared" si="6"/>
-        <v>1.6124999999999998</v>
+        <f>E93*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E93" s="79">
-        <f t="shared" si="5"/>
-        <v>1.075</v>
-      </c>
-      <c r="F93" s="79">
-        <v>1.25</v>
-      </c>
-      <c r="G93" s="79">
-        <v>0.9</v>
-      </c>
-      <c r="H93" s="79"/>
+        <f>AVERAGE(F93:Q93)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F93" s="140"/>
+      <c r="G93" s="140"/>
+      <c r="H93" s="79">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I93" s="140"/>
       <c r="J93" s="140"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
         <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D94" s="79">
-        <f t="shared" si="6"/>
-        <v>2.5875000000000004</v>
+        <f>E94*(1+$T$1)</f>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E94" s="79">
-        <f t="shared" si="5"/>
-        <v>1.7250000000000001</v>
+        <f>AVERAGE(F94:Q94)</f>
+        <v>1.7</v>
       </c>
       <c r="F94" s="79">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="G94" s="79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H94" s="79"/>
       <c r="I94" s="140"/>
       <c r="J94" s="140"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" t="s">
         <v>82</v>
       </c>
@@ -35807,25 +35819,25 @@
         <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D95" s="79">
-        <f t="shared" si="6"/>
-        <v>1.6500000000000001</v>
+        <f>E95*(1+$T$1)</f>
+        <v>3.75</v>
       </c>
       <c r="E95" s="79">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F95" s="140"/>
-      <c r="G95" s="140"/>
+        <f>AVERAGE(F95:Q95)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F95" s="79"/>
+      <c r="G95" s="79"/>
       <c r="H95" s="79">
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="I95" s="140"/>
       <c r="J95" s="140"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -35833,105 +35845,105 @@
         <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D96" s="79">
-        <f t="shared" si="6"/>
-        <v>2.5499999999999998</v>
+        <f>E96*(1+$T$1)</f>
+        <v>3.5999999999999996</v>
       </c>
       <c r="E96" s="79">
-        <f t="shared" si="5"/>
-        <v>1.7</v>
-      </c>
-      <c r="F96" s="79">
-        <v>1.4</v>
-      </c>
+        <f>AVERAGE(F96:Q96)</f>
+        <v>2.4</v>
+      </c>
+      <c r="F96" s="79"/>
       <c r="G96" s="79">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H96" s="79"/>
       <c r="I96" s="140"/>
       <c r="J96" s="140"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D97" s="79">
-        <f t="shared" si="6"/>
-        <v>3.75</v>
+        <f>E97*(1+$T$1)</f>
+        <v>2.25</v>
       </c>
       <c r="E97" s="79">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="F97" s="79"/>
-      <c r="G97" s="79"/>
+        <f>AVERAGE(F97:Q97)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F97" s="140"/>
+      <c r="G97" s="140"/>
       <c r="H97" s="79">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I97" s="140"/>
       <c r="J97" s="140"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D98" s="79">
-        <f t="shared" si="6"/>
-        <v>3.5999999999999996</v>
+        <f>E98*(1+$T$1)</f>
+        <v>2.2574999999999998</v>
       </c>
       <c r="E98" s="79">
-        <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-      <c r="F98" s="79"/>
+        <f>AVERAGE(F98:Q98)</f>
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="F98" s="79">
+        <v>1.3</v>
+      </c>
       <c r="G98" s="79">
-        <v>2.4</v>
+        <v>1.71</v>
       </c>
       <c r="H98" s="79"/>
       <c r="I98" s="140"/>
       <c r="J98" s="140"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
         <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D99" s="79">
-        <f t="shared" si="6"/>
-        <v>2.25</v>
+        <f>E99*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E99" s="79">
-        <f t="shared" ref="E99:E130" si="7">AVERAGE(F99:Q99)</f>
-        <v>1.5</v>
+        <f>AVERAGE(F99:Q99)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F99" s="140"/>
       <c r="G99" s="140"/>
       <c r="H99" s="79">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I99" s="140"/>
       <c r="J99" s="140"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -35939,27 +35951,25 @@
         <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D100" s="79">
-        <f t="shared" si="6"/>
-        <v>2.2574999999999998</v>
+        <f>E100*(1+$T$1)</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E100" s="79">
-        <f t="shared" si="7"/>
-        <v>1.5049999999999999</v>
+        <f>AVERAGE(F100:Q100)</f>
+        <v>1.2</v>
       </c>
       <c r="F100" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="G100" s="79">
-        <v>1.71</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="G100" s="79"/>
       <c r="H100" s="79"/>
       <c r="I100" s="140"/>
       <c r="J100" s="140"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -35967,25 +35977,25 @@
         <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D101" s="79">
-        <f t="shared" si="6"/>
-        <v>1.6500000000000001</v>
+        <f>E101*(1+$T$1)</f>
+        <v>1.875</v>
       </c>
       <c r="E101" s="79">
-        <f t="shared" si="7"/>
-        <v>1.1000000000000001</v>
+        <f>AVERAGE(F101:Q101)</f>
+        <v>1.25</v>
       </c>
       <c r="F101" s="140"/>
       <c r="G101" s="140"/>
       <c r="H101" s="79">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="I101" s="140"/>
       <c r="J101" s="140"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" t="s">
         <v>49</v>
       </c>
@@ -35993,25 +36003,25 @@
         <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D102" s="79">
-        <f t="shared" si="6"/>
-        <v>1.7999999999999998</v>
+        <f>E102*(1+$T$1)</f>
+        <v>1.5</v>
       </c>
       <c r="E102" s="79">
-        <f t="shared" si="7"/>
-        <v>1.2</v>
-      </c>
-      <c r="F102" s="79">
-        <v>1.2</v>
-      </c>
+        <f>AVERAGE(F102:Q102)</f>
+        <v>1</v>
+      </c>
+      <c r="F102" s="79"/>
       <c r="G102" s="79"/>
-      <c r="H102" s="79"/>
+      <c r="H102" s="79">
+        <v>1</v>
+      </c>
       <c r="I102" s="140"/>
       <c r="J102" s="140"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" t="s">
         <v>49</v>
       </c>
@@ -36019,158 +36029,158 @@
         <v>52</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D103" s="79">
-        <f t="shared" si="6"/>
-        <v>1.875</v>
+        <f>E103*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E103" s="79">
-        <f t="shared" si="7"/>
-        <v>1.25</v>
+        <f>AVERAGE(F103:Q103)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F103" s="140"/>
       <c r="G103" s="140"/>
       <c r="H103" s="79">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I103" s="140"/>
       <c r="J103" s="140"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" t="s">
-        <v>49</v>
+      <c r="A104" s="322" t="s">
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="D104" s="79">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f>E104*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E104" s="79">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>AVERAGE(F104:Q104)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F104" s="79"/>
       <c r="G104" s="79"/>
       <c r="H104" s="79">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I104" s="140"/>
       <c r="J104" s="140"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" t="s">
-        <v>49</v>
+      <c r="A105" s="322" t="s">
+        <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D105" s="79">
-        <f t="shared" si="6"/>
+        <f>E105*(1+$T$1)</f>
         <v>1.6500000000000001</v>
       </c>
       <c r="E105" s="79">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F105:Q105)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F105" s="140"/>
-      <c r="G105" s="140"/>
-      <c r="H105" s="79">
+      <c r="F105" s="79">
         <v>1.1000000000000001</v>
       </c>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
       <c r="I105" s="140"/>
       <c r="J105" s="140"/>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" t="s">
-        <v>119</v>
+    <row r="106" spans="1:10" hidden="1">
+      <c r="A106" s="322" t="s">
+        <v>58</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="D106" s="79">
-        <f t="shared" si="6"/>
+        <f>E106*(1+$T$1)</f>
+        <v>2.25</v>
+      </c>
+      <c r="E106" s="79">
+        <f>AVERAGE(F106:Q106)</f>
         <v>1.5</v>
       </c>
-      <c r="E106" s="79">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F106" s="140"/>
-      <c r="G106" s="140"/>
-      <c r="H106" s="79">
-        <v>1</v>
-      </c>
+      <c r="F106" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
       <c r="I106" s="140"/>
       <c r="J106" s="140"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
         <v>54</v>
       </c>
       <c r="C107" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" s="79">
+        <f>E107*(1+$T$1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E107" s="79">
+        <f>AVERAGE(F107:Q107)</f>
+        <v>1</v>
+      </c>
+      <c r="F107" s="140"/>
+      <c r="G107" s="140"/>
+      <c r="H107" s="79">
+        <v>1</v>
+      </c>
+      <c r="I107" s="140"/>
+      <c r="J107" s="140"/>
+    </row>
+    <row r="108" spans="1:10" hidden="1">
+      <c r="A108" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" t="s">
         <v>137</v>
       </c>
-      <c r="D107" s="79">
-        <f t="shared" si="6"/>
+      <c r="D108" s="79">
+        <f>E108*(1+$T$1)</f>
         <v>2.8125</v>
       </c>
-      <c r="E107" s="79">
-        <f t="shared" si="7"/>
+      <c r="E108" s="79">
+        <f>AVERAGE(F108:Q108)</f>
         <v>1.875</v>
       </c>
-      <c r="F107" s="79">
+      <c r="F108" s="79">
         <f>22.5/10</f>
         <v>2.25</v>
       </c>
-      <c r="G107" s="79"/>
-      <c r="H107" s="79">
+      <c r="G108" s="79"/>
+      <c r="H108" s="79">
         <v>1.5</v>
       </c>
-      <c r="I107" s="140"/>
-      <c r="J107" s="140"/>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B108" t="s">
-        <v>54</v>
-      </c>
-      <c r="C108" t="s">
-        <v>138</v>
-      </c>
-      <c r="D108" s="79">
-        <f t="shared" si="6"/>
-        <v>2.25</v>
-      </c>
-      <c r="E108" s="79">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="F108" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="G108" s="79"/>
-      <c r="H108" s="79"/>
       <c r="I108" s="140"/>
       <c r="J108" s="140"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" s="156" t="s">
         <v>82</v>
       </c>
@@ -36178,51 +36188,51 @@
         <v>54</v>
       </c>
       <c r="C109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D109" s="79">
-        <f t="shared" si="6"/>
-        <v>1.6500000000000001</v>
+        <f>E109*(1+$T$1)</f>
+        <v>2.25</v>
       </c>
       <c r="E109" s="79">
-        <f t="shared" si="7"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>AVERAGE(F109:Q109)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F109" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="G109" s="79"/>
       <c r="H109" s="157"/>
       <c r="I109" s="140"/>
       <c r="J109" s="140"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="156" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B110" t="s">
         <v>54</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D110" s="79">
-        <f t="shared" si="6"/>
+        <f>E110*(1+$T$1)</f>
         <v>1.6500000000000001</v>
       </c>
       <c r="E110" s="79">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F110:Q110)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F110" s="140"/>
-      <c r="G110" s="140"/>
-      <c r="H110" s="157">
+      <c r="F110" s="79"/>
+      <c r="G110" s="79">
         <v>1.1000000000000001</v>
       </c>
+      <c r="H110" s="157"/>
       <c r="I110" s="140"/>
       <c r="J110" s="140"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111" s="156" t="s">
         <v>49</v>
       </c>
@@ -36230,45 +36240,45 @@
         <v>54</v>
       </c>
       <c r="C111" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" s="79">
+        <f>E111*(1+$T$1)</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="E111" s="79">
+        <f>AVERAGE(F111:Q111)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F111" s="140"/>
+      <c r="G111" s="140"/>
+      <c r="H111" s="157">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I111" s="140"/>
+      <c r="J111" s="140"/>
+    </row>
+    <row r="112" spans="1:10" hidden="1">
+      <c r="A112" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="s">
         <v>141</v>
       </c>
-      <c r="D111" s="79">
-        <f t="shared" ref="D111:D142" si="8">E111*(1+$T$1)</f>
+      <c r="D112" s="79">
+        <f>E112*(1+$T$1)</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="E111" s="79">
-        <f t="shared" si="7"/>
+      <c r="E112" s="79">
+        <f>AVERAGE(F112:Q112)</f>
         <v>1.4</v>
       </c>
-      <c r="F111" s="79">
+      <c r="F112" s="79">
         <f>14/10</f>
         <v>1.4</v>
-      </c>
-      <c r="G111" s="79"/>
-      <c r="H111" s="157"/>
-      <c r="I111" s="140"/>
-      <c r="J111" s="140"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="156" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112" t="s">
-        <v>142</v>
-      </c>
-      <c r="D112" s="79">
-        <f t="shared" si="8"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="E112" s="79">
-        <f t="shared" si="7"/>
-        <v>1.3</v>
-      </c>
-      <c r="F112" s="79">
-        <v>1.3</v>
       </c>
       <c r="G112" s="79"/>
       <c r="H112" s="157"/>
@@ -36277,99 +36287,143 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="156" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
         <v>54</v>
       </c>
       <c r="C113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D113" s="79">
-        <f t="shared" si="8"/>
-        <v>2.0999999999999996</v>
+        <f>E113*(1+$T$1)</f>
+        <v>1.9500000000000002</v>
       </c>
       <c r="E113" s="79">
-        <f t="shared" si="7"/>
-        <v>1.4</v>
+        <f>AVERAGE(F113:Q113)</f>
+        <v>1.3</v>
       </c>
       <c r="F113" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="G113" s="79">
         <v>1.3</v>
       </c>
+      <c r="G113" s="79"/>
       <c r="H113" s="157"/>
       <c r="I113" s="140"/>
       <c r="J113" s="140"/>
     </row>
-    <row r="114" spans="1:10">
-      <c r="D114" s="79" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E114" s="79" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F114" s="140"/>
-      <c r="G114" s="140"/>
-      <c r="H114" s="140"/>
+    <row r="114" spans="1:10" hidden="1">
+      <c r="A114" s="322" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" s="79">
+        <f>E114*(1+$T$1)</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="E114" s="79">
+        <f>AVERAGE(F114:Q114)</f>
+        <v>1.4</v>
+      </c>
+      <c r="F114" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="G114" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="H114" s="79"/>
       <c r="I114" s="140"/>
       <c r="J114" s="140"/>
     </row>
-    <row r="115" spans="1:10">
-      <c r="D115" s="79" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E115" s="79" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F115" s="140"/>
-      <c r="G115" s="140"/>
-      <c r="H115" s="140"/>
+    <row r="115" spans="1:10" hidden="1">
+      <c r="A115" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" s="79">
+        <f>E115*(1+$T$1)</f>
+        <v>2.625</v>
+      </c>
+      <c r="E115" s="79">
+        <f>AVERAGE(F115:Q115)</f>
+        <v>1.75</v>
+      </c>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79">
+        <v>1.75</v>
+      </c>
       <c r="I115" s="140"/>
       <c r="J115" s="140"/>
     </row>
-    <row r="116" spans="1:10">
-      <c r="D116" s="79" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E116" s="79" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F116" s="140"/>
-      <c r="G116" s="140"/>
-      <c r="H116" s="140"/>
+    <row r="116" spans="1:10" hidden="1">
+      <c r="A116" s="322" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="79">
+        <f>E116*(1+$T$1)</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="E116" s="79">
+        <f>AVERAGE(F116:Q116)</f>
+        <v>1.4</v>
+      </c>
+      <c r="F116" s="79"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="79">
+        <v>1.4</v>
+      </c>
       <c r="I116" s="140"/>
       <c r="J116" s="140"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="D117" s="79" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E117" s="79" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" t="s">
+        <v>146</v>
+      </c>
+      <c r="D117" s="79">
+        <f>E117*(1+$T$1)</f>
+        <v>2.25</v>
+      </c>
+      <c r="E117" s="79">
+        <f>AVERAGE(F117:Q117)</f>
+        <v>1.5</v>
       </c>
       <c r="F117" s="140"/>
       <c r="G117" s="140"/>
-      <c r="H117" s="140"/>
+      <c r="H117" s="79">
+        <v>1.5</v>
+      </c>
       <c r="I117" s="140"/>
       <c r="J117" s="140"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1">
       <c r="D118" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E118*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E118" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F118:Q118)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F118" s="140"/>
@@ -36378,13 +36432,13 @@
       <c r="I118" s="140"/>
       <c r="J118" s="140"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1">
       <c r="D119" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E119*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E119" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F119:Q119)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F119" s="140"/>
@@ -36393,13 +36447,13 @@
       <c r="I119" s="140"/>
       <c r="J119" s="140"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1">
       <c r="D120" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E120*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E120" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F120:Q120)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F120" s="140"/>
@@ -36408,13 +36462,13 @@
       <c r="I120" s="140"/>
       <c r="J120" s="140"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1">
       <c r="D121" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E121*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E121" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F121:Q121)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F121" s="140"/>
@@ -36423,13 +36477,13 @@
       <c r="I121" s="140"/>
       <c r="J121" s="140"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1">
       <c r="D122" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E122*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E122" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F122:Q122)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F122" s="140"/>
@@ -36438,13 +36492,13 @@
       <c r="I122" s="140"/>
       <c r="J122" s="140"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" hidden="1">
       <c r="D123" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E123*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E123" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F123:Q123)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F123" s="140"/>
@@ -36453,13 +36507,13 @@
       <c r="I123" s="140"/>
       <c r="J123" s="140"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" hidden="1">
       <c r="D124" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E124*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E124" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F124:Q124)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F124" s="140"/>
@@ -36468,13 +36522,13 @@
       <c r="I124" s="140"/>
       <c r="J124" s="140"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" hidden="1">
       <c r="D125" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E125*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E125" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F125:Q125)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F125" s="140"/>
@@ -36483,13 +36537,13 @@
       <c r="I125" s="140"/>
       <c r="J125" s="140"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" hidden="1">
       <c r="D126" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E126*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E126" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F126:Q126)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F126" s="140"/>
@@ -36498,13 +36552,13 @@
       <c r="I126" s="140"/>
       <c r="J126" s="140"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1">
       <c r="D127" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E127*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E127" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F127:Q127)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F127" s="140"/>
@@ -36513,13 +36567,13 @@
       <c r="I127" s="140"/>
       <c r="J127" s="140"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1">
       <c r="D128" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E128*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E128" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F128:Q128)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F128" s="140"/>
@@ -36528,13 +36582,13 @@
       <c r="I128" s="140"/>
       <c r="J128" s="140"/>
     </row>
-    <row r="129" spans="4:10">
+    <row r="129" spans="4:10" hidden="1">
       <c r="D129" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E129*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E129" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F129:Q129)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F129" s="140"/>
@@ -36543,13 +36597,13 @@
       <c r="I129" s="140"/>
       <c r="J129" s="140"/>
     </row>
-    <row r="130" spans="4:10">
+    <row r="130" spans="4:10" hidden="1">
       <c r="D130" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E130*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E130" s="79" t="e">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(F130:Q130)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F130" s="140"/>
@@ -36558,13 +36612,13 @@
       <c r="I130" s="140"/>
       <c r="J130" s="140"/>
     </row>
-    <row r="131" spans="4:10">
+    <row r="131" spans="4:10" hidden="1">
       <c r="D131" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E131*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E131" s="79" t="e">
-        <f t="shared" ref="E131:E162" si="9">AVERAGE(F131:Q131)</f>
+        <f>AVERAGE(F131:Q131)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F131" s="140"/>
@@ -36573,13 +36627,13 @@
       <c r="I131" s="140"/>
       <c r="J131" s="140"/>
     </row>
-    <row r="132" spans="4:10">
+    <row r="132" spans="4:10" hidden="1">
       <c r="D132" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E132*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E132" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F132:Q132)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F132" s="140"/>
@@ -36588,13 +36642,13 @@
       <c r="I132" s="140"/>
       <c r="J132" s="140"/>
     </row>
-    <row r="133" spans="4:10">
+    <row r="133" spans="4:10" hidden="1">
       <c r="D133" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E133*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E133" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F133:Q133)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F133" s="140"/>
@@ -36603,13 +36657,13 @@
       <c r="I133" s="140"/>
       <c r="J133" s="140"/>
     </row>
-    <row r="134" spans="4:10">
+    <row r="134" spans="4:10" hidden="1">
       <c r="D134" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E134*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E134" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F134:Q134)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F134" s="140"/>
@@ -36618,13 +36672,13 @@
       <c r="I134" s="140"/>
       <c r="J134" s="140"/>
     </row>
-    <row r="135" spans="4:10">
+    <row r="135" spans="4:10" hidden="1">
       <c r="D135" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E135*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E135" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F135:Q135)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F135" s="140"/>
@@ -36633,13 +36687,13 @@
       <c r="I135" s="140"/>
       <c r="J135" s="140"/>
     </row>
-    <row r="136" spans="4:10">
+    <row r="136" spans="4:10" hidden="1">
       <c r="D136" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E136*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E136" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F136:Q136)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F136" s="140"/>
@@ -36648,13 +36702,13 @@
       <c r="I136" s="140"/>
       <c r="J136" s="140"/>
     </row>
-    <row r="137" spans="4:10">
+    <row r="137" spans="4:10" hidden="1">
       <c r="D137" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E137*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E137" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F137:Q137)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F137" s="140"/>
@@ -36663,13 +36717,13 @@
       <c r="I137" s="140"/>
       <c r="J137" s="140"/>
     </row>
-    <row r="138" spans="4:10">
+    <row r="138" spans="4:10" hidden="1">
       <c r="D138" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E138*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E138" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F138:Q138)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F138" s="140"/>
@@ -36678,13 +36732,13 @@
       <c r="I138" s="140"/>
       <c r="J138" s="140"/>
     </row>
-    <row r="139" spans="4:10">
+    <row r="139" spans="4:10" hidden="1">
       <c r="D139" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E139*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E139" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F139:Q139)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F139" s="140"/>
@@ -36693,13 +36747,13 @@
       <c r="I139" s="140"/>
       <c r="J139" s="140"/>
     </row>
-    <row r="140" spans="4:10">
+    <row r="140" spans="4:10" hidden="1">
       <c r="D140" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E140*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E140" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F140:Q140)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F140" s="140"/>
@@ -36708,13 +36762,13 @@
       <c r="I140" s="140"/>
       <c r="J140" s="140"/>
     </row>
-    <row r="141" spans="4:10">
+    <row r="141" spans="4:10" hidden="1">
       <c r="D141" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E141*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E141" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F141:Q141)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F141" s="140"/>
@@ -36723,13 +36777,13 @@
       <c r="I141" s="140"/>
       <c r="J141" s="140"/>
     </row>
-    <row r="142" spans="4:10">
+    <row r="142" spans="4:10" hidden="1">
       <c r="D142" s="79" t="e">
-        <f t="shared" si="8"/>
+        <f>E142*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E142" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F142:Q142)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F142" s="140"/>
@@ -36738,13 +36792,13 @@
       <c r="I142" s="140"/>
       <c r="J142" s="140"/>
     </row>
-    <row r="143" spans="4:10">
+    <row r="143" spans="4:10" hidden="1">
       <c r="D143" s="79" t="e">
-        <f t="shared" ref="D143:D174" si="10">E143*(1+$T$1)</f>
+        <f>E143*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E143" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F143:Q143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F143" s="140"/>
@@ -36753,13 +36807,13 @@
       <c r="I143" s="140"/>
       <c r="J143" s="140"/>
     </row>
-    <row r="144" spans="4:10">
+    <row r="144" spans="4:10" hidden="1">
       <c r="D144" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E144*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E144" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F144:Q144)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F144" s="140"/>
@@ -36768,13 +36822,13 @@
       <c r="I144" s="140"/>
       <c r="J144" s="140"/>
     </row>
-    <row r="145" spans="4:10">
+    <row r="145" spans="4:10" hidden="1">
       <c r="D145" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E145*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E145" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F145:Q145)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F145" s="140"/>
@@ -36783,13 +36837,13 @@
       <c r="I145" s="140"/>
       <c r="J145" s="140"/>
     </row>
-    <row r="146" spans="4:10">
+    <row r="146" spans="4:10" hidden="1">
       <c r="D146" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E146*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E146" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F146:Q146)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F146" s="140"/>
@@ -36798,13 +36852,13 @@
       <c r="I146" s="140"/>
       <c r="J146" s="140"/>
     </row>
-    <row r="147" spans="4:10">
+    <row r="147" spans="4:10" hidden="1">
       <c r="D147" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E147*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E147" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F147:Q147)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F147" s="140"/>
@@ -36813,13 +36867,13 @@
       <c r="I147" s="140"/>
       <c r="J147" s="140"/>
     </row>
-    <row r="148" spans="4:10">
+    <row r="148" spans="4:10" hidden="1">
       <c r="D148" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E148*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E148" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F148:Q148)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F148" s="140"/>
@@ -36828,13 +36882,13 @@
       <c r="I148" s="140"/>
       <c r="J148" s="140"/>
     </row>
-    <row r="149" spans="4:10">
+    <row r="149" spans="4:10" hidden="1">
       <c r="D149" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E149*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E149" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F149:Q149)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F149" s="140"/>
@@ -36843,13 +36897,13 @@
       <c r="I149" s="140"/>
       <c r="J149" s="140"/>
     </row>
-    <row r="150" spans="4:10">
+    <row r="150" spans="4:10" hidden="1">
       <c r="D150" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E150*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E150" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F150:Q150)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F150" s="140"/>
@@ -36858,13 +36912,13 @@
       <c r="I150" s="140"/>
       <c r="J150" s="140"/>
     </row>
-    <row r="151" spans="4:10">
+    <row r="151" spans="4:10" hidden="1">
       <c r="D151" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E151*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E151" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F151:Q151)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F151" s="140"/>
@@ -36873,13 +36927,13 @@
       <c r="I151" s="140"/>
       <c r="J151" s="140"/>
     </row>
-    <row r="152" spans="4:10">
+    <row r="152" spans="4:10" hidden="1">
       <c r="D152" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E152*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E152" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F152:Q152)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F152" s="140"/>
@@ -36888,13 +36942,13 @@
       <c r="I152" s="140"/>
       <c r="J152" s="140"/>
     </row>
-    <row r="153" spans="4:10">
+    <row r="153" spans="4:10" hidden="1">
       <c r="D153" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E153*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E153" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F153:Q153)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F153" s="140"/>
@@ -36903,13 +36957,13 @@
       <c r="I153" s="140"/>
       <c r="J153" s="140"/>
     </row>
-    <row r="154" spans="4:10">
+    <row r="154" spans="4:10" hidden="1">
       <c r="D154" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E154*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E154" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F154:Q154)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F154" s="140"/>
@@ -36918,13 +36972,13 @@
       <c r="I154" s="140"/>
       <c r="J154" s="140"/>
     </row>
-    <row r="155" spans="4:10">
+    <row r="155" spans="4:10" hidden="1">
       <c r="D155" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E155*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E155" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F155:Q155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F155" s="140"/>
@@ -36933,13 +36987,13 @@
       <c r="I155" s="140"/>
       <c r="J155" s="140"/>
     </row>
-    <row r="156" spans="4:10">
+    <row r="156" spans="4:10" hidden="1">
       <c r="D156" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E156*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E156" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F156:Q156)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F156" s="140"/>
@@ -36948,13 +37002,13 @@
       <c r="I156" s="140"/>
       <c r="J156" s="140"/>
     </row>
-    <row r="157" spans="4:10">
+    <row r="157" spans="4:10" hidden="1">
       <c r="D157" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E157*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E157" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F157:Q157)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F157" s="140"/>
@@ -36963,13 +37017,13 @@
       <c r="I157" s="140"/>
       <c r="J157" s="140"/>
     </row>
-    <row r="158" spans="4:10">
+    <row r="158" spans="4:10" hidden="1">
       <c r="D158" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E158*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E158" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F158:Q158)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F158" s="140"/>
@@ -36978,13 +37032,13 @@
       <c r="I158" s="140"/>
       <c r="J158" s="140"/>
     </row>
-    <row r="159" spans="4:10">
+    <row r="159" spans="4:10" hidden="1">
       <c r="D159" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E159*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E159" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F159:Q159)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F159" s="140"/>
@@ -36993,13 +37047,13 @@
       <c r="I159" s="140"/>
       <c r="J159" s="140"/>
     </row>
-    <row r="160" spans="4:10">
+    <row r="160" spans="4:10" hidden="1">
       <c r="D160" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E160*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E160" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F160:Q160)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F160" s="140"/>
@@ -37008,13 +37062,13 @@
       <c r="I160" s="140"/>
       <c r="J160" s="140"/>
     </row>
-    <row r="161" spans="4:10">
+    <row r="161" spans="4:10" hidden="1">
       <c r="D161" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E161*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E161" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F161:Q161)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F161" s="140"/>
@@ -37023,13 +37077,13 @@
       <c r="I161" s="140"/>
       <c r="J161" s="140"/>
     </row>
-    <row r="162" spans="4:10">
+    <row r="162" spans="4:10" hidden="1">
       <c r="D162" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E162*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E162" s="79" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F162:Q162)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F162" s="140"/>
@@ -37038,13 +37092,13 @@
       <c r="I162" s="140"/>
       <c r="J162" s="140"/>
     </row>
-    <row r="163" spans="4:10">
+    <row r="163" spans="4:10" hidden="1">
       <c r="D163" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E163*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E163" s="79" t="e">
-        <f t="shared" ref="E163:E194" si="11">AVERAGE(F163:Q163)</f>
+        <f>AVERAGE(F163:Q163)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F163" s="140"/>
@@ -37053,13 +37107,13 @@
       <c r="I163" s="140"/>
       <c r="J163" s="140"/>
     </row>
-    <row r="164" spans="4:10">
+    <row r="164" spans="4:10" hidden="1">
       <c r="D164" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E164*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E164" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F164:Q164)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F164" s="140"/>
@@ -37068,13 +37122,13 @@
       <c r="I164" s="140"/>
       <c r="J164" s="140"/>
     </row>
-    <row r="165" spans="4:10">
+    <row r="165" spans="4:10" hidden="1">
       <c r="D165" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E165*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E165" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F165:Q165)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F165" s="140"/>
@@ -37083,13 +37137,13 @@
       <c r="I165" s="140"/>
       <c r="J165" s="140"/>
     </row>
-    <row r="166" spans="4:10">
+    <row r="166" spans="4:10" hidden="1">
       <c r="D166" s="79" t="e">
-        <f t="shared" si="10"/>
+        <f>E166*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E166" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F166:Q166)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F166" s="140"/>
@@ -37098,13 +37152,13 @@
       <c r="I166" s="140"/>
       <c r="J166" s="140"/>
     </row>
-    <row r="167" spans="4:10">
+    <row r="167" spans="4:10" hidden="1">
       <c r="D167" s="79" t="e">
-        <f t="shared" ref="D167:D198" si="12">E167*(1+$O$1)</f>
+        <f>E167*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E167" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F167:Q167)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F167" s="140"/>
@@ -37113,13 +37167,13 @@
       <c r="I167" s="140"/>
       <c r="J167" s="140"/>
     </row>
-    <row r="168" spans="4:10">
+    <row r="168" spans="4:10" hidden="1">
       <c r="D168" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E168*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E168" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F168:Q168)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F168" s="140"/>
@@ -37128,13 +37182,13 @@
       <c r="I168" s="140"/>
       <c r="J168" s="140"/>
     </row>
-    <row r="169" spans="4:10">
+    <row r="169" spans="4:10" hidden="1">
       <c r="D169" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E169*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E169" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F169:Q169)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F169" s="140"/>
@@ -37143,13 +37197,13 @@
       <c r="I169" s="140"/>
       <c r="J169" s="140"/>
     </row>
-    <row r="170" spans="4:10">
+    <row r="170" spans="4:10" hidden="1">
       <c r="D170" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E170*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E170" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F170:Q170)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F170" s="140"/>
@@ -37158,13 +37212,13 @@
       <c r="I170" s="140"/>
       <c r="J170" s="140"/>
     </row>
-    <row r="171" spans="4:10">
+    <row r="171" spans="4:10" hidden="1">
       <c r="D171" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E171*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E171" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F171:Q171)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F171" s="140"/>
@@ -37173,13 +37227,13 @@
       <c r="I171" s="140"/>
       <c r="J171" s="140"/>
     </row>
-    <row r="172" spans="4:10">
+    <row r="172" spans="4:10" hidden="1">
       <c r="D172" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E172*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E172" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F172:Q172)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F172" s="140"/>
@@ -37188,13 +37242,13 @@
       <c r="I172" s="140"/>
       <c r="J172" s="140"/>
     </row>
-    <row r="173" spans="4:10">
+    <row r="173" spans="4:10" hidden="1">
       <c r="D173" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E173*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E173" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F173:Q173)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F173" s="140"/>
@@ -37203,13 +37257,13 @@
       <c r="I173" s="140"/>
       <c r="J173" s="140"/>
     </row>
-    <row r="174" spans="4:10">
+    <row r="174" spans="4:10" hidden="1">
       <c r="D174" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E174*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E174" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F174:Q174)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F174" s="140"/>
@@ -37218,13 +37272,13 @@
       <c r="I174" s="140"/>
       <c r="J174" s="140"/>
     </row>
-    <row r="175" spans="4:10">
+    <row r="175" spans="4:10" hidden="1">
       <c r="D175" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E175*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E175" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F175:Q175)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F175" s="140"/>
@@ -37233,13 +37287,13 @@
       <c r="I175" s="140"/>
       <c r="J175" s="140"/>
     </row>
-    <row r="176" spans="4:10">
+    <row r="176" spans="4:10" hidden="1">
       <c r="D176" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E176*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E176" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F176:Q176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F176" s="140"/>
@@ -37248,13 +37302,13 @@
       <c r="I176" s="140"/>
       <c r="J176" s="140"/>
     </row>
-    <row r="177" spans="4:10">
+    <row r="177" spans="4:10" hidden="1">
       <c r="D177" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E177*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E177" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F177:Q177)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F177" s="140"/>
@@ -37263,13 +37317,13 @@
       <c r="I177" s="140"/>
       <c r="J177" s="140"/>
     </row>
-    <row r="178" spans="4:10">
+    <row r="178" spans="4:10" hidden="1">
       <c r="D178" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E178*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E178" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F178:Q178)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F178" s="140"/>
@@ -37278,13 +37332,13 @@
       <c r="I178" s="140"/>
       <c r="J178" s="140"/>
     </row>
-    <row r="179" spans="4:10">
+    <row r="179" spans="4:10" hidden="1">
       <c r="D179" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E179*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E179" s="79" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F179:Q179)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F179" s="140"/>
@@ -37293,13 +37347,13 @@
       <c r="I179" s="140"/>
       <c r="J179" s="140"/>
     </row>
-    <row r="180" spans="4:10">
+    <row r="180" spans="4:10" hidden="1">
       <c r="D180" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E180*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E180" s="140" t="e">
-        <f t="shared" si="11"/>
+      <c r="E180" s="79" t="e">
+        <f>AVERAGE(F180:Q180)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F180" s="140"/>
@@ -37308,13 +37362,13 @@
       <c r="I180" s="140"/>
       <c r="J180" s="140"/>
     </row>
-    <row r="181" spans="4:10">
+    <row r="181" spans="4:10" hidden="1">
       <c r="D181" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E181*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E181" s="140" t="e">
-        <f t="shared" si="11"/>
+      <c r="E181" s="79" t="e">
+        <f>AVERAGE(F181:Q181)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F181" s="140"/>
@@ -37323,13 +37377,13 @@
       <c r="I181" s="140"/>
       <c r="J181" s="140"/>
     </row>
-    <row r="182" spans="4:10">
+    <row r="182" spans="4:10" hidden="1">
       <c r="D182" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E182*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E182" s="140" t="e">
-        <f t="shared" si="11"/>
+      <c r="E182" s="79" t="e">
+        <f>AVERAGE(F182:Q182)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F182" s="140"/>
@@ -37338,13 +37392,13 @@
       <c r="I182" s="140"/>
       <c r="J182" s="140"/>
     </row>
-    <row r="183" spans="4:10">
+    <row r="183" spans="4:10" hidden="1">
       <c r="D183" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E183*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E183" s="140" t="e">
-        <f t="shared" si="11"/>
+      <c r="E183" s="79" t="e">
+        <f>AVERAGE(F183:Q183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F183" s="140"/>
@@ -37353,13 +37407,13 @@
       <c r="I183" s="140"/>
       <c r="J183" s="140"/>
     </row>
-    <row r="184" spans="4:10">
+    <row r="184" spans="4:10" hidden="1">
       <c r="D184" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E184*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E184" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F184:Q184)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F184" s="140"/>
@@ -37368,13 +37422,13 @@
       <c r="I184" s="140"/>
       <c r="J184" s="140"/>
     </row>
-    <row r="185" spans="4:10">
+    <row r="185" spans="4:10" hidden="1">
       <c r="D185" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E185*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E185" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F185:Q185)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F185" s="140"/>
@@ -37383,13 +37437,13 @@
       <c r="I185" s="140"/>
       <c r="J185" s="140"/>
     </row>
-    <row r="186" spans="4:10">
+    <row r="186" spans="4:10" hidden="1">
       <c r="D186" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E186*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E186" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F186:Q186)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F186" s="140"/>
@@ -37398,13 +37452,13 @@
       <c r="I186" s="140"/>
       <c r="J186" s="140"/>
     </row>
-    <row r="187" spans="4:10">
+    <row r="187" spans="4:10" hidden="1">
       <c r="D187" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E187*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E187" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F187:Q187)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F187" s="140"/>
@@ -37413,13 +37467,13 @@
       <c r="I187" s="140"/>
       <c r="J187" s="140"/>
     </row>
-    <row r="188" spans="4:10">
+    <row r="188" spans="4:10" hidden="1">
       <c r="D188" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E188*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E188" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F188:Q188)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F188" s="140"/>
@@ -37428,13 +37482,13 @@
       <c r="I188" s="140"/>
       <c r="J188" s="140"/>
     </row>
-    <row r="189" spans="4:10">
+    <row r="189" spans="4:10" hidden="1">
       <c r="D189" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E189*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E189" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F189:Q189)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F189" s="140"/>
@@ -37443,13 +37497,13 @@
       <c r="I189" s="140"/>
       <c r="J189" s="140"/>
     </row>
-    <row r="190" spans="4:10">
+    <row r="190" spans="4:10" hidden="1">
       <c r="D190" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E190*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E190" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F190:Q190)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F190" s="140"/>
@@ -37458,13 +37512,13 @@
       <c r="I190" s="140"/>
       <c r="J190" s="140"/>
     </row>
-    <row r="191" spans="4:10">
+    <row r="191" spans="4:10" hidden="1">
       <c r="D191" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E191*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E191" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F191:Q191)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F191" s="140"/>
@@ -37473,13 +37527,13 @@
       <c r="I191" s="140"/>
       <c r="J191" s="140"/>
     </row>
-    <row r="192" spans="4:10">
+    <row r="192" spans="4:10" hidden="1">
       <c r="D192" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E192*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E192" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F192:Q192)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F192" s="140"/>
@@ -37488,13 +37542,13 @@
       <c r="I192" s="140"/>
       <c r="J192" s="140"/>
     </row>
-    <row r="193" spans="4:10">
+    <row r="193" spans="4:10" hidden="1">
       <c r="D193" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E193*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E193" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F193:Q193)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F193" s="140"/>
@@ -37503,13 +37557,13 @@
       <c r="I193" s="140"/>
       <c r="J193" s="140"/>
     </row>
-    <row r="194" spans="4:10">
+    <row r="194" spans="4:10" hidden="1">
       <c r="D194" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E194*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E194" s="140" t="e">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(F194:Q194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F194" s="140"/>
@@ -37518,13 +37572,13 @@
       <c r="I194" s="140"/>
       <c r="J194" s="140"/>
     </row>
-    <row r="195" spans="4:10">
+    <row r="195" spans="4:10" hidden="1">
       <c r="D195" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E195*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E195" s="140" t="e">
-        <f t="shared" ref="E195:E226" si="13">AVERAGE(F195:Q195)</f>
+        <f>AVERAGE(F195:Q195)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F195" s="140"/>
@@ -37533,13 +37587,13 @@
       <c r="I195" s="140"/>
       <c r="J195" s="140"/>
     </row>
-    <row r="196" spans="4:10">
+    <row r="196" spans="4:10" hidden="1">
       <c r="D196" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E196*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E196" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F196:Q196)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F196" s="140"/>
@@ -37548,13 +37602,13 @@
       <c r="I196" s="140"/>
       <c r="J196" s="140"/>
     </row>
-    <row r="197" spans="4:10">
+    <row r="197" spans="4:10" hidden="1">
       <c r="D197" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E197*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E197" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F197:Q197)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F197" s="140"/>
@@ -37563,13 +37617,13 @@
       <c r="I197" s="140"/>
       <c r="J197" s="140"/>
     </row>
-    <row r="198" spans="4:10">
+    <row r="198" spans="4:10" hidden="1">
       <c r="D198" s="79" t="e">
-        <f t="shared" si="12"/>
+        <f>E198*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E198" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F198:Q198)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F198" s="140"/>
@@ -37578,13 +37632,13 @@
       <c r="I198" s="140"/>
       <c r="J198" s="140"/>
     </row>
-    <row r="199" spans="4:10">
+    <row r="199" spans="4:10" hidden="1">
       <c r="D199" s="79" t="e">
-        <f t="shared" ref="D199:D230" si="14">E199*(1+$O$1)</f>
+        <f>E199*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E199" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F199:Q199)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F199" s="140"/>
@@ -37593,13 +37647,13 @@
       <c r="I199" s="140"/>
       <c r="J199" s="140"/>
     </row>
-    <row r="200" spans="4:10">
+    <row r="200" spans="4:10" hidden="1">
       <c r="D200" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E200*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E200" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F200:Q200)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F200" s="140"/>
@@ -37608,13 +37662,13 @@
       <c r="I200" s="140"/>
       <c r="J200" s="140"/>
     </row>
-    <row r="201" spans="4:10">
+    <row r="201" spans="4:10" hidden="1">
       <c r="D201" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E201*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E201" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F201:Q201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F201" s="140"/>
@@ -37623,13 +37677,13 @@
       <c r="I201" s="140"/>
       <c r="J201" s="140"/>
     </row>
-    <row r="202" spans="4:10">
+    <row r="202" spans="4:10" hidden="1">
       <c r="D202" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E202*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E202" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F202:Q202)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F202" s="140"/>
@@ -37638,13 +37692,13 @@
       <c r="I202" s="140"/>
       <c r="J202" s="140"/>
     </row>
-    <row r="203" spans="4:10">
+    <row r="203" spans="4:10" hidden="1">
       <c r="D203" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E203*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E203" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F203:Q203)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F203" s="140"/>
@@ -37653,13 +37707,13 @@
       <c r="I203" s="140"/>
       <c r="J203" s="140"/>
     </row>
-    <row r="204" spans="4:10">
+    <row r="204" spans="4:10" hidden="1">
       <c r="D204" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E204*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E204" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F204:Q204)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F204" s="140"/>
@@ -37668,13 +37722,13 @@
       <c r="I204" s="140"/>
       <c r="J204" s="140"/>
     </row>
-    <row r="205" spans="4:10">
+    <row r="205" spans="4:10" hidden="1">
       <c r="D205" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E205*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E205" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F205:Q205)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F205" s="140"/>
@@ -37683,13 +37737,13 @@
       <c r="I205" s="140"/>
       <c r="J205" s="140"/>
     </row>
-    <row r="206" spans="4:10">
+    <row r="206" spans="4:10" hidden="1">
       <c r="D206" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E206*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E206" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F206:Q206)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F206" s="140"/>
@@ -37698,13 +37752,13 @@
       <c r="I206" s="140"/>
       <c r="J206" s="140"/>
     </row>
-    <row r="207" spans="4:10">
+    <row r="207" spans="4:10" hidden="1">
       <c r="D207" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E207*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E207" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F207:Q207)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F207" s="140"/>
@@ -37713,13 +37767,13 @@
       <c r="I207" s="140"/>
       <c r="J207" s="140"/>
     </row>
-    <row r="208" spans="4:10">
+    <row r="208" spans="4:10" hidden="1">
       <c r="D208" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E208*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E208" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F208:Q208)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F208" s="140"/>
@@ -37728,13 +37782,13 @@
       <c r="I208" s="140"/>
       <c r="J208" s="140"/>
     </row>
-    <row r="209" spans="4:10">
+    <row r="209" spans="4:10" hidden="1">
       <c r="D209" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E209*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E209" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F209:Q209)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F209" s="140"/>
@@ -37743,13 +37797,13 @@
       <c r="I209" s="140"/>
       <c r="J209" s="140"/>
     </row>
-    <row r="210" spans="4:10">
+    <row r="210" spans="4:10" hidden="1">
       <c r="D210" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E210*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E210" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F210:Q210)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F210" s="140"/>
@@ -37758,13 +37812,13 @@
       <c r="I210" s="140"/>
       <c r="J210" s="140"/>
     </row>
-    <row r="211" spans="4:10">
+    <row r="211" spans="4:10" hidden="1">
       <c r="D211" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E211*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E211" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F211:Q211)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F211" s="140"/>
@@ -37773,13 +37827,13 @@
       <c r="I211" s="140"/>
       <c r="J211" s="140"/>
     </row>
-    <row r="212" spans="4:10">
+    <row r="212" spans="4:10" hidden="1">
       <c r="D212" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E212*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E212" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F212:Q212)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F212" s="140"/>
@@ -37788,13 +37842,13 @@
       <c r="I212" s="140"/>
       <c r="J212" s="140"/>
     </row>
-    <row r="213" spans="4:10">
+    <row r="213" spans="4:10" hidden="1">
       <c r="D213" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E213*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E213" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F213:Q213)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F213" s="140"/>
@@ -37803,13 +37857,13 @@
       <c r="I213" s="140"/>
       <c r="J213" s="140"/>
     </row>
-    <row r="214" spans="4:10">
+    <row r="214" spans="4:10" hidden="1">
       <c r="D214" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E214*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E214" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F214:Q214)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F214" s="140"/>
@@ -37818,13 +37872,13 @@
       <c r="I214" s="140"/>
       <c r="J214" s="140"/>
     </row>
-    <row r="215" spans="4:10">
+    <row r="215" spans="4:10" hidden="1">
       <c r="D215" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E215*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E215" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F215:Q215)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F215" s="140"/>
@@ -37833,13 +37887,13 @@
       <c r="I215" s="140"/>
       <c r="J215" s="140"/>
     </row>
-    <row r="216" spans="4:10">
+    <row r="216" spans="4:10" hidden="1">
       <c r="D216" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E216*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E216" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F216:Q216)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F216" s="140"/>
@@ -37848,13 +37902,13 @@
       <c r="I216" s="140"/>
       <c r="J216" s="140"/>
     </row>
-    <row r="217" spans="4:10">
+    <row r="217" spans="4:10" hidden="1">
       <c r="D217" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E217*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E217" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F217:Q217)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F217" s="140"/>
@@ -37863,13 +37917,13 @@
       <c r="I217" s="140"/>
       <c r="J217" s="140"/>
     </row>
-    <row r="218" spans="4:10">
+    <row r="218" spans="4:10" hidden="1">
       <c r="D218" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E218*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E218" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F218:Q218)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F218" s="140"/>
@@ -37878,13 +37932,13 @@
       <c r="I218" s="140"/>
       <c r="J218" s="140"/>
     </row>
-    <row r="219" spans="4:10">
+    <row r="219" spans="4:10" hidden="1">
       <c r="D219" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E219*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E219" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F219:Q219)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F219" s="140"/>
@@ -37893,13 +37947,13 @@
       <c r="I219" s="140"/>
       <c r="J219" s="140"/>
     </row>
-    <row r="220" spans="4:10">
+    <row r="220" spans="4:10" hidden="1">
       <c r="D220" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E220*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E220" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F220:Q220)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F220" s="140"/>
@@ -37908,13 +37962,13 @@
       <c r="I220" s="140"/>
       <c r="J220" s="140"/>
     </row>
-    <row r="221" spans="4:10">
+    <row r="221" spans="4:10" hidden="1">
       <c r="D221" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E221*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E221" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F221:Q221)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F221" s="140"/>
@@ -37923,13 +37977,13 @@
       <c r="I221" s="140"/>
       <c r="J221" s="140"/>
     </row>
-    <row r="222" spans="4:10">
+    <row r="222" spans="4:10" hidden="1">
       <c r="D222" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E222*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E222" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F222:Q222)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F222" s="140"/>
@@ -37938,13 +37992,13 @@
       <c r="I222" s="140"/>
       <c r="J222" s="140"/>
     </row>
-    <row r="223" spans="4:10">
+    <row r="223" spans="4:10" hidden="1">
       <c r="D223" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E223*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E223" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F223:Q223)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F223" s="140"/>
@@ -37953,13 +38007,13 @@
       <c r="I223" s="140"/>
       <c r="J223" s="140"/>
     </row>
-    <row r="224" spans="4:10">
+    <row r="224" spans="4:10" hidden="1">
       <c r="D224" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E224*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E224" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F224:Q224)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F224" s="140"/>
@@ -37968,13 +38022,13 @@
       <c r="I224" s="140"/>
       <c r="J224" s="140"/>
     </row>
-    <row r="225" spans="4:10">
+    <row r="225" spans="4:10" hidden="1">
       <c r="D225" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E225*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E225" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F225:Q225)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F225" s="140"/>
@@ -37983,13 +38037,13 @@
       <c r="I225" s="140"/>
       <c r="J225" s="140"/>
     </row>
-    <row r="226" spans="4:10">
+    <row r="226" spans="4:10" hidden="1">
       <c r="D226" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E226*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E226" s="140" t="e">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(F226:Q226)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F226" s="140"/>
@@ -37998,13 +38052,13 @@
       <c r="I226" s="140"/>
       <c r="J226" s="140"/>
     </row>
-    <row r="227" spans="4:10">
+    <row r="227" spans="4:10" hidden="1">
       <c r="D227" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E227*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E227" s="140" t="e">
-        <f t="shared" ref="E227:E258" si="15">AVERAGE(F227:Q227)</f>
+        <f>AVERAGE(F227:Q227)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F227" s="140"/>
@@ -38013,13 +38067,13 @@
       <c r="I227" s="140"/>
       <c r="J227" s="140"/>
     </row>
-    <row r="228" spans="4:10">
+    <row r="228" spans="4:10" hidden="1">
       <c r="D228" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E228*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E228" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F228:Q228)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F228" s="140"/>
@@ -38028,13 +38082,13 @@
       <c r="I228" s="140"/>
       <c r="J228" s="140"/>
     </row>
-    <row r="229" spans="4:10">
+    <row r="229" spans="4:10" hidden="1">
       <c r="D229" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E229*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E229" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F229:Q229)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F229" s="140"/>
@@ -38043,13 +38097,13 @@
       <c r="I229" s="140"/>
       <c r="J229" s="140"/>
     </row>
-    <row r="230" spans="4:10">
+    <row r="230" spans="4:10" hidden="1">
       <c r="D230" s="79" t="e">
-        <f t="shared" si="14"/>
+        <f>E230*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E230" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F230:Q230)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F230" s="140"/>
@@ -38058,13 +38112,13 @@
       <c r="I230" s="140"/>
       <c r="J230" s="140"/>
     </row>
-    <row r="231" spans="4:10">
+    <row r="231" spans="4:10" hidden="1">
       <c r="D231" s="79" t="e">
-        <f t="shared" ref="D231:D262" si="16">E231*(1+$O$1)</f>
+        <f>E231*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E231" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F231:Q231)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F231" s="140"/>
@@ -38073,13 +38127,13 @@
       <c r="I231" s="140"/>
       <c r="J231" s="140"/>
     </row>
-    <row r="232" spans="4:10">
+    <row r="232" spans="4:10" hidden="1">
       <c r="D232" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E232*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E232" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F232:Q232)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F232" s="140"/>
@@ -38088,13 +38142,13 @@
       <c r="I232" s="140"/>
       <c r="J232" s="140"/>
     </row>
-    <row r="233" spans="4:10">
+    <row r="233" spans="4:10" hidden="1">
       <c r="D233" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E233*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E233" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F233:Q233)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F233" s="140"/>
@@ -38103,13 +38157,13 @@
       <c r="I233" s="140"/>
       <c r="J233" s="140"/>
     </row>
-    <row r="234" spans="4:10">
+    <row r="234" spans="4:10" hidden="1">
       <c r="D234" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E234*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E234" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F234:Q234)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F234" s="140"/>
@@ -38118,13 +38172,13 @@
       <c r="I234" s="140"/>
       <c r="J234" s="140"/>
     </row>
-    <row r="235" spans="4:10">
+    <row r="235" spans="4:10" hidden="1">
       <c r="D235" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E235*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E235" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F235:Q235)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F235" s="140"/>
@@ -38133,13 +38187,13 @@
       <c r="I235" s="140"/>
       <c r="J235" s="140"/>
     </row>
-    <row r="236" spans="4:10">
+    <row r="236" spans="4:10" hidden="1">
       <c r="D236" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E236*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E236" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F236:Q236)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F236" s="140"/>
@@ -38148,13 +38202,13 @@
       <c r="I236" s="140"/>
       <c r="J236" s="140"/>
     </row>
-    <row r="237" spans="4:10">
+    <row r="237" spans="4:10" hidden="1">
       <c r="D237" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E237*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E237" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F237:Q237)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F237" s="140"/>
@@ -38163,13 +38217,13 @@
       <c r="I237" s="140"/>
       <c r="J237" s="140"/>
     </row>
-    <row r="238" spans="4:10">
+    <row r="238" spans="4:10" hidden="1">
       <c r="D238" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E238*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E238" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F238:Q238)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F238" s="140"/>
@@ -38178,13 +38232,13 @@
       <c r="I238" s="140"/>
       <c r="J238" s="140"/>
     </row>
-    <row r="239" spans="4:10">
+    <row r="239" spans="4:10" hidden="1">
       <c r="D239" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E239*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E239" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F239:Q239)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F239" s="140"/>
@@ -38193,13 +38247,13 @@
       <c r="I239" s="140"/>
       <c r="J239" s="140"/>
     </row>
-    <row r="240" spans="4:10">
+    <row r="240" spans="4:10" hidden="1">
       <c r="D240" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E240*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E240" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F240:Q240)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F240" s="140"/>
@@ -38208,13 +38262,13 @@
       <c r="I240" s="140"/>
       <c r="J240" s="140"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" hidden="1">
       <c r="D241" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E241*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E241" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F241:Q241)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F241" s="140"/>
@@ -38223,13 +38277,13 @@
       <c r="I241" s="140"/>
       <c r="J241" s="140"/>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" hidden="1">
       <c r="D242" s="79" t="e">
-        <f t="shared" si="16"/>
+        <f>E242*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E242" s="140" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(F242:Q242)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F242" s="140"/>
@@ -38238,107 +38292,65 @@
       <c r="I242" s="140"/>
       <c r="J242" s="140"/>
     </row>
-    <row r="243" spans="1:10">
-      <c r="A243" t="s">
-        <v>49</v>
-      </c>
-      <c r="B243" t="s">
-        <v>54</v>
-      </c>
-      <c r="C243" t="s">
-        <v>144</v>
-      </c>
-      <c r="D243" s="79">
-        <f>E243*(1+$T$1)</f>
-        <v>2.625</v>
-      </c>
-      <c r="E243" s="79">
-        <f t="shared" si="15"/>
-        <v>1.75</v>
-      </c>
-      <c r="F243" s="79"/>
-      <c r="G243" s="79"/>
-      <c r="H243" s="79">
-        <v>1.75</v>
-      </c>
+    <row r="243" spans="1:10" hidden="1">
+      <c r="D243" s="79" t="e">
+        <f>E243*(1+$O$1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E243" s="140" t="e">
+        <f>AVERAGE(F243:Q243)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F243" s="140"/>
+      <c r="G243" s="140"/>
+      <c r="H243" s="140"/>
       <c r="I243" s="140"/>
       <c r="J243" s="140"/>
     </row>
-    <row r="244" spans="1:10">
-      <c r="A244" s="156" t="s">
-        <v>58</v>
-      </c>
-      <c r="B244" t="s">
-        <v>34</v>
-      </c>
-      <c r="C244" t="s">
-        <v>71</v>
-      </c>
+    <row r="244" spans="1:10" hidden="1">
+      <c r="A244" s="156"/>
       <c r="D244" s="79" t="e">
         <f>E244*(1+$O$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E244" s="79">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="F244" s="79"/>
-      <c r="G244" s="79"/>
-      <c r="H244" s="157">
-        <v>2</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E244" s="140" t="e">
+        <f>AVERAGE(F244:Q244)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F244" s="140"/>
+      <c r="G244" s="140"/>
+      <c r="H244" s="157"/>
       <c r="I244" s="140"/>
       <c r="J244" s="140"/>
     </row>
-    <row r="245" spans="1:10">
-      <c r="A245" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="B245" t="s">
-        <v>54</v>
-      </c>
-      <c r="C245" t="s">
-        <v>145</v>
-      </c>
-      <c r="D245" s="79">
-        <f>E245*(1+$T$1)</f>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="E245" s="79">
-        <f t="shared" si="15"/>
-        <v>1.4</v>
-      </c>
-      <c r="F245" s="79"/>
-      <c r="G245" s="79"/>
-      <c r="H245" s="157">
-        <v>1.4</v>
-      </c>
+    <row r="245" spans="1:10" hidden="1">
+      <c r="A245" s="156"/>
+      <c r="D245" s="79" t="e">
+        <f>E245*(1+$O$1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E245" s="140" t="e">
+        <f>AVERAGE(F245:Q245)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F245" s="140"/>
+      <c r="G245" s="140"/>
+      <c r="H245" s="157"/>
       <c r="I245" s="140"/>
       <c r="J245" s="140"/>
     </row>
-    <row r="246" spans="1:10">
-      <c r="A246" t="s">
-        <v>121</v>
-      </c>
-      <c r="B246" t="s">
-        <v>54</v>
-      </c>
-      <c r="C246" t="s">
-        <v>146</v>
-      </c>
-      <c r="D246" s="79">
-        <f>E246*(1+$T$1)</f>
-        <v>2.25</v>
-      </c>
-      <c r="E246" s="79">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+    <row r="246" spans="1:10" hidden="1">
+      <c r="D246" s="79" t="e">
+        <f>E246*(1+$O$1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E246" s="140" t="e">
+        <f>AVERAGE(F246:Q246)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F246" s="140"/>
       <c r="G246" s="140"/>
-      <c r="H246" s="79">
-        <v>1.5</v>
-      </c>
+      <c r="H246" s="140"/>
       <c r="I246" s="140"/>
       <c r="J246" s="140"/>
     </row>

--- a/data/CANONICAL Bouquet Recipe Master Sheet.xlsx
+++ b/data/CANONICAL Bouquet Recipe Master Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Documents/Sweet Piedmont/Offerings/Software and Code/bouquet-blueprint-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5182C39-71AB-1E42-B095-BB8790072E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7302CB7-6786-634A-A41C-CDF1B8CD2607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="760" windowWidth="29500" windowHeight="21580" firstSheet="1" activeTab="1" xr2:uid="{835A2F5B-2282-E345-9D43-16C3FBECA701}"/>
   </bookViews>
@@ -33241,7 +33241,7 @@
   <dimension ref="A1:T246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/data/CANONICAL Bouquet Recipe Master Sheet.xlsx
+++ b/data/CANONICAL Bouquet Recipe Master Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Documents/Sweet Piedmont/Offerings/Software and Code/bouquet-blueprint-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083433DE-08A7-0845-ACCA-1BA8DE43E151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA0657-F591-2A4E-A033-3D776C117237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="760" windowWidth="29500" windowHeight="21580" firstSheet="1" activeTab="1" xr2:uid="{835A2F5B-2282-E345-9D43-16C3FBECA701}"/>
+    <workbookView xWindow="3640" yWindow="760" windowWidth="29500" windowHeight="21580" firstSheet="1" activeTab="1" xr2:uid="{835A2F5B-2282-E345-9D43-16C3FBECA701}"/>
   </bookViews>
   <sheets>
     <sheet name="IMPT INFO" sheetId="30" r:id="rId1"/>
@@ -520,7 +520,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId27"/>
+    <pivotCache cacheId="3" r:id="rId27"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4382,12 +4382,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4409,10 +4403,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4421,14 +4418,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4436,14 +4436,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4464,9 +4467,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10043,7 +10043,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2658901-0CBE-9C4B-BFF5-CAD078317D01}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2658901-0CBE-9C4B-BFF5-CAD078317D01}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -10312,7 +10312,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B78D5962-5DD2-2E45-9817-5CEF79A2470C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B78D5962-5DD2-2E45-9817-5CEF79A2470C}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -10703,7 +10703,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7AE58DE-C14F-5241-BCB3-1D6E88366DE3}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7AE58DE-C14F-5241-BCB3-1D6E88366DE3}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -11109,7 +11109,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85A6AB1C-7E0E-B54F-8BC1-2661D91D27AD}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85A6AB1C-7E0E-B54F-8BC1-2661D91D27AD}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -11495,7 +11495,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{63FB889B-362F-FA4D-9D4D-A49BD91E0CC2}" name="Table31615" displayName="Table31615" ref="A1:J246" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141" tableBorderDxfId="140" headerRowCellStyle="Currency" dataCellStyle="Currency">
-  <autoFilter ref="A1:J246" xr:uid="{63FB889B-362F-FA4D-9D4D-A49BD91E0CC2}"/>
+  <autoFilter ref="A1:J246" xr:uid="{63FB889B-362F-FA4D-9D4D-A49BD91E0CC2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Early Spring"/>
+        <filter val="Early Spring, Late Spring"/>
+        <filter val="Early Spring, Late Spring, Summer/Fall"/>
+        <filter val="Early Spring, Summer/Fall"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J246">
     <sortCondition ref="B1:B246"/>
   </sortState>
@@ -30090,16 +30099,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33233,8 +33242,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E252" sqref="E252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -33383,7 +33392,7 @@
       <c r="I4" s="140"/>
       <c r="J4" s="140"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" hidden="1">
       <c r="A5" t="s">
         <v>895</v>
       </c>
@@ -33409,7 +33418,7 @@
       <c r="I5" s="140"/>
       <c r="J5" s="140"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" hidden="1">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -33435,7 +33444,7 @@
       <c r="I6" s="140"/>
       <c r="J6" s="140"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" hidden="1">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -33461,7 +33470,7 @@
       <c r="I7" s="140"/>
       <c r="J7" s="140"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" hidden="1">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -33487,7 +33496,7 @@
       <c r="I8" s="140"/>
       <c r="J8" s="140"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" hidden="1">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -33515,7 +33524,7 @@
       <c r="I9" s="140"/>
       <c r="J9" s="140"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" hidden="1">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -33543,7 +33552,7 @@
       <c r="I10" s="140"/>
       <c r="J10" s="140"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" hidden="1">
       <c r="A11" s="156" t="s">
         <v>57</v>
       </c>
@@ -33571,7 +33580,7 @@
       <c r="I11" s="140"/>
       <c r="J11" s="140"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" hidden="1">
       <c r="A12" s="156" t="s">
         <v>57</v>
       </c>
@@ -33599,7 +33608,7 @@
       <c r="I12" s="140"/>
       <c r="J12" s="140"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" hidden="1">
       <c r="A13" s="156" t="s">
         <v>57</v>
       </c>
@@ -33761,7 +33770,7 @@
       <c r="I18" s="140"/>
       <c r="J18" s="140"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="156" t="s">
         <v>57</v>
       </c>
@@ -33789,7 +33798,7 @@
       <c r="I19" s="140"/>
       <c r="J19" s="140"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="156" t="s">
         <v>57</v>
       </c>
@@ -33817,7 +33826,7 @@
       <c r="I20" s="140"/>
       <c r="J20" s="140"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="156" t="s">
         <v>57</v>
       </c>
@@ -33843,7 +33852,7 @@
       <c r="I21" s="140"/>
       <c r="J21" s="140"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="156" t="s">
         <v>895</v>
       </c>
@@ -33869,7 +33878,7 @@
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="156" t="s">
         <v>895</v>
       </c>
@@ -33897,7 +33906,7 @@
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="156" t="s">
         <v>895</v>
       </c>
@@ -33923,7 +33932,7 @@
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="156" t="s">
         <v>895</v>
       </c>
@@ -33951,7 +33960,7 @@
       <c r="I25" s="140"/>
       <c r="J25" s="140"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="156" t="s">
         <v>895</v>
       </c>
@@ -33977,7 +33986,7 @@
       <c r="I26" s="140"/>
       <c r="J26" s="140"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="156" t="s">
         <v>145</v>
       </c>
@@ -34007,7 +34016,7 @@
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="156" t="s">
         <v>145</v>
       </c>
@@ -34033,7 +34042,7 @@
       <c r="I28" s="140"/>
       <c r="J28" s="140"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="156" t="s">
         <v>145</v>
       </c>
@@ -34059,7 +34068,7 @@
       <c r="I29" s="140"/>
       <c r="J29" s="140"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="156" t="s">
         <v>145</v>
       </c>
@@ -34085,7 +34094,7 @@
       <c r="I30" s="140"/>
       <c r="J30" s="140"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="156" t="s">
         <v>145</v>
       </c>
@@ -34116,7 +34125,7 @@
       <c r="I31" s="140"/>
       <c r="J31" s="140"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="156" t="s">
         <v>145</v>
       </c>
@@ -34142,7 +34151,7 @@
       <c r="I32" s="140"/>
       <c r="J32" s="140"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="156" t="s">
         <v>145</v>
       </c>
@@ -34168,7 +34177,7 @@
       <c r="I33" s="140"/>
       <c r="J33" s="140"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="156" t="s">
         <v>145</v>
       </c>
@@ -34179,7 +34188,7 @@
         <v>90</v>
       </c>
       <c r="D34" s="79">
-        <f t="shared" ref="D34:D65" si="2">E34*(1+$T$1)</f>
+        <f t="shared" ref="D34:D62" si="2">E34*(1+$T$1)</f>
         <v>2.0999999999999996</v>
       </c>
       <c r="E34" s="79">
@@ -34194,7 +34203,7 @@
       <c r="I34" s="140"/>
       <c r="J34" s="140"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="156" t="s">
         <v>145</v>
       </c>
@@ -34220,7 +34229,7 @@
       <c r="I35" s="140"/>
       <c r="J35" s="140"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="156" t="s">
         <v>145</v>
       </c>
@@ -34246,7 +34255,7 @@
       <c r="I36" s="140"/>
       <c r="J36" s="140"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="156" t="s">
         <v>145</v>
       </c>
@@ -34274,7 +34283,7 @@
       <c r="I37" s="140"/>
       <c r="J37" s="140"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="156" t="s">
         <v>895</v>
       </c>
@@ -34302,7 +34311,7 @@
       <c r="I38" s="140"/>
       <c r="J38" s="140"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="156" t="s">
         <v>895</v>
       </c>
@@ -34488,7 +34497,7 @@
       <c r="I45" s="140"/>
       <c r="J45" s="140"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="156" t="s">
         <v>57</v>
       </c>
@@ -34514,7 +34523,7 @@
       <c r="I46" s="140"/>
       <c r="J46" s="140"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="156" t="s">
         <v>57</v>
       </c>
@@ -34540,7 +34549,7 @@
       <c r="I47" s="140"/>
       <c r="J47" s="140"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="156" t="s">
         <v>57</v>
       </c>
@@ -34566,7 +34575,7 @@
       <c r="I48" s="140"/>
       <c r="J48" s="140"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="156" t="s">
         <v>57</v>
       </c>
@@ -34618,7 +34627,7 @@
       <c r="I50" s="140"/>
       <c r="J50" s="140"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="156" t="s">
         <v>895</v>
       </c>
@@ -34644,7 +34653,7 @@
       <c r="I51" s="140"/>
       <c r="J51" s="140"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="156" t="s">
         <v>895</v>
       </c>
@@ -34670,7 +34679,7 @@
       <c r="I52" s="140"/>
       <c r="J52" s="140"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="156" t="s">
         <v>895</v>
       </c>
@@ -34698,7 +34707,7 @@
       <c r="I53" s="140"/>
       <c r="J53" s="140"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="156" t="s">
         <v>145</v>
       </c>
@@ -34728,7 +34737,7 @@
       <c r="I54" s="140"/>
       <c r="J54" s="140"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="156" t="s">
         <v>145</v>
       </c>
@@ -34754,7 +34763,7 @@
       <c r="I55" s="140"/>
       <c r="J55" s="140"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="156" t="s">
         <v>145</v>
       </c>
@@ -34784,7 +34793,7 @@
       <c r="I56" s="140"/>
       <c r="J56" s="140"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="156" t="s">
         <v>145</v>
       </c>
@@ -34810,7 +34819,7 @@
       <c r="I57" s="140"/>
       <c r="J57" s="140"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="156" t="s">
         <v>145</v>
       </c>
@@ -34836,7 +34845,7 @@
       <c r="I58" s="140"/>
       <c r="J58" s="140"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="156" t="s">
         <v>895</v>
       </c>
@@ -34864,7 +34873,7 @@
       <c r="I59" s="140"/>
       <c r="J59" s="140"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="156" t="s">
         <v>895</v>
       </c>
@@ -34892,7 +34901,7 @@
       <c r="I60" s="140"/>
       <c r="J60" s="140"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="156" t="s">
         <v>145</v>
       </c>
@@ -34918,7 +34927,7 @@
       <c r="I61" s="140"/>
       <c r="J61" s="140"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="156" t="s">
         <v>57</v>
       </c>
@@ -35076,7 +35085,7 @@
       <c r="I67" s="140"/>
       <c r="J67" s="140"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="156" t="s">
         <v>57</v>
       </c>
@@ -35102,7 +35111,7 @@
       <c r="I68" s="140"/>
       <c r="J68" s="140"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="156" t="s">
         <v>895</v>
       </c>
@@ -35128,7 +35137,7 @@
       <c r="I69" s="140"/>
       <c r="J69" s="140"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="156" t="s">
         <v>895</v>
       </c>
@@ -35156,7 +35165,7 @@
       <c r="I70" s="140"/>
       <c r="J70" s="140"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="156" t="s">
         <v>145</v>
       </c>
@@ -35182,7 +35191,7 @@
       <c r="I71" s="140"/>
       <c r="J71" s="140"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="156" t="s">
         <v>145</v>
       </c>
@@ -35208,7 +35217,7 @@
       <c r="I72" s="140"/>
       <c r="J72" s="140"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="156" t="s">
         <v>145</v>
       </c>
@@ -35234,7 +35243,7 @@
       <c r="I73" s="140"/>
       <c r="J73" s="140"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="156" t="s">
         <v>145</v>
       </c>
@@ -35262,7 +35271,7 @@
       <c r="I74" s="140"/>
       <c r="J74" s="140"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="156" t="s">
         <v>145</v>
       </c>
@@ -35288,7 +35297,7 @@
       <c r="I75" s="140"/>
       <c r="J75" s="140"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="156" t="s">
         <v>145</v>
       </c>
@@ -35316,7 +35325,7 @@
       <c r="I76" s="140"/>
       <c r="J76" s="140"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="156" t="s">
         <v>145</v>
       </c>
@@ -35342,7 +35351,7 @@
       <c r="I77" s="140"/>
       <c r="J77" s="140"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="156" t="s">
         <v>145</v>
       </c>
@@ -35368,7 +35377,7 @@
       <c r="I78" s="140"/>
       <c r="J78" s="140"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="156" t="s">
         <v>145</v>
       </c>
@@ -35394,7 +35403,7 @@
       <c r="I79" s="140"/>
       <c r="J79" s="140"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="156" t="s">
         <v>895</v>
       </c>
@@ -35424,7 +35433,7 @@
       <c r="I80" s="140"/>
       <c r="J80" s="140"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="156" t="s">
         <v>895</v>
       </c>
@@ -35480,7 +35489,7 @@
       <c r="I82" s="140"/>
       <c r="J82" s="140"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="156" t="s">
         <v>57</v>
       </c>
@@ -35506,7 +35515,7 @@
       <c r="I83" s="140"/>
       <c r="J83" s="140"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="156" t="s">
         <v>57</v>
       </c>
@@ -35532,7 +35541,7 @@
       <c r="I84" s="140"/>
       <c r="J84" s="140"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="94" t="s">
         <v>57</v>
       </c>
@@ -35558,7 +35567,7 @@
       <c r="I85" s="140"/>
       <c r="J85" s="140"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="96" t="s">
         <v>57</v>
       </c>
@@ -35586,7 +35595,7 @@
       <c r="I86" s="140"/>
       <c r="J86" s="140"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -35614,7 +35623,7 @@
       <c r="I87" s="140"/>
       <c r="J87" s="140"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88" t="s">
         <v>57</v>
       </c>
@@ -35640,7 +35649,7 @@
       <c r="I88" s="140"/>
       <c r="J88" s="140"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" t="s">
         <v>57</v>
       </c>
@@ -35722,7 +35731,7 @@
       <c r="I91" s="140"/>
       <c r="J91" s="140"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" t="s">
         <v>895</v>
       </c>
@@ -35750,7 +35759,7 @@
       <c r="I92" s="140"/>
       <c r="J92" s="140"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" t="s">
         <v>895</v>
       </c>
@@ -35776,7 +35785,7 @@
       <c r="I93" s="140"/>
       <c r="J93" s="140"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" t="s">
         <v>895</v>
       </c>
@@ -35804,7 +35813,7 @@
       <c r="I94" s="140"/>
       <c r="J94" s="140"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" t="s">
         <v>895</v>
       </c>
@@ -35830,7 +35839,7 @@
       <c r="I95" s="140"/>
       <c r="J95" s="140"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" t="s">
         <v>895</v>
       </c>
@@ -35856,7 +35865,7 @@
       <c r="I96" s="140"/>
       <c r="J96" s="140"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -35882,7 +35891,7 @@
       <c r="I97" s="140"/>
       <c r="J97" s="140"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" t="s">
         <v>145</v>
       </c>
@@ -35910,7 +35919,7 @@
       <c r="I98" s="140"/>
       <c r="J98" s="140"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -35936,7 +35945,7 @@
       <c r="I99" s="140"/>
       <c r="J99" s="140"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -35962,7 +35971,7 @@
       <c r="I100" s="140"/>
       <c r="J100" s="140"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" t="s">
         <v>145</v>
       </c>
@@ -35988,7 +35997,7 @@
       <c r="I101" s="140"/>
       <c r="J101" s="140"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -36014,7 +36023,7 @@
       <c r="I102" s="140"/>
       <c r="J102" s="140"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" t="s">
         <v>145</v>
       </c>
@@ -36092,7 +36101,7 @@
       <c r="I105" s="140"/>
       <c r="J105" s="140"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" t="s">
         <v>57</v>
       </c>
@@ -36144,7 +36153,7 @@
       <c r="I107" s="140"/>
       <c r="J107" s="140"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108" t="s">
         <v>895</v>
       </c>
@@ -36173,7 +36182,7 @@
       <c r="I108" s="140"/>
       <c r="J108" s="140"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" s="156" t="s">
         <v>895</v>
       </c>
@@ -36199,7 +36208,7 @@
       <c r="I109" s="140"/>
       <c r="J109" s="140"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="156" t="s">
         <v>895</v>
       </c>
@@ -36225,7 +36234,7 @@
       <c r="I110" s="140"/>
       <c r="J110" s="140"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111" s="156" t="s">
         <v>145</v>
       </c>
@@ -36251,7 +36260,7 @@
       <c r="I111" s="140"/>
       <c r="J111" s="140"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112" s="156" t="s">
         <v>145</v>
       </c>
@@ -36304,7 +36313,7 @@
       <c r="I113" s="140"/>
       <c r="J113" s="140"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1">
       <c r="A114" t="s">
         <v>145</v>
       </c>
@@ -36332,7 +36341,7 @@
       <c r="I114" s="140"/>
       <c r="J114" s="140"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -36358,7 +36367,7 @@
       <c r="I115" s="140"/>
       <c r="J115" s="140"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1">
       <c r="A116" t="s">
         <v>145</v>
       </c>
@@ -36410,7 +36419,7 @@
       <c r="I117" s="140"/>
       <c r="J117" s="140"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1">
       <c r="D118" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -36425,7 +36434,7 @@
       <c r="I118" s="140"/>
       <c r="J118" s="140"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1">
       <c r="D119" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -36440,7 +36449,7 @@
       <c r="I119" s="140"/>
       <c r="J119" s="140"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1">
       <c r="D120" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -36455,7 +36464,7 @@
       <c r="I120" s="140"/>
       <c r="J120" s="140"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1">
       <c r="D121" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -36470,7 +36479,7 @@
       <c r="I121" s="140"/>
       <c r="J121" s="140"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1">
       <c r="D122" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -36485,7 +36494,7 @@
       <c r="I122" s="140"/>
       <c r="J122" s="140"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" hidden="1">
       <c r="D123" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -36500,7 +36509,7 @@
       <c r="I123" s="140"/>
       <c r="J123" s="140"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" hidden="1">
       <c r="D124" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -36515,7 +36524,7 @@
       <c r="I124" s="140"/>
       <c r="J124" s="140"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" hidden="1">
       <c r="D125" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -36530,7 +36539,7 @@
       <c r="I125" s="140"/>
       <c r="J125" s="140"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" hidden="1">
       <c r="D126" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -36545,7 +36554,7 @@
       <c r="I126" s="140"/>
       <c r="J126" s="140"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1">
       <c r="D127" s="79" t="e">
         <f t="shared" ref="D127:D158" si="6">E127*(1+$T$1)</f>
         <v>#DIV/0!</v>
@@ -36560,7 +36569,7 @@
       <c r="I127" s="140"/>
       <c r="J127" s="140"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1">
       <c r="D128" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36575,7 +36584,7 @@
       <c r="I128" s="140"/>
       <c r="J128" s="140"/>
     </row>
-    <row r="129" spans="4:10">
+    <row r="129" spans="4:10" hidden="1">
       <c r="D129" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36590,7 +36599,7 @@
       <c r="I129" s="140"/>
       <c r="J129" s="140"/>
     </row>
-    <row r="130" spans="4:10">
+    <row r="130" spans="4:10" hidden="1">
       <c r="D130" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36605,7 +36614,7 @@
       <c r="I130" s="140"/>
       <c r="J130" s="140"/>
     </row>
-    <row r="131" spans="4:10">
+    <row r="131" spans="4:10" hidden="1">
       <c r="D131" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36620,7 +36629,7 @@
       <c r="I131" s="140"/>
       <c r="J131" s="140"/>
     </row>
-    <row r="132" spans="4:10">
+    <row r="132" spans="4:10" hidden="1">
       <c r="D132" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36635,7 +36644,7 @@
       <c r="I132" s="140"/>
       <c r="J132" s="140"/>
     </row>
-    <row r="133" spans="4:10">
+    <row r="133" spans="4:10" hidden="1">
       <c r="D133" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36650,7 +36659,7 @@
       <c r="I133" s="140"/>
       <c r="J133" s="140"/>
     </row>
-    <row r="134" spans="4:10">
+    <row r="134" spans="4:10" hidden="1">
       <c r="D134" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36665,7 +36674,7 @@
       <c r="I134" s="140"/>
       <c r="J134" s="140"/>
     </row>
-    <row r="135" spans="4:10">
+    <row r="135" spans="4:10" hidden="1">
       <c r="D135" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36680,7 +36689,7 @@
       <c r="I135" s="140"/>
       <c r="J135" s="140"/>
     </row>
-    <row r="136" spans="4:10">
+    <row r="136" spans="4:10" hidden="1">
       <c r="D136" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36695,7 +36704,7 @@
       <c r="I136" s="140"/>
       <c r="J136" s="140"/>
     </row>
-    <row r="137" spans="4:10">
+    <row r="137" spans="4:10" hidden="1">
       <c r="D137" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36710,7 +36719,7 @@
       <c r="I137" s="140"/>
       <c r="J137" s="140"/>
     </row>
-    <row r="138" spans="4:10">
+    <row r="138" spans="4:10" hidden="1">
       <c r="D138" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36725,7 +36734,7 @@
       <c r="I138" s="140"/>
       <c r="J138" s="140"/>
     </row>
-    <row r="139" spans="4:10">
+    <row r="139" spans="4:10" hidden="1">
       <c r="D139" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36740,7 +36749,7 @@
       <c r="I139" s="140"/>
       <c r="J139" s="140"/>
     </row>
-    <row r="140" spans="4:10">
+    <row r="140" spans="4:10" hidden="1">
       <c r="D140" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36755,7 +36764,7 @@
       <c r="I140" s="140"/>
       <c r="J140" s="140"/>
     </row>
-    <row r="141" spans="4:10">
+    <row r="141" spans="4:10" hidden="1">
       <c r="D141" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36770,7 +36779,7 @@
       <c r="I141" s="140"/>
       <c r="J141" s="140"/>
     </row>
-    <row r="142" spans="4:10">
+    <row r="142" spans="4:10" hidden="1">
       <c r="D142" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36785,7 +36794,7 @@
       <c r="I142" s="140"/>
       <c r="J142" s="140"/>
     </row>
-    <row r="143" spans="4:10">
+    <row r="143" spans="4:10" hidden="1">
       <c r="D143" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36800,7 +36809,7 @@
       <c r="I143" s="140"/>
       <c r="J143" s="140"/>
     </row>
-    <row r="144" spans="4:10">
+    <row r="144" spans="4:10" hidden="1">
       <c r="D144" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36815,7 +36824,7 @@
       <c r="I144" s="140"/>
       <c r="J144" s="140"/>
     </row>
-    <row r="145" spans="4:10">
+    <row r="145" spans="4:10" hidden="1">
       <c r="D145" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36830,7 +36839,7 @@
       <c r="I145" s="140"/>
       <c r="J145" s="140"/>
     </row>
-    <row r="146" spans="4:10">
+    <row r="146" spans="4:10" hidden="1">
       <c r="D146" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36845,7 +36854,7 @@
       <c r="I146" s="140"/>
       <c r="J146" s="140"/>
     </row>
-    <row r="147" spans="4:10">
+    <row r="147" spans="4:10" hidden="1">
       <c r="D147" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36860,7 +36869,7 @@
       <c r="I147" s="140"/>
       <c r="J147" s="140"/>
     </row>
-    <row r="148" spans="4:10">
+    <row r="148" spans="4:10" hidden="1">
       <c r="D148" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36875,7 +36884,7 @@
       <c r="I148" s="140"/>
       <c r="J148" s="140"/>
     </row>
-    <row r="149" spans="4:10">
+    <row r="149" spans="4:10" hidden="1">
       <c r="D149" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36890,7 +36899,7 @@
       <c r="I149" s="140"/>
       <c r="J149" s="140"/>
     </row>
-    <row r="150" spans="4:10">
+    <row r="150" spans="4:10" hidden="1">
       <c r="D150" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36905,7 +36914,7 @@
       <c r="I150" s="140"/>
       <c r="J150" s="140"/>
     </row>
-    <row r="151" spans="4:10">
+    <row r="151" spans="4:10" hidden="1">
       <c r="D151" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36920,7 +36929,7 @@
       <c r="I151" s="140"/>
       <c r="J151" s="140"/>
     </row>
-    <row r="152" spans="4:10">
+    <row r="152" spans="4:10" hidden="1">
       <c r="D152" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36935,7 +36944,7 @@
       <c r="I152" s="140"/>
       <c r="J152" s="140"/>
     </row>
-    <row r="153" spans="4:10">
+    <row r="153" spans="4:10" hidden="1">
       <c r="D153" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36950,7 +36959,7 @@
       <c r="I153" s="140"/>
       <c r="J153" s="140"/>
     </row>
-    <row r="154" spans="4:10">
+    <row r="154" spans="4:10" hidden="1">
       <c r="D154" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36965,7 +36974,7 @@
       <c r="I154" s="140"/>
       <c r="J154" s="140"/>
     </row>
-    <row r="155" spans="4:10">
+    <row r="155" spans="4:10" hidden="1">
       <c r="D155" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36980,7 +36989,7 @@
       <c r="I155" s="140"/>
       <c r="J155" s="140"/>
     </row>
-    <row r="156" spans="4:10">
+    <row r="156" spans="4:10" hidden="1">
       <c r="D156" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -36995,7 +37004,7 @@
       <c r="I156" s="140"/>
       <c r="J156" s="140"/>
     </row>
-    <row r="157" spans="4:10">
+    <row r="157" spans="4:10" hidden="1">
       <c r="D157" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -37010,7 +37019,7 @@
       <c r="I157" s="140"/>
       <c r="J157" s="140"/>
     </row>
-    <row r="158" spans="4:10">
+    <row r="158" spans="4:10" hidden="1">
       <c r="D158" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -37025,9 +37034,9 @@
       <c r="I158" s="140"/>
       <c r="J158" s="140"/>
     </row>
-    <row r="159" spans="4:10">
+    <row r="159" spans="4:10" hidden="1">
       <c r="D159" s="79" t="e">
-        <f t="shared" ref="D159:D190" si="8">E159*(1+$T$1)</f>
+        <f t="shared" ref="D159:D170" si="8">E159*(1+$T$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E159" s="79" t="e">
@@ -37040,7 +37049,7 @@
       <c r="I159" s="140"/>
       <c r="J159" s="140"/>
     </row>
-    <row r="160" spans="4:10">
+    <row r="160" spans="4:10" hidden="1">
       <c r="D160" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37055,7 +37064,7 @@
       <c r="I160" s="140"/>
       <c r="J160" s="140"/>
     </row>
-    <row r="161" spans="4:10">
+    <row r="161" spans="4:10" hidden="1">
       <c r="D161" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37070,7 +37079,7 @@
       <c r="I161" s="140"/>
       <c r="J161" s="140"/>
     </row>
-    <row r="162" spans="4:10">
+    <row r="162" spans="4:10" hidden="1">
       <c r="D162" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37085,7 +37094,7 @@
       <c r="I162" s="140"/>
       <c r="J162" s="140"/>
     </row>
-    <row r="163" spans="4:10">
+    <row r="163" spans="4:10" hidden="1">
       <c r="D163" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37100,7 +37109,7 @@
       <c r="I163" s="140"/>
       <c r="J163" s="140"/>
     </row>
-    <row r="164" spans="4:10">
+    <row r="164" spans="4:10" hidden="1">
       <c r="D164" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37115,7 +37124,7 @@
       <c r="I164" s="140"/>
       <c r="J164" s="140"/>
     </row>
-    <row r="165" spans="4:10">
+    <row r="165" spans="4:10" hidden="1">
       <c r="D165" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37130,7 +37139,7 @@
       <c r="I165" s="140"/>
       <c r="J165" s="140"/>
     </row>
-    <row r="166" spans="4:10">
+    <row r="166" spans="4:10" hidden="1">
       <c r="D166" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37145,7 +37154,7 @@
       <c r="I166" s="140"/>
       <c r="J166" s="140"/>
     </row>
-    <row r="167" spans="4:10">
+    <row r="167" spans="4:10" hidden="1">
       <c r="D167" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37160,7 +37169,7 @@
       <c r="I167" s="140"/>
       <c r="J167" s="140"/>
     </row>
-    <row r="168" spans="4:10">
+    <row r="168" spans="4:10" hidden="1">
       <c r="D168" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37175,7 +37184,7 @@
       <c r="I168" s="140"/>
       <c r="J168" s="140"/>
     </row>
-    <row r="169" spans="4:10">
+    <row r="169" spans="4:10" hidden="1">
       <c r="D169" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37190,7 +37199,7 @@
       <c r="I169" s="140"/>
       <c r="J169" s="140"/>
     </row>
-    <row r="170" spans="4:10">
+    <row r="170" spans="4:10" hidden="1">
       <c r="D170" s="79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -37205,7 +37214,7 @@
       <c r="I170" s="140"/>
       <c r="J170" s="140"/>
     </row>
-    <row r="171" spans="4:10">
+    <row r="171" spans="4:10" hidden="1">
       <c r="D171" s="79" t="e">
         <f t="shared" ref="D171:D202" si="9">E171*(1+$O$1)</f>
         <v>#DIV/0!</v>
@@ -37220,7 +37229,7 @@
       <c r="I171" s="140"/>
       <c r="J171" s="140"/>
     </row>
-    <row r="172" spans="4:10">
+    <row r="172" spans="4:10" hidden="1">
       <c r="D172" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37235,7 +37244,7 @@
       <c r="I172" s="140"/>
       <c r="J172" s="140"/>
     </row>
-    <row r="173" spans="4:10">
+    <row r="173" spans="4:10" hidden="1">
       <c r="D173" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37250,7 +37259,7 @@
       <c r="I173" s="140"/>
       <c r="J173" s="140"/>
     </row>
-    <row r="174" spans="4:10">
+    <row r="174" spans="4:10" hidden="1">
       <c r="D174" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37265,7 +37274,7 @@
       <c r="I174" s="140"/>
       <c r="J174" s="140"/>
     </row>
-    <row r="175" spans="4:10">
+    <row r="175" spans="4:10" hidden="1">
       <c r="D175" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37280,7 +37289,7 @@
       <c r="I175" s="140"/>
       <c r="J175" s="140"/>
     </row>
-    <row r="176" spans="4:10">
+    <row r="176" spans="4:10" hidden="1">
       <c r="D176" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37295,7 +37304,7 @@
       <c r="I176" s="140"/>
       <c r="J176" s="140"/>
     </row>
-    <row r="177" spans="4:10">
+    <row r="177" spans="4:10" hidden="1">
       <c r="D177" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37310,7 +37319,7 @@
       <c r="I177" s="140"/>
       <c r="J177" s="140"/>
     </row>
-    <row r="178" spans="4:10">
+    <row r="178" spans="4:10" hidden="1">
       <c r="D178" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37325,7 +37334,7 @@
       <c r="I178" s="140"/>
       <c r="J178" s="140"/>
     </row>
-    <row r="179" spans="4:10">
+    <row r="179" spans="4:10" hidden="1">
       <c r="D179" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37340,7 +37349,7 @@
       <c r="I179" s="140"/>
       <c r="J179" s="140"/>
     </row>
-    <row r="180" spans="4:10">
+    <row r="180" spans="4:10" hidden="1">
       <c r="D180" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37355,7 +37364,7 @@
       <c r="I180" s="140"/>
       <c r="J180" s="140"/>
     </row>
-    <row r="181" spans="4:10">
+    <row r="181" spans="4:10" hidden="1">
       <c r="D181" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37370,7 +37379,7 @@
       <c r="I181" s="140"/>
       <c r="J181" s="140"/>
     </row>
-    <row r="182" spans="4:10">
+    <row r="182" spans="4:10" hidden="1">
       <c r="D182" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37385,7 +37394,7 @@
       <c r="I182" s="140"/>
       <c r="J182" s="140"/>
     </row>
-    <row r="183" spans="4:10">
+    <row r="183" spans="4:10" hidden="1">
       <c r="D183" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37400,7 +37409,7 @@
       <c r="I183" s="140"/>
       <c r="J183" s="140"/>
     </row>
-    <row r="184" spans="4:10">
+    <row r="184" spans="4:10" hidden="1">
       <c r="D184" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37415,7 +37424,7 @@
       <c r="I184" s="140"/>
       <c r="J184" s="140"/>
     </row>
-    <row r="185" spans="4:10">
+    <row r="185" spans="4:10" hidden="1">
       <c r="D185" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37430,7 +37439,7 @@
       <c r="I185" s="140"/>
       <c r="J185" s="140"/>
     </row>
-    <row r="186" spans="4:10">
+    <row r="186" spans="4:10" hidden="1">
       <c r="D186" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37445,7 +37454,7 @@
       <c r="I186" s="140"/>
       <c r="J186" s="140"/>
     </row>
-    <row r="187" spans="4:10">
+    <row r="187" spans="4:10" hidden="1">
       <c r="D187" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37460,7 +37469,7 @@
       <c r="I187" s="140"/>
       <c r="J187" s="140"/>
     </row>
-    <row r="188" spans="4:10">
+    <row r="188" spans="4:10" hidden="1">
       <c r="D188" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37475,7 +37484,7 @@
       <c r="I188" s="140"/>
       <c r="J188" s="140"/>
     </row>
-    <row r="189" spans="4:10">
+    <row r="189" spans="4:10" hidden="1">
       <c r="D189" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37490,7 +37499,7 @@
       <c r="I189" s="140"/>
       <c r="J189" s="140"/>
     </row>
-    <row r="190" spans="4:10">
+    <row r="190" spans="4:10" hidden="1">
       <c r="D190" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37505,7 +37514,7 @@
       <c r="I190" s="140"/>
       <c r="J190" s="140"/>
     </row>
-    <row r="191" spans="4:10">
+    <row r="191" spans="4:10" hidden="1">
       <c r="D191" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37520,7 +37529,7 @@
       <c r="I191" s="140"/>
       <c r="J191" s="140"/>
     </row>
-    <row r="192" spans="4:10">
+    <row r="192" spans="4:10" hidden="1">
       <c r="D192" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37535,7 +37544,7 @@
       <c r="I192" s="140"/>
       <c r="J192" s="140"/>
     </row>
-    <row r="193" spans="4:10">
+    <row r="193" spans="4:10" hidden="1">
       <c r="D193" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37550,13 +37559,13 @@
       <c r="I193" s="140"/>
       <c r="J193" s="140"/>
     </row>
-    <row r="194" spans="4:10">
+    <row r="194" spans="4:10" hidden="1">
       <c r="D194" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E194" s="140" t="e">
-        <f t="shared" ref="E194:E257" si="10">AVERAGE(F194:Q194)</f>
+        <f t="shared" ref="E194:E246" si="10">AVERAGE(F194:Q194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F194" s="140"/>
@@ -37565,7 +37574,7 @@
       <c r="I194" s="140"/>
       <c r="J194" s="140"/>
     </row>
-    <row r="195" spans="4:10">
+    <row r="195" spans="4:10" hidden="1">
       <c r="D195" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37580,7 +37589,7 @@
       <c r="I195" s="140"/>
       <c r="J195" s="140"/>
     </row>
-    <row r="196" spans="4:10">
+    <row r="196" spans="4:10" hidden="1">
       <c r="D196" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37595,7 +37604,7 @@
       <c r="I196" s="140"/>
       <c r="J196" s="140"/>
     </row>
-    <row r="197" spans="4:10">
+    <row r="197" spans="4:10" hidden="1">
       <c r="D197" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37610,7 +37619,7 @@
       <c r="I197" s="140"/>
       <c r="J197" s="140"/>
     </row>
-    <row r="198" spans="4:10">
+    <row r="198" spans="4:10" hidden="1">
       <c r="D198" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37625,7 +37634,7 @@
       <c r="I198" s="140"/>
       <c r="J198" s="140"/>
     </row>
-    <row r="199" spans="4:10">
+    <row r="199" spans="4:10" hidden="1">
       <c r="D199" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37640,7 +37649,7 @@
       <c r="I199" s="140"/>
       <c r="J199" s="140"/>
     </row>
-    <row r="200" spans="4:10">
+    <row r="200" spans="4:10" hidden="1">
       <c r="D200" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37655,7 +37664,7 @@
       <c r="I200" s="140"/>
       <c r="J200" s="140"/>
     </row>
-    <row r="201" spans="4:10">
+    <row r="201" spans="4:10" hidden="1">
       <c r="D201" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37670,7 +37679,7 @@
       <c r="I201" s="140"/>
       <c r="J201" s="140"/>
     </row>
-    <row r="202" spans="4:10">
+    <row r="202" spans="4:10" hidden="1">
       <c r="D202" s="79" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -37685,7 +37694,7 @@
       <c r="I202" s="140"/>
       <c r="J202" s="140"/>
     </row>
-    <row r="203" spans="4:10">
+    <row r="203" spans="4:10" hidden="1">
       <c r="D203" s="79" t="e">
         <f t="shared" ref="D203:D234" si="11">E203*(1+$O$1)</f>
         <v>#DIV/0!</v>
@@ -37700,7 +37709,7 @@
       <c r="I203" s="140"/>
       <c r="J203" s="140"/>
     </row>
-    <row r="204" spans="4:10">
+    <row r="204" spans="4:10" hidden="1">
       <c r="D204" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37715,7 +37724,7 @@
       <c r="I204" s="140"/>
       <c r="J204" s="140"/>
     </row>
-    <row r="205" spans="4:10">
+    <row r="205" spans="4:10" hidden="1">
       <c r="D205" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37730,7 +37739,7 @@
       <c r="I205" s="140"/>
       <c r="J205" s="140"/>
     </row>
-    <row r="206" spans="4:10">
+    <row r="206" spans="4:10" hidden="1">
       <c r="D206" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37745,7 +37754,7 @@
       <c r="I206" s="140"/>
       <c r="J206" s="140"/>
     </row>
-    <row r="207" spans="4:10">
+    <row r="207" spans="4:10" hidden="1">
       <c r="D207" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37760,7 +37769,7 @@
       <c r="I207" s="140"/>
       <c r="J207" s="140"/>
     </row>
-    <row r="208" spans="4:10">
+    <row r="208" spans="4:10" hidden="1">
       <c r="D208" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37775,7 +37784,7 @@
       <c r="I208" s="140"/>
       <c r="J208" s="140"/>
     </row>
-    <row r="209" spans="4:10">
+    <row r="209" spans="4:10" hidden="1">
       <c r="D209" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37790,7 +37799,7 @@
       <c r="I209" s="140"/>
       <c r="J209" s="140"/>
     </row>
-    <row r="210" spans="4:10">
+    <row r="210" spans="4:10" hidden="1">
       <c r="D210" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37805,7 +37814,7 @@
       <c r="I210" s="140"/>
       <c r="J210" s="140"/>
     </row>
-    <row r="211" spans="4:10">
+    <row r="211" spans="4:10" hidden="1">
       <c r="D211" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37820,7 +37829,7 @@
       <c r="I211" s="140"/>
       <c r="J211" s="140"/>
     </row>
-    <row r="212" spans="4:10">
+    <row r="212" spans="4:10" hidden="1">
       <c r="D212" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37835,7 +37844,7 @@
       <c r="I212" s="140"/>
       <c r="J212" s="140"/>
     </row>
-    <row r="213" spans="4:10">
+    <row r="213" spans="4:10" hidden="1">
       <c r="D213" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37850,7 +37859,7 @@
       <c r="I213" s="140"/>
       <c r="J213" s="140"/>
     </row>
-    <row r="214" spans="4:10">
+    <row r="214" spans="4:10" hidden="1">
       <c r="D214" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37865,7 +37874,7 @@
       <c r="I214" s="140"/>
       <c r="J214" s="140"/>
     </row>
-    <row r="215" spans="4:10">
+    <row r="215" spans="4:10" hidden="1">
       <c r="D215" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37880,7 +37889,7 @@
       <c r="I215" s="140"/>
       <c r="J215" s="140"/>
     </row>
-    <row r="216" spans="4:10">
+    <row r="216" spans="4:10" hidden="1">
       <c r="D216" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37895,7 +37904,7 @@
       <c r="I216" s="140"/>
       <c r="J216" s="140"/>
     </row>
-    <row r="217" spans="4:10">
+    <row r="217" spans="4:10" hidden="1">
       <c r="D217" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37910,7 +37919,7 @@
       <c r="I217" s="140"/>
       <c r="J217" s="140"/>
     </row>
-    <row r="218" spans="4:10">
+    <row r="218" spans="4:10" hidden="1">
       <c r="D218" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37925,7 +37934,7 @@
       <c r="I218" s="140"/>
       <c r="J218" s="140"/>
     </row>
-    <row r="219" spans="4:10">
+    <row r="219" spans="4:10" hidden="1">
       <c r="D219" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37940,7 +37949,7 @@
       <c r="I219" s="140"/>
       <c r="J219" s="140"/>
     </row>
-    <row r="220" spans="4:10">
+    <row r="220" spans="4:10" hidden="1">
       <c r="D220" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37955,7 +37964,7 @@
       <c r="I220" s="140"/>
       <c r="J220" s="140"/>
     </row>
-    <row r="221" spans="4:10">
+    <row r="221" spans="4:10" hidden="1">
       <c r="D221" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37970,7 +37979,7 @@
       <c r="I221" s="140"/>
       <c r="J221" s="140"/>
     </row>
-    <row r="222" spans="4:10">
+    <row r="222" spans="4:10" hidden="1">
       <c r="D222" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -37985,7 +37994,7 @@
       <c r="I222" s="140"/>
       <c r="J222" s="140"/>
     </row>
-    <row r="223" spans="4:10">
+    <row r="223" spans="4:10" hidden="1">
       <c r="D223" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38000,7 +38009,7 @@
       <c r="I223" s="140"/>
       <c r="J223" s="140"/>
     </row>
-    <row r="224" spans="4:10">
+    <row r="224" spans="4:10" hidden="1">
       <c r="D224" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38015,7 +38024,7 @@
       <c r="I224" s="140"/>
       <c r="J224" s="140"/>
     </row>
-    <row r="225" spans="4:10">
+    <row r="225" spans="4:10" hidden="1">
       <c r="D225" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38030,7 +38039,7 @@
       <c r="I225" s="140"/>
       <c r="J225" s="140"/>
     </row>
-    <row r="226" spans="4:10">
+    <row r="226" spans="4:10" hidden="1">
       <c r="D226" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38045,7 +38054,7 @@
       <c r="I226" s="140"/>
       <c r="J226" s="140"/>
     </row>
-    <row r="227" spans="4:10">
+    <row r="227" spans="4:10" hidden="1">
       <c r="D227" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38060,7 +38069,7 @@
       <c r="I227" s="140"/>
       <c r="J227" s="140"/>
     </row>
-    <row r="228" spans="4:10">
+    <row r="228" spans="4:10" hidden="1">
       <c r="D228" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38075,7 +38084,7 @@
       <c r="I228" s="140"/>
       <c r="J228" s="140"/>
     </row>
-    <row r="229" spans="4:10">
+    <row r="229" spans="4:10" hidden="1">
       <c r="D229" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38090,7 +38099,7 @@
       <c r="I229" s="140"/>
       <c r="J229" s="140"/>
     </row>
-    <row r="230" spans="4:10">
+    <row r="230" spans="4:10" hidden="1">
       <c r="D230" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38105,7 +38114,7 @@
       <c r="I230" s="140"/>
       <c r="J230" s="140"/>
     </row>
-    <row r="231" spans="4:10">
+    <row r="231" spans="4:10" hidden="1">
       <c r="D231" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38120,7 +38129,7 @@
       <c r="I231" s="140"/>
       <c r="J231" s="140"/>
     </row>
-    <row r="232" spans="4:10">
+    <row r="232" spans="4:10" hidden="1">
       <c r="D232" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38135,7 +38144,7 @@
       <c r="I232" s="140"/>
       <c r="J232" s="140"/>
     </row>
-    <row r="233" spans="4:10">
+    <row r="233" spans="4:10" hidden="1">
       <c r="D233" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38150,7 +38159,7 @@
       <c r="I233" s="140"/>
       <c r="J233" s="140"/>
     </row>
-    <row r="234" spans="4:10">
+    <row r="234" spans="4:10" hidden="1">
       <c r="D234" s="79" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -38165,9 +38174,9 @@
       <c r="I234" s="140"/>
       <c r="J234" s="140"/>
     </row>
-    <row r="235" spans="4:10">
+    <row r="235" spans="4:10" hidden="1">
       <c r="D235" s="79" t="e">
-        <f t="shared" ref="D235:D266" si="12">E235*(1+$O$1)</f>
+        <f t="shared" ref="D235:D246" si="12">E235*(1+$O$1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E235" s="140" t="e">
@@ -38180,7 +38189,7 @@
       <c r="I235" s="140"/>
       <c r="J235" s="140"/>
     </row>
-    <row r="236" spans="4:10">
+    <row r="236" spans="4:10" hidden="1">
       <c r="D236" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -38195,7 +38204,7 @@
       <c r="I236" s="140"/>
       <c r="J236" s="140"/>
     </row>
-    <row r="237" spans="4:10">
+    <row r="237" spans="4:10" hidden="1">
       <c r="D237" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -38210,7 +38219,7 @@
       <c r="I237" s="140"/>
       <c r="J237" s="140"/>
     </row>
-    <row r="238" spans="4:10">
+    <row r="238" spans="4:10" hidden="1">
       <c r="D238" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -38225,7 +38234,7 @@
       <c r="I238" s="140"/>
       <c r="J238" s="140"/>
     </row>
-    <row r="239" spans="4:10">
+    <row r="239" spans="4:10" hidden="1">
       <c r="D239" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -38240,7 +38249,7 @@
       <c r="I239" s="140"/>
       <c r="J239" s="140"/>
     </row>
-    <row r="240" spans="4:10">
+    <row r="240" spans="4:10" hidden="1">
       <c r="D240" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -38255,7 +38264,7 @@
       <c r="I240" s="140"/>
       <c r="J240" s="140"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" hidden="1">
       <c r="D241" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -38270,7 +38279,7 @@
       <c r="I241" s="140"/>
       <c r="J241" s="140"/>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" hidden="1">
       <c r="D242" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -38285,7 +38294,7 @@
       <c r="I242" s="140"/>
       <c r="J242" s="140"/>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" hidden="1">
       <c r="D243" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -38300,7 +38309,7 @@
       <c r="I243" s="140"/>
       <c r="J243" s="140"/>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" hidden="1">
       <c r="A244" s="156"/>
       <c r="D244" s="79" t="e">
         <f t="shared" si="12"/>
@@ -38316,7 +38325,7 @@
       <c r="I244" s="140"/>
       <c r="J244" s="140"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" hidden="1">
       <c r="A245" s="156"/>
       <c r="D245" s="79" t="e">
         <f t="shared" si="12"/>
@@ -38332,7 +38341,7 @@
       <c r="I245" s="140"/>
       <c r="J245" s="140"/>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" hidden="1">
       <c r="D246" s="79" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -52746,18 +52755,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="V17:X17"/>
     <mergeCell ref="M27:O27"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -56658,10 +56667,10 @@
       <c r="A4" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="246" t="s">
+      <c r="C4" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="248">
+      <c r="D4" s="246">
         <f>SUMPRODUCT(I4:I9, E4:E9)</f>
         <v>20.011428571428571</v>
       </c>
@@ -56701,8 +56710,8 @@
       <c r="A5" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="248"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="246"/>
       <c r="E5" s="212">
         <v>5</v>
       </c>
@@ -56739,8 +56748,8 @@
       <c r="A6" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="248"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="246"/>
       <c r="E6" s="212">
         <v>1</v>
       </c>
@@ -56770,8 +56779,8 @@
       <c r="A7" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="212">
         <v>1</v>
       </c>
@@ -56805,8 +56814,8 @@
       <c r="A8" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="246"/>
-      <c r="D8" s="248"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="246"/>
       <c r="E8" s="212">
         <v>0</v>
       </c>
@@ -56840,8 +56849,8 @@
       <c r="A9" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="249"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="247"/>
       <c r="E9" s="167">
         <v>2</v>
       </c>
@@ -56896,25 +56905,25 @@
       <c r="A12" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="242" t="s">
+      <c r="F12" s="249" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="242"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="242"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="249"/>
     </row>
     <row r="13" spans="1:15" ht="19">
       <c r="A13" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="241" t="s">
+      <c r="F13" s="248" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
       <c r="K13" s="159"/>
       <c r="L13" s="159"/>
       <c r="M13" s="159"/>
@@ -56923,13 +56932,13 @@
       <c r="A14" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="241" t="s">
+      <c r="F14" s="248" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
       <c r="K14" s="159"/>
       <c r="L14" s="159"/>
       <c r="M14" s="159"/>
@@ -56938,28 +56947,28 @@
       <c r="A15" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="241" t="s">
+      <c r="F15" s="248" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="241"/>
-      <c r="M15" s="241"/>
+      <c r="G15" s="248"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="248"/>
+      <c r="J15" s="248"/>
+      <c r="K15" s="248"/>
+      <c r="L15" s="248"/>
+      <c r="M15" s="248"/>
     </row>
     <row r="16" spans="1:15" ht="19">
       <c r="A16" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="241" t="s">
+      <c r="F16" s="248" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="248"/>
+      <c r="J16" s="248"/>
       <c r="K16" s="159"/>
       <c r="L16" s="159"/>
       <c r="M16" s="159"/>
@@ -56968,13 +56977,13 @@
       <c r="A17" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="241" t="s">
+      <c r="F17" s="248" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="248"/>
       <c r="K17" s="159"/>
       <c r="L17" s="159"/>
       <c r="M17" s="159"/>
@@ -57024,10 +57033,10 @@
       <c r="A20" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="243" t="s">
+      <c r="B20" s="241" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="241" t="s">
         <v>179</v>
       </c>
       <c r="D20" s="87"/>
@@ -57095,12 +57104,12 @@
       <c r="A21" s="159" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="243"/>
-      <c r="C21" s="243"/>
-      <c r="D21" s="244" t="s">
+      <c r="B21" s="241"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242" t="s">
         <v>191</v>
       </c>
-      <c r="E21" s="245"/>
+      <c r="E21" s="243"/>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
@@ -57533,10 +57542,10 @@
       <c r="A30" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="242" t="s">
         <v>247</v>
       </c>
-      <c r="E30" s="245"/>
+      <c r="E30" s="243"/>
       <c r="F30" s="74"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
@@ -59183,18 +59192,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F16:J16"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="D4:D9"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59354,10 +59363,10 @@
       <c r="A4" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="246" t="s">
+      <c r="D4" s="244" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="248">
+      <c r="E4" s="246">
         <f>SUMPRODUCT(F4:F9, J4:J9)</f>
         <v>53.968672586474355</v>
       </c>
@@ -59388,8 +59397,8 @@
       <c r="A5" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="246"/>
-      <c r="E5" s="248"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="246"/>
       <c r="F5" s="212">
         <v>7.0000219999999969</v>
       </c>
@@ -59417,8 +59426,8 @@
       <c r="A6" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="246"/>
-      <c r="E6" s="248"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="246"/>
       <c r="F6" s="212">
         <v>5</v>
       </c>
@@ -59446,8 +59455,8 @@
       <c r="A7" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="248"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="246"/>
       <c r="F7" s="212">
         <v>6</v>
       </c>
@@ -59475,8 +59484,8 @@
       <c r="A8" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="246"/>
-      <c r="E8" s="248"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="246"/>
       <c r="F8" s="212">
         <v>0</v>
       </c>
@@ -59504,8 +59513,8 @@
       <c r="A9" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="247"/>
-      <c r="E9" s="249"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="247"/>
       <c r="F9" s="167">
         <v>6</v>
       </c>
@@ -59566,13 +59575,13 @@
       <c r="A13" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="241" t="s">
+      <c r="G13" s="248" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="241"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="248"/>
       <c r="L13" s="159"/>
       <c r="M13" s="159"/>
       <c r="N13" s="159"/>
@@ -59581,13 +59590,13 @@
       <c r="A14" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="241" t="s">
+      <c r="G14" s="248" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="241"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="248"/>
       <c r="L14" s="159"/>
       <c r="M14" s="159"/>
       <c r="N14" s="159"/>
@@ -59596,28 +59605,28 @@
       <c r="A15" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="241" t="s">
+      <c r="G15" s="248" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="241"/>
-      <c r="M15" s="241"/>
-      <c r="N15" s="241"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="248"/>
+      <c r="J15" s="248"/>
+      <c r="K15" s="248"/>
+      <c r="L15" s="248"/>
+      <c r="M15" s="248"/>
+      <c r="N15" s="248"/>
     </row>
     <row r="16" spans="1:14" ht="19">
       <c r="A16" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="241" t="s">
+      <c r="G16" s="248" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="241"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="248"/>
+      <c r="J16" s="248"/>
+      <c r="K16" s="248"/>
       <c r="L16" s="159"/>
       <c r="M16" s="159"/>
       <c r="N16" s="159"/>
@@ -59626,13 +59635,13 @@
       <c r="A17" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="241" t="s">
+      <c r="G17" s="248" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="241"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="248"/>
+      <c r="K17" s="248"/>
       <c r="L17" s="159"/>
       <c r="M17" s="159"/>
       <c r="N17" s="159"/>
@@ -59688,10 +59697,10 @@
       <c r="A20" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="243" t="s">
+      <c r="B20" s="241" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="241" t="s">
         <v>179</v>
       </c>
       <c r="F20" s="71" t="s">
@@ -59810,12 +59819,12 @@
       <c r="A21" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="243"/>
-      <c r="C21" s="243"/>
-      <c r="D21" s="244" t="s">
+      <c r="B21" s="241"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="245"/>
+      <c r="E21" s="243"/>
     </row>
     <row r="22" spans="1:42" ht="87" thickTop="1" thickBot="1">
       <c r="A22" s="160" t="s">
@@ -59901,10 +59910,10 @@
       <c r="A29" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="244" t="s">
+      <c r="D29" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="245"/>
+      <c r="E29" s="243"/>
     </row>
     <row r="30" spans="1:42" ht="53" thickTop="1" thickBot="1">
       <c r="A30" s="160" t="s">
@@ -60262,18 +60271,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D4:D9"/>
     <mergeCell ref="E4:E9"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -60445,10 +60454,10 @@
       <c r="A4" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="246" t="s">
+      <c r="D4" s="244" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="248">
+      <c r="E4" s="246">
         <f>SUMPRODUCT(J4:J9, F4:F9)</f>
         <v>34.552586765086765</v>
       </c>
@@ -60481,8 +60490,8 @@
       <c r="A5" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="246"/>
-      <c r="E5" s="248"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="246"/>
       <c r="F5" s="212">
         <v>10</v>
       </c>
@@ -60512,8 +60521,8 @@
       <c r="A6" s="160" t="s">
         <v>351</v>
       </c>
-      <c r="D6" s="246"/>
-      <c r="E6" s="248"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="246"/>
       <c r="F6" s="212">
         <v>3</v>
       </c>
@@ -60543,8 +60552,8 @@
       <c r="A7" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="248"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="246"/>
       <c r="F7" s="212">
         <v>3</v>
       </c>
@@ -60574,8 +60583,8 @@
       <c r="A8" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="246"/>
-      <c r="E8" s="248"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="246"/>
       <c r="F8" s="212">
         <v>1</v>
       </c>
@@ -60605,8 +60614,8 @@
       <c r="A9" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="247"/>
-      <c r="E9" s="249"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="247"/>
       <c r="F9" s="167">
         <v>3</v>
       </c>
@@ -60656,13 +60665,13 @@
       <c r="A12" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="251" t="s">
+      <c r="G12" s="253" t="s">
         <v>353</v>
       </c>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="251"/>
-      <c r="K12" s="251"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
       <c r="L12" s="211"/>
       <c r="M12" s="211"/>
     </row>
@@ -60670,13 +60679,13 @@
       <c r="A13" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="241" t="s">
+      <c r="G13" s="248" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="241"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="248"/>
       <c r="L13" s="210"/>
       <c r="M13" s="210"/>
       <c r="N13" s="159"/>
@@ -60687,13 +60696,13 @@
       <c r="A14" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="241" t="s">
+      <c r="G14" s="248" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="241"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="248"/>
       <c r="L14" s="210"/>
       <c r="M14" s="210"/>
       <c r="N14" s="159"/>
@@ -60704,30 +60713,30 @@
       <c r="A15" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="241" t="s">
+      <c r="G15" s="248" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="241"/>
-      <c r="M15" s="241"/>
-      <c r="N15" s="241"/>
-      <c r="O15" s="241"/>
-      <c r="P15" s="241"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="248"/>
+      <c r="J15" s="248"/>
+      <c r="K15" s="248"/>
+      <c r="L15" s="248"/>
+      <c r="M15" s="248"/>
+      <c r="N15" s="248"/>
+      <c r="O15" s="248"/>
+      <c r="P15" s="248"/>
     </row>
     <row r="16" spans="1:31" ht="19">
       <c r="A16" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="241" t="s">
+      <c r="G16" s="248" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="241"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="248"/>
+      <c r="J16" s="248"/>
+      <c r="K16" s="248"/>
       <c r="L16" s="210"/>
       <c r="M16" s="210"/>
       <c r="N16" s="159"/>
@@ -60743,13 +60752,13 @@
       <c r="A17" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="241" t="s">
+      <c r="G17" s="248" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="241"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="248"/>
+      <c r="K17" s="248"/>
       <c r="L17" s="210"/>
       <c r="M17" s="210" t="s">
         <v>354</v>
@@ -60835,10 +60844,10 @@
       <c r="A21" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="243" t="s">
+      <c r="B21" s="241" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="241" t="s">
         <v>179</v>
       </c>
       <c r="F21" s="87" t="s">
@@ -60957,12 +60966,12 @@
       <c r="A22" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="243"/>
-      <c r="C22" s="243"/>
-      <c r="D22" s="244" t="s">
+      <c r="B22" s="241"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242" t="s">
         <v>371</v>
       </c>
-      <c r="E22" s="245"/>
+      <c r="E22" s="243"/>
       <c r="F22" s="74"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
@@ -61620,10 +61629,10 @@
       <c r="A28" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="244" t="s">
+      <c r="D28" s="242" t="s">
         <v>436</v>
       </c>
-      <c r="E28" s="245"/>
+      <c r="E28" s="243"/>
       <c r="F28" s="74"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
@@ -62666,10 +62675,10 @@
       <c r="A39" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="252" t="s">
+      <c r="D39" s="251" t="s">
         <v>505</v>
       </c>
-      <c r="E39" s="253"/>
+      <c r="E39" s="252"/>
       <c r="F39" s="74">
         <v>1</v>
       </c>
@@ -63400,11 +63409,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="G15:P15"/>
@@ -63413,6 +63417,11 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63557,13 +63566,13 @@
       <c r="A3" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="254" t="s">
         <v>511</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
       <c r="O3">
         <f>COUNT($E$24:$E$29)</f>
         <v>6</v>
@@ -63573,13 +63582,13 @@
       <c r="A4" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="248" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
       <c r="K4" s="159"/>
       <c r="L4" s="159"/>
       <c r="M4" s="159"/>
@@ -63592,13 +63601,13 @@
       <c r="A5" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="241" t="s">
+      <c r="F5" s="248" t="s">
         <v>512</v>
       </c>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
       <c r="K5" s="159"/>
       <c r="L5" s="159"/>
       <c r="M5" s="159"/>
@@ -63611,16 +63620,16 @@
       <c r="A6" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="241" t="s">
+      <c r="F6" s="248" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="241"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="248"/>
+      <c r="K6" s="248"/>
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
       <c r="O6" t="b">
         <f>$E$24&lt;=3</f>
         <v>0</v>
@@ -63630,13 +63639,13 @@
       <c r="A7" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="241" t="s">
+      <c r="F7" s="248" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="248"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="248"/>
       <c r="K7" s="159"/>
       <c r="L7" s="159"/>
       <c r="M7" s="159"/>
@@ -63649,13 +63658,13 @@
       <c r="A8" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="241" t="s">
+      <c r="F8" s="248" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="248"/>
       <c r="K8" s="159"/>
       <c r="L8" s="159"/>
       <c r="M8" s="159"/>
@@ -63707,7 +63716,7 @@
       <c r="A12" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="254" t="s">
+      <c r="B12" s="255" t="s">
         <v>513</v>
       </c>
       <c r="C12" s="202"/>
@@ -63739,11 +63748,11 @@
       <c r="A13" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="255"/>
-      <c r="C13" s="246" t="s">
+      <c r="B13" s="256"/>
+      <c r="C13" s="244" t="s">
         <v>514</v>
       </c>
-      <c r="D13" s="248">
+      <c r="D13" s="246">
         <f>SUMPRODUCT(E13:E18, I13:I18)</f>
         <v>30.132308987308988</v>
       </c>
@@ -63778,9 +63787,9 @@
       <c r="A14" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="255"/>
-      <c r="C14" s="246"/>
-      <c r="D14" s="248"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="246"/>
       <c r="E14" s="212">
         <v>7</v>
       </c>
@@ -63812,9 +63821,9 @@
       <c r="A15" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="255"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="248"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="246"/>
       <c r="E15" s="212">
         <v>1</v>
       </c>
@@ -63846,9 +63855,9 @@
       <c r="A16" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="255"/>
-      <c r="C16" s="246"/>
-      <c r="D16" s="248"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="246"/>
       <c r="E16" s="212">
         <v>3</v>
       </c>
@@ -63880,9 +63889,9 @@
       <c r="A17" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="255"/>
-      <c r="C17" s="246"/>
-      <c r="D17" s="248"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="246"/>
       <c r="E17" s="212">
         <v>3</v>
       </c>
@@ -63914,9 +63923,9 @@
       <c r="A18" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="255"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="249"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="247"/>
       <c r="E18" s="167">
         <v>3</v>
       </c>
@@ -64009,7 +64018,7 @@
       <c r="A23" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="254" t="s">
+      <c r="B23" s="255" t="s">
         <v>515</v>
       </c>
       <c r="C23" s="202"/>
@@ -64037,11 +64046,11 @@
       <c r="A24" s="159" t="s">
         <v>424</v>
       </c>
-      <c r="B24" s="255"/>
-      <c r="C24" s="246" t="s">
+      <c r="B24" s="256"/>
+      <c r="C24" s="244" t="s">
         <v>514</v>
       </c>
-      <c r="D24" s="248">
+      <c r="D24" s="246">
         <f>SUMPRODUCT(I24:I29, E24:E29)</f>
         <v>48.233104765604764</v>
       </c>
@@ -64073,9 +64082,9 @@
       <c r="A25" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="255"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="248"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="246"/>
       <c r="E25" s="212">
         <v>11</v>
       </c>
@@ -64104,9 +64113,9 @@
       <c r="A26" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="255"/>
-      <c r="C26" s="246"/>
-      <c r="D26" s="248"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="246"/>
       <c r="E26" s="212">
         <v>3</v>
       </c>
@@ -64135,9 +64144,9 @@
       <c r="A27" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="255"/>
-      <c r="C27" s="246"/>
-      <c r="D27" s="248"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="246"/>
       <c r="E27" s="212">
         <v>5</v>
       </c>
@@ -64166,9 +64175,9 @@
       <c r="A28" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="255"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="248"/>
+      <c r="B28" s="256"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="246"/>
       <c r="E28" s="212">
         <v>4</v>
       </c>
@@ -64197,9 +64206,9 @@
       <c r="A29" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="255"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="249"/>
+      <c r="B29" s="256"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="247"/>
       <c r="E29" s="167">
         <v>4</v>
       </c>
@@ -64262,7 +64271,7 @@
       <c r="A33" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="254" t="s">
+      <c r="B33" s="255" t="s">
         <v>516</v>
       </c>
       <c r="C33" s="202"/>
@@ -64290,11 +64299,11 @@
       <c r="A34" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="255"/>
-      <c r="C34" s="246" t="s">
+      <c r="B34" s="256"/>
+      <c r="C34" s="244" t="s">
         <v>514</v>
       </c>
-      <c r="D34" s="248">
+      <c r="D34" s="246">
         <f>SUMPRODUCT(E34:E39, I34:I39)</f>
         <v>19.419383579383581</v>
       </c>
@@ -64326,9 +64335,9 @@
       <c r="A35" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="255"/>
-      <c r="C35" s="246"/>
-      <c r="D35" s="248"/>
+      <c r="B35" s="256"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="246"/>
       <c r="E35" s="212">
         <v>7</v>
       </c>
@@ -64357,9 +64366,9 @@
       <c r="A36" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="255"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="248"/>
+      <c r="B36" s="256"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="246"/>
       <c r="E36" s="212">
         <v>1</v>
       </c>
@@ -64388,9 +64397,9 @@
       <c r="A37" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="255"/>
-      <c r="C37" s="246"/>
-      <c r="D37" s="248"/>
+      <c r="B37" s="256"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="246"/>
       <c r="E37" s="212">
         <v>1</v>
       </c>
@@ -64419,9 +64428,9 @@
       <c r="A38" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="255"/>
-      <c r="C38" s="246"/>
-      <c r="D38" s="248"/>
+      <c r="B38" s="256"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="246"/>
       <c r="E38" s="212">
         <v>1</v>
       </c>
@@ -64450,9 +64459,9 @@
       <c r="A39" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="255"/>
-      <c r="C39" s="247"/>
-      <c r="D39" s="249"/>
+      <c r="B39" s="256"/>
+      <c r="C39" s="245"/>
+      <c r="D39" s="247"/>
       <c r="E39" s="167">
         <v>2</v>
       </c>
@@ -64492,7 +64501,7 @@
       <c r="A42" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="254" t="s">
+      <c r="B42" s="255" t="s">
         <v>518</v>
       </c>
       <c r="C42" s="202"/>
@@ -64520,11 +64529,11 @@
       <c r="A43" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="255"/>
-      <c r="C43" s="246" t="s">
+      <c r="B43" s="256"/>
+      <c r="C43" s="244" t="s">
         <v>514</v>
       </c>
-      <c r="D43" s="248">
+      <c r="D43" s="246">
         <f>SUMPRODUCT(E43:E48, I43:I48)</f>
         <v>18.360681818181821</v>
       </c>
@@ -64556,9 +64565,9 @@
       <c r="A44" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="255"/>
-      <c r="C44" s="246"/>
-      <c r="D44" s="248"/>
+      <c r="B44" s="256"/>
+      <c r="C44" s="244"/>
+      <c r="D44" s="246"/>
       <c r="E44" s="212">
         <v>0</v>
       </c>
@@ -64587,9 +64596,9 @@
       <c r="A45" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="255"/>
-      <c r="C45" s="246"/>
-      <c r="D45" s="248"/>
+      <c r="B45" s="256"/>
+      <c r="C45" s="244"/>
+      <c r="D45" s="246"/>
       <c r="E45" s="212">
         <v>0</v>
       </c>
@@ -64618,9 +64627,9 @@
       <c r="A46" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="255"/>
-      <c r="C46" s="246"/>
-      <c r="D46" s="248"/>
+      <c r="B46" s="256"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="246"/>
       <c r="E46" s="212">
         <v>0</v>
       </c>
@@ -64649,9 +64658,9 @@
       <c r="A47" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="255"/>
-      <c r="C47" s="246"/>
-      <c r="D47" s="248"/>
+      <c r="B47" s="256"/>
+      <c r="C47" s="244"/>
+      <c r="D47" s="246"/>
       <c r="E47" s="212">
         <v>2</v>
       </c>
@@ -64680,9 +64689,9 @@
       <c r="A48" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="255"/>
-      <c r="C48" s="247"/>
-      <c r="D48" s="249"/>
+      <c r="B48" s="256"/>
+      <c r="C48" s="245"/>
+      <c r="D48" s="247"/>
       <c r="E48" s="167">
         <v>1</v>
       </c>
@@ -64877,10 +64886,10 @@
       </c>
       <c r="B53" s="209"/>
       <c r="C53" s="209"/>
-      <c r="D53" s="244" t="s">
+      <c r="D53" s="242" t="s">
         <v>522</v>
       </c>
-      <c r="E53" s="245"/>
+      <c r="E53" s="243"/>
       <c r="F53" s="74"/>
       <c r="G53" s="74"/>
       <c r="H53" s="74"/>
@@ -65465,10 +65474,10 @@
       <c r="A59" s="160" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="244" t="s">
+      <c r="D59" s="242" t="s">
         <v>530</v>
       </c>
-      <c r="E59" s="245"/>
+      <c r="E59" s="243"/>
       <c r="F59" s="74"/>
       <c r="G59" s="74"/>
       <c r="H59" s="74"/>
@@ -66516,13 +66525,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F7:J7"/>
     <mergeCell ref="B42:B48"/>
     <mergeCell ref="C43:C48"/>
     <mergeCell ref="D43:D48"/>
@@ -66536,6 +66538,13 @@
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -69173,52 +69182,52 @@
       <c r="D2" s="143" t="s">
         <v>568</v>
       </c>
-      <c r="E2" s="263" t="s">
+      <c r="E2" s="264" t="s">
         <v>569</v>
       </c>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="264" t="s">
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="265" t="s">
         <v>570</v>
       </c>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="265" t="s">
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="266" t="s">
         <v>571</v>
       </c>
-      <c r="L2" s="265"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="266" t="s">
+      <c r="L2" s="266"/>
+      <c r="M2" s="266"/>
+      <c r="N2" s="267" t="s">
         <v>572</v>
       </c>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="267" t="s">
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="268" t="s">
         <v>573</v>
       </c>
-      <c r="R2" s="267"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="268" t="s">
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269" t="s">
         <v>574</v>
       </c>
-      <c r="U2" s="268"/>
-      <c r="V2" s="268"/>
-      <c r="W2" s="269" t="s">
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="260" t="s">
         <v>575</v>
       </c>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="259" t="s">
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261" t="s">
         <v>576</v>
       </c>
-      <c r="AA2" s="259"/>
-      <c r="AB2" s="260"/>
+      <c r="AA2" s="261"/>
+      <c r="AB2" s="262"/>
     </row>
     <row r="3" spans="2:28">
       <c r="C3" s="145" t="s">
         <v>577</v>
       </c>
-      <c r="D3" s="261" t="s">
+      <c r="D3" s="259" t="s">
         <v>309</v>
       </c>
       <c r="AB3" s="115"/>
@@ -69227,14 +69236,14 @@
       <c r="C4" s="146" t="s">
         <v>578</v>
       </c>
-      <c r="D4" s="261"/>
+      <c r="D4" s="259"/>
       <c r="AB4" s="115"/>
     </row>
     <row r="5" spans="2:28">
       <c r="C5" s="148" t="s">
         <v>579</v>
       </c>
-      <c r="D5" s="262"/>
+      <c r="D5" s="263"/>
       <c r="E5" s="97"/>
       <c r="F5" s="97"/>
       <c r="G5" s="97"/>
@@ -69264,7 +69273,7 @@
       <c r="C6" s="145" t="s">
         <v>577</v>
       </c>
-      <c r="D6" s="261" t="s">
+      <c r="D6" s="259" t="s">
         <v>309</v>
       </c>
       <c r="AB6" s="115"/>
@@ -69273,14 +69282,14 @@
       <c r="C7" s="146" t="s">
         <v>578</v>
       </c>
-      <c r="D7" s="261"/>
+      <c r="D7" s="259"/>
       <c r="AB7" s="115"/>
     </row>
     <row r="8" spans="2:28">
       <c r="C8" s="148" t="s">
         <v>579</v>
       </c>
-      <c r="D8" s="262"/>
+      <c r="D8" s="263"/>
       <c r="E8" s="97"/>
       <c r="F8" s="97"/>
       <c r="G8" s="97"/>
@@ -69310,7 +69319,7 @@
       <c r="C9" s="145" t="s">
         <v>577</v>
       </c>
-      <c r="D9" s="261" t="s">
+      <c r="D9" s="259" t="s">
         <v>309</v>
       </c>
       <c r="AB9" s="115"/>
@@ -69319,21 +69328,21 @@
       <c r="C10" s="146" t="s">
         <v>578</v>
       </c>
-      <c r="D10" s="261"/>
+      <c r="D10" s="259"/>
       <c r="AB10" s="115"/>
     </row>
     <row r="11" spans="2:28">
       <c r="C11" s="147" t="s">
         <v>579</v>
       </c>
-      <c r="D11" s="261"/>
+      <c r="D11" s="259"/>
       <c r="AB11" s="115"/>
     </row>
     <row r="12" spans="2:28">
       <c r="C12" s="145" t="s">
         <v>577</v>
       </c>
-      <c r="D12" s="261" t="s">
+      <c r="D12" s="259" t="s">
         <v>41</v>
       </c>
       <c r="AB12" s="115"/>
@@ -69342,21 +69351,21 @@
       <c r="C13" s="146" t="s">
         <v>578</v>
       </c>
-      <c r="D13" s="261"/>
+      <c r="D13" s="259"/>
       <c r="AB13" s="115"/>
     </row>
     <row r="14" spans="2:28">
       <c r="C14" s="147" t="s">
         <v>579</v>
       </c>
-      <c r="D14" s="261"/>
+      <c r="D14" s="259"/>
       <c r="AB14" s="115"/>
     </row>
     <row r="15" spans="2:28">
       <c r="C15" s="145" t="s">
         <v>577</v>
       </c>
-      <c r="D15" s="261" t="s">
+      <c r="D15" s="259" t="s">
         <v>580</v>
       </c>
       <c r="AB15" s="115"/>
@@ -69365,21 +69374,21 @@
       <c r="C16" s="146" t="s">
         <v>578</v>
       </c>
-      <c r="D16" s="261"/>
+      <c r="D16" s="259"/>
       <c r="AB16" s="115"/>
     </row>
     <row r="17" spans="3:28">
       <c r="C17" s="147" t="s">
         <v>579</v>
       </c>
-      <c r="D17" s="261"/>
+      <c r="D17" s="259"/>
       <c r="AB17" s="115"/>
     </row>
     <row r="18" spans="3:28">
       <c r="C18" s="145" t="s">
         <v>577</v>
       </c>
-      <c r="D18" s="261" t="s">
+      <c r="D18" s="259" t="s">
         <v>54</v>
       </c>
       <c r="AB18" s="115"/>
@@ -69388,21 +69397,21 @@
       <c r="C19" s="146" t="s">
         <v>578</v>
       </c>
-      <c r="D19" s="261"/>
+      <c r="D19" s="259"/>
       <c r="AB19" s="115"/>
     </row>
     <row r="20" spans="3:28">
       <c r="C20" s="147" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="261"/>
+      <c r="D20" s="259"/>
       <c r="AB20" s="115"/>
     </row>
     <row r="21" spans="3:28">
       <c r="C21" s="145" t="s">
         <v>577</v>
       </c>
-      <c r="D21" s="261" t="s">
+      <c r="D21" s="259" t="s">
         <v>33</v>
       </c>
       <c r="AB21" s="115"/>
@@ -69411,21 +69420,21 @@
       <c r="C22" s="146" t="s">
         <v>578</v>
       </c>
-      <c r="D22" s="261"/>
+      <c r="D22" s="259"/>
       <c r="AB22" s="115"/>
     </row>
     <row r="23" spans="3:28">
       <c r="C23" s="147" t="s">
         <v>579</v>
       </c>
-      <c r="D23" s="261"/>
+      <c r="D23" s="259"/>
       <c r="AB23" s="115"/>
     </row>
     <row r="24" spans="3:28">
       <c r="C24" s="145" t="s">
         <v>577</v>
       </c>
-      <c r="D24" s="261" t="s">
+      <c r="D24" s="259" t="s">
         <v>28</v>
       </c>
       <c r="AB24" s="115"/>
@@ -69434,14 +69443,14 @@
       <c r="C25" s="146" t="s">
         <v>578</v>
       </c>
-      <c r="D25" s="261"/>
+      <c r="D25" s="259"/>
       <c r="AB25" s="115"/>
     </row>
     <row r="26" spans="3:28">
       <c r="C26" s="147" t="s">
         <v>579</v>
       </c>
-      <c r="D26" s="261"/>
+      <c r="D26" s="259"/>
       <c r="AB26" s="115"/>
     </row>
     <row r="27" spans="3:28">
@@ -69650,11 +69659,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
@@ -69666,6 +69670,11 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
